--- a/outputs/SupplementalTables.xlsx
+++ b/outputs/SupplementalTables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwel\OneDrive\Desktop\AppraisingGrazing\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A194928-51AB-4D15-ABC5-0DF7F18AEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D6B748-D447-45F4-801B-F4D5A027B13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="4" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="ElementTRT" sheetId="1" r:id="rId1"/>
-    <sheet name="ElementGradient" sheetId="2" r:id="rId2"/>
-    <sheet name="BiomassTRT" sheetId="3" r:id="rId3"/>
-    <sheet name="BiomassGradient" sheetId="4" r:id="rId4"/>
+    <sheet name="SiteDescriptions" sheetId="5" r:id="rId1"/>
+    <sheet name="ElementTRT" sheetId="1" r:id="rId2"/>
+    <sheet name="ElementGradient" sheetId="2" r:id="rId3"/>
+    <sheet name="BiomassTRT" sheetId="3" r:id="rId4"/>
+    <sheet name="BiomassGradient" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="93">
   <si>
     <t>bison</t>
   </si>
@@ -147,6 +148,203 @@
   </si>
   <si>
     <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>site name</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>bison/ acre</t>
+  </si>
+  <si>
+    <t>cattle/ acre</t>
+  </si>
+  <si>
+    <t>prairie dog dung/m2</t>
+  </si>
+  <si>
+    <t>grasshoppers/ m2</t>
+  </si>
+  <si>
+    <t>bison_1</t>
+  </si>
+  <si>
+    <t>Sun Prairie, AP deeded</t>
+  </si>
+  <si>
+    <t>17 ± 7.6 SE</t>
+  </si>
+  <si>
+    <t>bison_2</t>
+  </si>
+  <si>
+    <t>White Rock, AP deeded</t>
+  </si>
+  <si>
+    <t>6.2 ± 1.6 SE</t>
+  </si>
+  <si>
+    <t>bison_3</t>
+  </si>
+  <si>
+    <t>Dry Fork, AP deeded</t>
+  </si>
+  <si>
+    <t>6.4 ± 1.4 SE</t>
+  </si>
+  <si>
+    <t>cattle_1</t>
+  </si>
+  <si>
+    <t>Blue Ridge, AP deeded</t>
+  </si>
+  <si>
+    <t>9.6 ± 2 SE</t>
+  </si>
+  <si>
+    <t>cattle_2</t>
+  </si>
+  <si>
+    <t>6.5 ± 1.4 SE</t>
+  </si>
+  <si>
+    <t>cattle_3</t>
+  </si>
+  <si>
+    <t>Dry Fork, BLM</t>
+  </si>
+  <si>
+    <t>15 ± 2.9 SE</t>
+  </si>
+  <si>
+    <t>ungrazed_1</t>
+  </si>
+  <si>
+    <t>ungrazed</t>
+  </si>
+  <si>
+    <t>CMR NWR</t>
+  </si>
+  <si>
+    <t>7.4 ± 1.1 SE</t>
+  </si>
+  <si>
+    <t>ungrazed_2</t>
+  </si>
+  <si>
+    <t>3.5 ± 0.5 SE</t>
+  </si>
+  <si>
+    <t>ungrazed_3</t>
+  </si>
+  <si>
+    <t>Bowdoin NWR</t>
+  </si>
+  <si>
+    <t>2.3 ± 0.7 SE</t>
+  </si>
+  <si>
+    <t>trtpd_1</t>
+  </si>
+  <si>
+    <t>treated prairie dog</t>
+  </si>
+  <si>
+    <t>6.7 ± 1.6 SE</t>
+  </si>
+  <si>
+    <t>0.8 ± 0.3 SE</t>
+  </si>
+  <si>
+    <t>trtpd_2</t>
+  </si>
+  <si>
+    <t>11.6 ± 3.5 SE</t>
+  </si>
+  <si>
+    <t>1.1 ± 0.3 SE</t>
+  </si>
+  <si>
+    <t>trtpd_3</t>
+  </si>
+  <si>
+    <t>6.3 ± 0.9 SE</t>
+  </si>
+  <si>
+    <t>1.8 ± 0.7 SE</t>
+  </si>
+  <si>
+    <t>untrtpd_1</t>
+  </si>
+  <si>
+    <t>untreated prairie dog</t>
+  </si>
+  <si>
+    <t>156.1 ± 7 SE</t>
+  </si>
+  <si>
+    <t>7 ± 1.9 SE</t>
+  </si>
+  <si>
+    <t>untrtpd_2</t>
+  </si>
+  <si>
+    <t>15.8 ± 2.5 SE</t>
+  </si>
+  <si>
+    <t>10.9 ± 2.3 SE</t>
+  </si>
+  <si>
+    <t>untrtpd_3</t>
+  </si>
+  <si>
+    <t>8 ± 1.5 SE</t>
+  </si>
+  <si>
+    <t>19 ± 7.8 SE</t>
+  </si>
+  <si>
+    <r>
+      <t>mR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -155,9 +353,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +384,43 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +437,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -234,13 +473,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +566,46 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,57 +615,67 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{F92E831B-1F93-45C4-9A5F-F6D64E59A664}"/>
   </cellStyles>
@@ -718,1623 +1008,2375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9345813A-2DFE-4E66-B055-012251326829}">
-  <dimension ref="A1:Z36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7860D19F-8F0B-4E39-86D4-42733D7B2545}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:T31"/>
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="53">
+        <v>47.777996999999999</v>
+      </c>
+      <c r="E2" s="53">
+        <v>-107.753106</v>
+      </c>
+      <c r="F2" s="53">
+        <v>1.4448000000000001E-2</v>
+      </c>
+      <c r="G2" s="53">
+        <v>0</v>
+      </c>
+      <c r="H2" s="53">
+        <v>0</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="53">
+        <v>47.977333000000002</v>
+      </c>
+      <c r="E3" s="53">
+        <v>-107.97136999999999</v>
+      </c>
+      <c r="F3" s="53">
+        <v>1.7616E-2</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0</v>
+      </c>
+      <c r="H3" s="53">
+        <v>0</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="53">
+        <v>47.897232000000002</v>
+      </c>
+      <c r="E4" s="53">
+        <v>-108.152952</v>
+      </c>
+      <c r="F4" s="53">
+        <v>1.2612999999999999E-2</v>
+      </c>
+      <c r="G4" s="53">
+        <v>0</v>
+      </c>
+      <c r="H4" s="53">
+        <v>0</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="50">
+        <v>47.754890000000003</v>
+      </c>
+      <c r="E5" s="50">
+        <v>-107.57931600000001</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
+        <v>2.4983999999999999E-2</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="50">
+        <v>47.910995999999997</v>
+      </c>
+      <c r="E6" s="50">
+        <v>-108.05505700000001</v>
+      </c>
+      <c r="F6" s="50">
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <v>2.9739999999999999E-2</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="50">
+        <v>47.811923999999998</v>
+      </c>
+      <c r="E7" s="50">
+        <v>-108.175135</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>2.63E-2</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="53">
+        <v>47.711489</v>
+      </c>
+      <c r="E8" s="53">
+        <v>-107.77458900000001</v>
+      </c>
+      <c r="F8" s="53">
+        <v>0</v>
+      </c>
+      <c r="G8" s="53">
+        <v>0</v>
+      </c>
+      <c r="H8" s="53">
+        <v>0</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="53">
+        <v>47.697944999999997</v>
+      </c>
+      <c r="E9" s="53">
+        <v>-107.669584</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0</v>
+      </c>
+      <c r="H9" s="53">
+        <v>0</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="53">
+        <v>48.391666999999998</v>
+      </c>
+      <c r="E10" s="53">
+        <v>-107.68186300000001</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0</v>
+      </c>
+      <c r="H10" s="53">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="50">
+        <v>47.781408999999996</v>
+      </c>
+      <c r="E11" s="50">
+        <v>-107.778515</v>
+      </c>
+      <c r="F11" s="50">
+        <v>1.4448000000000001E-2</v>
+      </c>
+      <c r="G11" s="50">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="50">
+        <v>47.764141000000002</v>
+      </c>
+      <c r="E12" s="50">
+        <v>-107.746335</v>
+      </c>
+      <c r="F12" s="50">
+        <v>1.4448000000000001E-2</v>
+      </c>
+      <c r="G12" s="50">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="50">
+        <v>47.734526000000002</v>
+      </c>
+      <c r="E13" s="50">
+        <v>-107.77919900000001</v>
+      </c>
+      <c r="F13" s="50">
+        <v>1.4448000000000001E-2</v>
+      </c>
+      <c r="G13" s="50">
+        <v>0</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="53">
+        <v>47.982081999999998</v>
+      </c>
+      <c r="E14" s="53">
+        <v>-107.93881</v>
+      </c>
+      <c r="F14" s="53">
+        <v>1.7616E-2</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="53">
+        <v>47.893331000000003</v>
+      </c>
+      <c r="E15" s="53">
+        <v>-108.17267699999999</v>
+      </c>
+      <c r="F15" s="53">
+        <v>1.2612999999999999E-2</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="57">
+        <v>47.870778000000001</v>
+      </c>
+      <c r="E16" s="57">
+        <v>-108.231315</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1.2612999999999999E-2</v>
+      </c>
+      <c r="G16" s="57">
+        <v>0</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9345813A-2DFE-4E66-B055-012251326829}">
+  <dimension ref="A1:AF36"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="11" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="K1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="T1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
         <v>2.42152402314759E-2</v>
       </c>
-      <c r="D2" s="14">
+      <c r="F2" s="14">
         <v>7.8071331127039706E-2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="G2" s="14">
         <v>0.31016814856239899</v>
       </c>
-      <c r="F2" s="15">
+      <c r="H2" s="15">
         <v>0.75643309065928399</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="J2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
         <v>3.45448354860707E-2</v>
       </c>
-      <c r="K2" s="14">
+      <c r="O2" s="14">
         <v>0.12629859723602299</v>
       </c>
-      <c r="L2" s="14">
+      <c r="P2" s="14">
         <v>0.27351717471188097</v>
       </c>
-      <c r="M2" s="15">
+      <c r="Q2" s="15">
         <v>0.78445569199090504</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="S2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
         <v>-7.0003305806348804E-3</v>
       </c>
-      <c r="R2" s="14">
+      <c r="X2" s="14">
         <v>0.173113001360124</v>
       </c>
-      <c r="S2" s="14">
+      <c r="Y2" s="14">
         <v>-4.0437925087279801E-2</v>
       </c>
-      <c r="T2" s="15">
+      <c r="Z2" s="15">
         <v>0.96774399511659404</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="E3" s="14">
         <v>1.4190566985592601E-2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="F3" s="14">
         <v>7.8311750721944698E-2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="G3" s="14">
         <v>0.18120610067801901</v>
       </c>
-      <c r="F3" s="15">
+      <c r="H3" s="15">
         <v>0.85620580622572096</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="62"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="N3" s="14">
         <v>-0.194466526970899</v>
       </c>
-      <c r="K3" s="14">
+      <c r="O3" s="14">
         <v>0.122143484842565</v>
       </c>
-      <c r="L3" s="14">
+      <c r="P3" s="14">
         <v>-1.5921154306474401</v>
       </c>
-      <c r="M3" s="15">
+      <c r="Q3" s="15">
         <v>0.111358770556964</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="13" t="s">
+      <c r="S3" s="62"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="W3" s="14">
         <v>-0.110586699903212</v>
       </c>
-      <c r="R3" s="14">
+      <c r="X3" s="14">
         <v>0.173113001360124</v>
       </c>
-      <c r="S3" s="14">
+      <c r="Y3" s="14">
         <v>-0.63881221534112398</v>
       </c>
-      <c r="T3" s="15">
+      <c r="Z3" s="15">
         <v>0.52294510072870704</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="44">
+        <v>0.59</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14">
+      <c r="E4" s="14">
         <v>0.159032055911285</v>
       </c>
-      <c r="D4" s="14">
+      <c r="F4" s="14">
         <v>0.123743395934446</v>
       </c>
-      <c r="E4" s="14">
+      <c r="G4" s="14">
         <v>1.2851761074630099</v>
       </c>
-      <c r="F4" s="15">
+      <c r="H4" s="15">
         <v>0.198730750798048</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="62"/>
+      <c r="K4" s="44">
+        <v>0.41</v>
+      </c>
+      <c r="L4" s="44">
+        <v>0.83</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="14">
+      <c r="N4" s="14">
         <v>7.4413004066024496E-2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="O4" s="14">
         <v>0.12188769632704601</v>
       </c>
-      <c r="L4" s="14">
+      <c r="P4" s="14">
         <v>0.61050463917507602</v>
       </c>
-      <c r="M4" s="15">
+      <c r="Q4" s="15">
         <v>0.54152757122083806</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="13" t="s">
+      <c r="S4" s="62"/>
+      <c r="T4" s="44">
+        <v>0.21</v>
+      </c>
+      <c r="U4" s="44">
+        <v>0.84</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="W4" s="14">
         <v>-6.9025691318559304E-2</v>
       </c>
-      <c r="R4" s="14">
+      <c r="X4" s="14">
         <v>0.173113001360124</v>
       </c>
-      <c r="S4" s="14">
+      <c r="Y4" s="14">
         <v>-0.39873198879480098</v>
       </c>
-      <c r="T4" s="15">
+      <c r="Z4" s="15">
         <v>0.69009069474753604</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="62"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="21">
+      <c r="E5" s="21">
         <v>0.18415790799878701</v>
       </c>
-      <c r="D5" s="14">
+      <c r="F5" s="14">
         <v>7.94323208680663E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="G5" s="14">
         <v>2.3184253712624798</v>
       </c>
-      <c r="F5" s="22">
+      <c r="H5" s="22">
         <v>2.0426214511249902E-2</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="14">
+      <c r="N5" s="14">
         <v>-6.6481368870013893E-2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="O5" s="14">
         <v>0.122132387618716</v>
       </c>
-      <c r="L5" s="14">
+      <c r="P5" s="14">
         <v>-0.54433856707658401</v>
       </c>
-      <c r="M5" s="15">
+      <c r="Q5" s="15">
         <v>0.58620851191461298</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="13" t="s">
+      <c r="S5" s="62"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="W5" s="14">
         <v>0.22361294007199101</v>
       </c>
-      <c r="R5" s="14">
+      <c r="X5" s="14">
         <v>0.173113001360124</v>
       </c>
-      <c r="S5" s="14">
+      <c r="Y5" s="14">
         <v>1.29171661466843</v>
       </c>
-      <c r="T5" s="15">
+      <c r="Z5" s="15">
         <v>0.196455301496576</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17">
+      <c r="E6" s="17">
         <v>-8.7747694889480102E-2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="F6" s="18">
         <v>9.1580087255027504E-3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="G6" s="18">
         <v>-9.5815255826438399</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="63"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="17">
+      <c r="N6" s="17">
         <v>-6.6765536797300004E-2</v>
       </c>
-      <c r="K6" s="18">
+      <c r="O6" s="18">
         <v>1.0691547957890899E-2</v>
       </c>
-      <c r="L6" s="18">
+      <c r="P6" s="18">
         <v>-6.2447025501132796</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="Q6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="16" t="s">
+      <c r="S6" s="63"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="W6" s="18">
         <v>-9.5298116621168293E-3</v>
       </c>
-      <c r="R6" s="18">
+      <c r="X6" s="18">
         <v>1.18826869942341E-2</v>
       </c>
-      <c r="S6" s="18">
+      <c r="Y6" s="18">
         <v>-0.80199130606916103</v>
       </c>
-      <c r="T6" s="20">
+      <c r="Z6" s="20">
         <v>0.42255798731727201</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>7.6623583447806398E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="F7" s="4">
         <v>0.102448490382453</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="4">
         <v>0.747923011473974</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="5">
         <v>0.45450659664544801</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="J7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <v>-5.0162129360879996E-3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="O7" s="4">
         <v>0.100461666280054</v>
       </c>
-      <c r="L7" s="4">
+      <c r="P7" s="4">
         <v>-4.9931611945440303E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="Q7" s="5">
         <v>0.96017688602466</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="S7" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
         <v>3.2458512718290199E-3</v>
       </c>
-      <c r="R7" s="4">
+      <c r="X7" s="4">
         <v>0.16281928500001999</v>
       </c>
-      <c r="S7" s="4">
+      <c r="Y7" s="4">
         <v>1.9935299874512001E-2</v>
       </c>
-      <c r="T7" s="5">
+      <c r="Z7" s="5">
         <v>0.98409498550714902</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="E8" s="4">
         <v>6.4422110160394994E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="F8" s="4">
         <v>0.10273795911189899</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="4">
         <v>0.62705265626532602</v>
       </c>
-      <c r="F8" s="5">
+      <c r="H8" s="5">
         <v>0.53062471950727597</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="65"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="N8" s="4">
         <v>-6.23504577347666E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="O8" s="4">
         <v>9.1225480179294993E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="P8" s="4">
         <v>-0.68347634468158103</v>
       </c>
-      <c r="M8" s="5">
+      <c r="Q8" s="5">
         <v>0.49430589283329901</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="3" t="s">
+      <c r="S8" s="65"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="W8" s="4">
         <v>-0.134671648214302</v>
       </c>
-      <c r="R8" s="4">
+      <c r="X8" s="4">
         <v>0.16281928500001999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="Y8" s="4">
         <v>-0.82712344679738403</v>
       </c>
-      <c r="T8" s="5">
+      <c r="Z8" s="5">
         <v>0.40816709590344602</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="41">
+        <v>0.23</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0.77</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4">
+      <c r="E9" s="4">
         <v>-2.8708412241880199E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="F9" s="4">
         <v>0.16097640162795299</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>-0.178339259366915</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H9" s="5">
         <v>0.85845654845826103</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="65"/>
+      <c r="K9" s="41">
+        <v>0.32</v>
+      </c>
+      <c r="L9" s="41">
+        <v>0.53</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="4">
+      <c r="N9" s="4">
         <v>0.139465771423957</v>
       </c>
-      <c r="K9" s="4">
+      <c r="O9" s="4">
         <v>9.0508920083501004E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="P9" s="4">
         <v>1.5409063691765399</v>
       </c>
-      <c r="M9" s="5">
+      <c r="Q9" s="5">
         <v>0.12333957548581399</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="3" t="s">
+      <c r="S9" s="65"/>
+      <c r="T9" s="41">
+        <v>0.21</v>
+      </c>
+      <c r="U9" s="41">
+        <v>0.87</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="W9" s="4">
         <v>-3.3435314359381997E-2</v>
       </c>
-      <c r="R9" s="4">
+      <c r="X9" s="4">
         <v>0.16281928500001999</v>
       </c>
-      <c r="S9" s="4">
+      <c r="Y9" s="4">
         <v>-0.20535229815914</v>
       </c>
-      <c r="T9" s="5">
+      <c r="Z9" s="5">
         <v>0.83729688655761803</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4">
+      <c r="E10" s="4">
         <v>4.1903738466794099E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F10" s="4">
         <v>0.10408712888064001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>0.40258328688119099</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5">
         <v>0.68725480675239803</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="65"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="4">
+      <c r="N10" s="4">
         <v>-5.2519544230058099E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="O10" s="4">
         <v>9.11967878041684E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="P10" s="4">
         <v>-0.57589247927060805</v>
       </c>
-      <c r="M10" s="5">
+      <c r="Q10" s="5">
         <v>0.56468785934212196</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="3" t="s">
+      <c r="S10" s="65"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="W10" s="4">
         <v>0.20305867078680301</v>
       </c>
-      <c r="R10" s="4">
+      <c r="X10" s="4">
         <v>0.16281928500001999</v>
       </c>
-      <c r="S10" s="4">
+      <c r="Y10" s="4">
         <v>1.2471413984331099</v>
       </c>
-      <c r="T10" s="5">
+      <c r="Z10" s="5">
         <v>0.21234565572498099</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11">
+      <c r="E11" s="11">
         <v>-6.7484314277625898E-2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="F11" s="7">
         <v>1.1499861450871699E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="G11" s="7">
         <v>-5.8682719410076301</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="66"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="11">
+      <c r="N11" s="11">
         <v>-5.43070340427294E-2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="O11" s="7">
         <v>1.5755266738911099E-2</v>
       </c>
-      <c r="L11" s="7">
+      <c r="P11" s="7">
         <v>-3.4469130191624302</v>
       </c>
-      <c r="M11" s="12">
+      <c r="Q11" s="12">
         <v>5.6703110896494401E-4</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="6" t="s">
+      <c r="S11" s="66"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="W11" s="7">
         <v>-8.9718823059076799E-3</v>
       </c>
-      <c r="R11" s="7">
+      <c r="X11" s="7">
         <v>9.8951376552820804E-3</v>
       </c>
-      <c r="S11" s="7">
+      <c r="Y11" s="7">
         <v>-0.90669605805013098</v>
       </c>
-      <c r="T11" s="8">
+      <c r="Z11" s="8">
         <v>0.364567548570287</v>
       </c>
-      <c r="Z11" s="43"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="AF11" s="35"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
         <v>-4.1649514918540402E-2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="F12" s="14">
         <v>0.110545281352603</v>
       </c>
-      <c r="E12" s="14">
+      <c r="G12" s="14">
         <v>-0.37676429431385899</v>
       </c>
-      <c r="F12" s="15">
+      <c r="H12" s="15">
         <v>0.70634877764113901</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="J12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
         <v>6.0897220486929296E-3</v>
       </c>
-      <c r="K12" s="14">
+      <c r="O12" s="14">
         <v>0.15689252300850501</v>
       </c>
-      <c r="L12" s="14">
+      <c r="P12" s="14">
         <v>3.8814609720839402E-2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="Q12" s="15">
         <v>0.96903819673954605</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="S12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14">
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
         <v>8.9411824277785101E-2</v>
       </c>
-      <c r="R12" s="14">
+      <c r="X12" s="14">
         <v>0.127158985954198</v>
       </c>
-      <c r="S12" s="14">
+      <c r="Y12" s="14">
         <v>0.70314986870051799</v>
       </c>
-      <c r="T12" s="15">
+      <c r="Z12" s="15">
         <v>0.48196235697490403</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="14">
+      <c r="E13" s="14">
         <v>-2.69173304921332E-3</v>
       </c>
-      <c r="D13" s="14">
+      <c r="F13" s="14">
         <v>0.110938458041316</v>
       </c>
-      <c r="E13" s="14">
+      <c r="G13" s="14">
         <v>-2.42632996414179E-2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="H13" s="15">
         <v>0.98064258715030805</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="14">
+      <c r="N13" s="14">
         <v>-0.18467468391320799</v>
       </c>
-      <c r="K13" s="14">
+      <c r="O13" s="14">
         <v>0.145694332920147</v>
       </c>
-      <c r="L13" s="14">
+      <c r="P13" s="14">
         <v>-1.2675488484128301</v>
       </c>
-      <c r="M13" s="15">
+      <c r="Q13" s="15">
         <v>0.204959108693586</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="13" t="s">
+      <c r="S13" s="62"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="W13" s="14">
         <v>-7.5774502890207096E-2</v>
       </c>
-      <c r="R13" s="14">
+      <c r="X13" s="14">
         <v>0.127158985954198</v>
       </c>
-      <c r="S13" s="14">
+      <c r="Y13" s="14">
         <v>-0.595903642370196</v>
       </c>
-      <c r="T13" s="15">
+      <c r="Z13" s="15">
         <v>0.55123959982481097</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="44">
+        <v>0.36</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.77</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14">
+      <c r="E14" s="14">
         <v>0.13025206398846501</v>
       </c>
-      <c r="D14" s="14">
+      <c r="F14" s="14">
         <v>0.17804600702058301</v>
       </c>
-      <c r="E14" s="14">
+      <c r="G14" s="14">
         <v>0.73156408373374704</v>
       </c>
-      <c r="F14" s="15">
+      <c r="H14" s="15">
         <v>0.46443467686441597</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="62"/>
+      <c r="K14" s="44">
+        <v>0.33</v>
+      </c>
+      <c r="L14" s="44">
+        <v>0.62</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="14">
+      <c r="N14" s="14">
         <v>0.15424298905387801</v>
       </c>
-      <c r="K14" s="14">
+      <c r="O14" s="14">
         <v>0.144901391321276</v>
       </c>
-      <c r="L14" s="14">
+      <c r="P14" s="14">
         <v>1.06446865449269</v>
       </c>
-      <c r="M14" s="15">
+      <c r="Q14" s="15">
         <v>0.28711644693738703</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="13" t="s">
+      <c r="S14" s="62"/>
+      <c r="T14" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U14" s="44">
+        <v>0.23</v>
+      </c>
+      <c r="V14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="W14" s="14">
         <v>-7.3413121855626595E-2</v>
       </c>
-      <c r="R14" s="14">
+      <c r="X14" s="14">
         <v>0.127158985954198</v>
       </c>
-      <c r="S14" s="14">
+      <c r="Y14" s="14">
         <v>-0.57733333829879496</v>
       </c>
-      <c r="T14" s="15">
+      <c r="Z14" s="15">
         <v>0.56371429674058304</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="14">
+      <c r="E15" s="14">
         <v>0.151594351904803</v>
       </c>
-      <c r="D15" s="14">
+      <c r="F15" s="14">
         <v>0.112771142187736</v>
       </c>
-      <c r="E15" s="14">
+      <c r="G15" s="14">
         <v>1.3442654651172701</v>
       </c>
-      <c r="F15" s="15">
+      <c r="H15" s="15">
         <v>0.17886255886840399</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="14">
+      <c r="N15" s="14">
         <v>-0.112583581750355</v>
       </c>
-      <c r="K15" s="14">
+      <c r="O15" s="14">
         <v>0.14566150207581899</v>
       </c>
-      <c r="L15" s="14">
+      <c r="P15" s="14">
         <v>-0.77291240407334205</v>
       </c>
-      <c r="M15" s="15">
+      <c r="Q15" s="15">
         <v>0.43957422325523998</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="13" t="s">
+      <c r="S15" s="62"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="W15" s="14">
         <v>5.0931924485710697E-2</v>
       </c>
-      <c r="R15" s="14">
+      <c r="X15" s="14">
         <v>0.127158985954198</v>
       </c>
-      <c r="S15" s="14">
+      <c r="Y15" s="14">
         <v>0.40053735961732301</v>
       </c>
-      <c r="T15" s="15">
+      <c r="Z15" s="15">
         <v>0.68876077232800903</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17">
+      <c r="E16" s="17">
         <v>-7.3407957417090303E-2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="F16" s="18">
         <v>1.39620164646187E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="G16" s="18">
         <v>-5.2576902199703301</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="63"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="17">
+      <c r="N16" s="17">
         <v>-6.8586244097887397E-2</v>
       </c>
-      <c r="K16" s="18">
+      <c r="O16" s="18">
         <v>2.07689279781865E-2</v>
       </c>
-      <c r="L16" s="18">
+      <c r="P16" s="18">
         <v>-3.3023487861252701</v>
       </c>
-      <c r="M16" s="19">
+      <c r="Q16" s="19">
         <v>9.5878767935397803E-4</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="16" t="s">
+      <c r="S16" s="63"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="W16" s="18">
         <v>6.2220215512979703E-3</v>
       </c>
-      <c r="R16" s="18">
+      <c r="X16" s="18">
         <v>2.6301465255499701E-2</v>
       </c>
-      <c r="S16" s="18">
+      <c r="Y16" s="18">
         <v>0.236565586398154</v>
       </c>
-      <c r="T16" s="20">
+      <c r="Z16" s="20">
         <v>0.81299382050265701</v>
       </c>
-      <c r="Z16" s="43"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="AF16" s="35"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
         <v>9.8365189875859502E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="F17" s="4">
         <v>4.8475540554570901E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <v>2.0291715935612</v>
       </c>
-      <c r="F17" s="10">
+      <c r="H17" s="10">
         <v>4.2440815812778497E-2</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="J17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
         <v>-0.107001491583175</v>
       </c>
-      <c r="K17" s="4">
+      <c r="O17" s="4">
         <v>0.16006291659289401</v>
       </c>
-      <c r="L17" s="4">
+      <c r="P17" s="4">
         <v>-0.66849645040096295</v>
       </c>
-      <c r="M17" s="5">
+      <c r="Q17" s="5">
         <v>0.50381674695789302</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="S17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
         <v>3.6857939151966897E-2</v>
       </c>
-      <c r="R17" s="4">
+      <c r="X17" s="4">
         <v>7.6809158366791794E-2</v>
       </c>
-      <c r="S17" s="4">
+      <c r="Y17" s="4">
         <v>0.47986385915019097</v>
       </c>
-      <c r="T17" s="5">
+      <c r="Z17" s="5">
         <v>0.63132420119633403</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="E18" s="9">
         <v>0.18109073946231199</v>
       </c>
-      <c r="D18" s="4">
+      <c r="F18" s="4">
         <v>4.9620756073470801E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="G18" s="4">
         <v>3.6494957713699501</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="H18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="65"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="4">
+      <c r="N18" s="4">
         <v>-0.164903435450899</v>
       </c>
-      <c r="K18" s="4">
+      <c r="O18" s="4">
         <v>0.147783294335806</v>
       </c>
-      <c r="L18" s="4">
+      <c r="P18" s="4">
         <v>-1.1158462544229899</v>
       </c>
-      <c r="M18" s="5">
+      <c r="Q18" s="5">
         <v>0.264487950777611</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="3" t="s">
+      <c r="S18" s="65"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="W18" s="4">
         <v>-5.6067746546588797E-2</v>
       </c>
-      <c r="R18" s="4">
+      <c r="X18" s="4">
         <v>7.6809158366791794E-2</v>
       </c>
-      <c r="S18" s="4">
+      <c r="Y18" s="4">
         <v>-0.72996173553737997</v>
       </c>
-      <c r="T18" s="5">
+      <c r="Z18" s="5">
         <v>0.46541357426567398</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="41">
+        <v>0.31</v>
+      </c>
+      <c r="C19" s="41">
+        <v>0.31</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4">
+      <c r="E19" s="4">
         <v>0.20966262436679001</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="4">
         <v>0.126266335904339</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>1.6604791995043999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="H19" s="5">
         <v>9.6818088993625706E-2</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="65"/>
+      <c r="K19" s="41">
+        <v>0.26</v>
+      </c>
+      <c r="L19" s="41">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="4">
+      <c r="N19" s="4">
         <v>0.130014736351487</v>
       </c>
-      <c r="K19" s="4">
+      <c r="O19" s="4">
         <v>0.146894078364848</v>
       </c>
-      <c r="L19" s="4">
+      <c r="P19" s="4">
         <v>0.88509174637089705</v>
       </c>
-      <c r="M19" s="5">
+      <c r="Q19" s="5">
         <v>0.37610715062244399</v>
       </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="3" t="s">
+      <c r="S19" s="65"/>
+      <c r="T19" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U19" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="W19" s="4">
         <v>4.3262500082116399E-2</v>
       </c>
-      <c r="R19" s="4">
+      <c r="X19" s="4">
         <v>7.6809158366791794E-2</v>
       </c>
-      <c r="S19" s="4">
+      <c r="Y19" s="4">
         <v>0.56324663623473303</v>
       </c>
-      <c r="T19" s="5">
+      <c r="Z19" s="5">
         <v>0.57326695024571905</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9">
+      <c r="E20" s="9">
         <v>0.188259260724114</v>
       </c>
-      <c r="D20" s="4">
+      <c r="F20" s="4">
         <v>5.5258392721572201E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>3.4068899121385399</v>
       </c>
-      <c r="F20" s="10">
+      <c r="H20" s="10">
         <v>6.5707623725130805E-4</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="65"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="4">
+      <c r="N20" s="4">
         <v>-0.173864646255073</v>
       </c>
-      <c r="K20" s="4">
+      <c r="O20" s="4">
         <v>0.14774676962761801</v>
       </c>
-      <c r="L20" s="4">
+      <c r="P20" s="4">
         <v>-1.176774603555</v>
       </c>
-      <c r="M20" s="5">
+      <c r="Q20" s="5">
         <v>0.239285481771352</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="3" t="s">
+      <c r="S20" s="65"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="W20" s="4">
         <v>1.23831039224699E-2</v>
       </c>
-      <c r="R20" s="4">
+      <c r="X20" s="4">
         <v>7.6809158366791794E-2</v>
       </c>
-      <c r="S20" s="4">
+      <c r="Y20" s="4">
         <v>0.16121910701502601</v>
       </c>
-      <c r="T20" s="5">
+      <c r="Z20" s="5">
         <v>0.87192083274384502</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" s="66"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="11">
+      <c r="E21" s="11">
         <v>3.2734291689714701E-2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="F21" s="7">
         <v>1.72431032825862E-2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="G21" s="7">
         <v>1.89839909633744</v>
       </c>
-      <c r="F21" s="12">
+      <c r="H21" s="12">
         <v>5.7643528578590598E-2</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="66"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="7">
+      <c r="N21" s="7">
         <v>-2.9153947682128499E-2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="O21" s="7">
         <v>2.2193535890208199E-2</v>
       </c>
-      <c r="L21" s="7">
+      <c r="P21" s="7">
         <v>-1.3136233823376999</v>
       </c>
-      <c r="M21" s="8">
+      <c r="Q21" s="8">
         <v>0.18897297602503599</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="6" t="s">
+      <c r="S21" s="66"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="W21" s="7">
         <v>2.0458838914721101E-2</v>
       </c>
-      <c r="R21" s="7">
+      <c r="X21" s="7">
         <v>1.7226657906819699E-2</v>
       </c>
-      <c r="S21" s="7">
+      <c r="Y21" s="7">
         <v>1.18762670190495</v>
       </c>
-      <c r="T21" s="8">
+      <c r="Z21" s="8">
         <v>0.234980513084072</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
         <v>-2.5896728116979299E-2</v>
       </c>
-      <c r="D22" s="14">
+      <c r="F22" s="14">
         <v>1.37124541104734E-2</v>
       </c>
-      <c r="E22" s="14">
+      <c r="G22" s="14">
         <v>-1.8885553168196001</v>
       </c>
-      <c r="F22" s="15">
+      <c r="H22" s="15">
         <v>5.8951439115694199E-2</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="J22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
         <v>-2.5231334333054901E-2</v>
       </c>
-      <c r="K22" s="14">
+      <c r="O22" s="14">
         <v>0.13884673182756299</v>
       </c>
-      <c r="L22" s="14">
+      <c r="P22" s="14">
         <v>-0.181720765054738</v>
       </c>
-      <c r="M22" s="15">
+      <c r="Q22" s="15">
         <v>0.85580186913876699</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="S22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14">
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="14">
         <v>1.09523737273309E-2</v>
       </c>
-      <c r="R22" s="14">
+      <c r="X22" s="14">
         <v>8.5181814152037003E-2</v>
       </c>
-      <c r="S22" s="14">
+      <c r="Y22" s="14">
         <v>0.12857643191048401</v>
       </c>
-      <c r="T22" s="15">
+      <c r="Z22" s="15">
         <v>0.89769281609777996</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="14">
+      <c r="E23" s="14">
         <v>1.7816044909191499E-3</v>
       </c>
-      <c r="D23" s="14">
+      <c r="F23" s="14">
         <v>1.40222276379146E-2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="G23" s="14">
         <v>0.12705573871172099</v>
       </c>
-      <c r="F23" s="15">
+      <c r="H23" s="15">
         <v>0.898896282859034</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="13" t="s">
+      <c r="J23" s="62"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="14">
+      <c r="N23" s="14">
         <v>-8.1496405825783894E-2</v>
       </c>
-      <c r="K23" s="14">
+      <c r="O23" s="14">
         <v>0.13286895398545201</v>
       </c>
-      <c r="L23" s="14">
+      <c r="P23" s="14">
         <v>-0.61335927905857401</v>
       </c>
-      <c r="M23" s="15">
+      <c r="Q23" s="15">
         <v>0.53963880509304496</v>
       </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="13" t="s">
+      <c r="S23" s="62"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="W23" s="14">
         <v>-9.9489994470443793E-2</v>
       </c>
-      <c r="R23" s="14">
+      <c r="X23" s="14">
         <v>8.5181814152037003E-2</v>
       </c>
-      <c r="S23" s="14">
+      <c r="Y23" s="14">
         <v>-1.16797224220734</v>
       </c>
-      <c r="T23" s="15">
+      <c r="Z23" s="15">
         <v>0.242817961706042</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="44">
+        <v>0.13</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="14">
+      <c r="E24" s="14">
         <v>-2.0287627788087501E-2</v>
       </c>
-      <c r="D24" s="14">
+      <c r="F24" s="14">
         <v>3.5029162081863199E-2</v>
       </c>
-      <c r="E24" s="14">
+      <c r="G24" s="14">
         <v>-0.57916394747540001</v>
       </c>
-      <c r="F24" s="15">
+      <c r="H24" s="15">
         <v>0.56247855473640496</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="13" t="s">
+      <c r="J24" s="62"/>
+      <c r="K24" s="44">
+        <v>0.27</v>
+      </c>
+      <c r="L24" s="44">
+        <v>0.73</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="14">
+      <c r="N24" s="14">
         <v>0.17123462561726999</v>
       </c>
-      <c r="K24" s="14">
+      <c r="O24" s="14">
         <v>0.13248832205717401</v>
       </c>
-      <c r="L24" s="14">
+      <c r="P24" s="14">
         <v>1.29245070779428</v>
       </c>
-      <c r="M24" s="15">
+      <c r="Q24" s="15">
         <v>0.19620110579128799</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="13" t="s">
+      <c r="S24" s="62"/>
+      <c r="T24" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U24" s="44">
+        <v>0.32</v>
+      </c>
+      <c r="V24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="W24" s="14">
         <v>-3.4621949006031501E-2</v>
       </c>
-      <c r="R24" s="14">
+      <c r="X24" s="14">
         <v>8.5181814152037003E-2</v>
       </c>
-      <c r="S24" s="14">
+      <c r="Y24" s="14">
         <v>-0.40644765964054702</v>
       </c>
-      <c r="T24" s="15">
+      <c r="Z24" s="15">
         <v>0.68441370725448403</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="14">
+      <c r="E25" s="14">
         <v>7.6737046759900798E-4</v>
       </c>
-      <c r="D25" s="14">
+      <c r="F25" s="14">
         <v>1.5539647103714801E-2</v>
       </c>
-      <c r="E25" s="14">
+      <c r="G25" s="14">
         <v>4.9381460368914498E-2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="H25" s="15">
         <v>0.96061530261722605</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="13" t="s">
+      <c r="J25" s="62"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="14">
+      <c r="N25" s="14">
         <v>-7.4072335744296502E-2</v>
       </c>
-      <c r="K25" s="14">
+      <c r="O25" s="14">
         <v>0.13285261815132701</v>
       </c>
-      <c r="L25" s="14">
+      <c r="P25" s="14">
         <v>-0.557552698434017</v>
       </c>
-      <c r="M25" s="15">
+      <c r="Q25" s="15">
         <v>0.57714986420537495</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="13" t="s">
+      <c r="S25" s="62"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="W25" s="14">
         <v>-2.7152562524621102E-2</v>
       </c>
-      <c r="R25" s="14">
+      <c r="X25" s="14">
         <v>8.5181814152037003E-2</v>
       </c>
-      <c r="S25" s="14">
+      <c r="Y25" s="14">
         <v>-0.318760087407363</v>
       </c>
-      <c r="T25" s="15">
+      <c r="Z25" s="15">
         <v>0.74990844625071196</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26" s="63"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="18">
+      <c r="E26" s="18">
         <v>4.6442352245735204E-3</v>
       </c>
-      <c r="D26" s="18">
+      <c r="F26" s="18">
         <v>4.7454905292131496E-3</v>
       </c>
-      <c r="E26" s="18">
+      <c r="G26" s="18">
         <v>0.97866283706261603</v>
       </c>
-      <c r="F26" s="20">
+      <c r="H26" s="20">
         <v>0.32774660012482898</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="16" t="s">
+      <c r="J26" s="63"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="18">
+      <c r="N26" s="18">
         <v>1.69657092540632E-2</v>
       </c>
-      <c r="K26" s="18">
+      <c r="O26" s="18">
         <v>1.36322722755115E-2</v>
       </c>
-      <c r="L26" s="18">
+      <c r="P26" s="18">
         <v>1.24452541081796</v>
       </c>
-      <c r="M26" s="20">
+      <c r="Q26" s="20">
         <v>0.21330625309083201</v>
       </c>
-      <c r="O26" s="31"/>
-      <c r="P26" s="16" t="s">
+      <c r="S26" s="63"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="W26" s="18">
         <v>1.40304811636284E-2</v>
       </c>
-      <c r="R26" s="18">
+      <c r="X26" s="18">
         <v>1.54109359423567E-2</v>
       </c>
-      <c r="S26" s="18">
+      <c r="Y26" s="18">
         <v>0.91042368978161203</v>
       </c>
-      <c r="T26" s="20">
+      <c r="Z26" s="20">
         <v>0.36259910900203801</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
         <v>-0.29278716708501201</v>
       </c>
-      <c r="D27" s="4">
+      <c r="F27" s="4">
         <v>0.14266068349073199</v>
       </c>
-      <c r="E27" s="4">
+      <c r="G27" s="4">
         <v>-2.0523325692886698</v>
       </c>
-      <c r="F27" s="10">
+      <c r="H27" s="10">
         <v>4.0137352839097598E-2</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="J27" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>7.8476055729261099E-2</v>
       </c>
-      <c r="K27" s="4">
+      <c r="O27" s="4">
         <v>0.17812608434976801</v>
       </c>
-      <c r="L27" s="4">
+      <c r="P27" s="4">
         <v>0.440564648438382</v>
       </c>
-      <c r="M27" s="5">
+      <c r="Q27" s="5">
         <v>0.65952820034885495</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="S27" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
         <v>0.105048620322319</v>
       </c>
-      <c r="R27" s="4">
+      <c r="X27" s="4">
         <v>0.169889248041135</v>
       </c>
-      <c r="S27" s="4">
+      <c r="Y27" s="4">
         <v>0.61833589549400703</v>
       </c>
-      <c r="T27" s="5">
+      <c r="Z27" s="5">
         <v>0.53635394483737897</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" s="65"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="9">
+      <c r="E28" s="9">
         <v>-0.307769397984061</v>
       </c>
-      <c r="D28" s="4">
+      <c r="F28" s="4">
         <v>0.146030985849435</v>
       </c>
-      <c r="E28" s="4">
+      <c r="G28" s="4">
         <v>-2.1075622834005001</v>
       </c>
-      <c r="F28" s="10">
+      <c r="H28" s="10">
         <v>3.5068868917491801E-2</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="65"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="4">
+      <c r="N28" s="4">
         <v>1.07748622368563E-2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="O28" s="4">
         <v>0.15228717633966701</v>
       </c>
-      <c r="L28" s="4">
+      <c r="P28" s="4">
         <v>7.07535755527023E-2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="Q28" s="5">
         <v>0.94359388051558002</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="3" t="s">
+      <c r="S28" s="65"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="W28" s="4">
         <v>7.6604108831364398E-2</v>
       </c>
-      <c r="R28" s="4">
+      <c r="X28" s="4">
         <v>0.169889248041135</v>
       </c>
-      <c r="S28" s="4">
+      <c r="Y28" s="4">
         <v>0.450906162188772</v>
       </c>
-      <c r="T28" s="5">
+      <c r="Z28" s="5">
         <v>0.65205718206205898</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="41">
+        <v>0.71</v>
+      </c>
+      <c r="C29" s="41">
+        <v>0.71</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="9">
+      <c r="E29" s="9">
         <v>-2.1971540300833299</v>
       </c>
-      <c r="D29" s="4">
+      <c r="F29" s="4">
         <v>0.37159444899237698</v>
       </c>
-      <c r="E29" s="4">
+      <c r="G29" s="4">
         <v>-5.9127740902513004</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="H29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="65"/>
+      <c r="K29" s="41">
+        <v>0.68</v>
+      </c>
+      <c r="L29" s="41">
+        <v>0.68</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="4">
+      <c r="N29" s="4">
         <v>6.9034696747322802E-3</v>
       </c>
-      <c r="K29" s="4">
+      <c r="O29" s="4">
         <v>0.149484852883318</v>
       </c>
-      <c r="L29" s="4">
+      <c r="P29" s="4">
         <v>4.6181733744761803E-2</v>
       </c>
-      <c r="M29" s="5">
+      <c r="Q29" s="5">
         <v>0.96316540129969996</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="3" t="s">
+      <c r="S29" s="65"/>
+      <c r="T29" s="41">
+        <v>0.05</v>
+      </c>
+      <c r="U29" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="W29" s="4">
         <v>-3.0835806718048999E-2</v>
       </c>
-      <c r="R29" s="4">
+      <c r="X29" s="4">
         <v>0.169889248041135</v>
       </c>
-      <c r="S29" s="4">
+      <c r="Y29" s="4">
         <v>-0.18150534582731701</v>
       </c>
-      <c r="T29" s="5">
+      <c r="Z29" s="5">
         <v>0.85597093747997999</v>
       </c>
-      <c r="Z29" s="43"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="3" t="s">
+      <c r="AF29" s="35"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4">
+      <c r="E30" s="4">
         <v>-0.28697817444130902</v>
       </c>
-      <c r="D30" s="4">
+      <c r="F30" s="4">
         <v>0.16262222110518501</v>
       </c>
-      <c r="E30" s="4">
+      <c r="G30" s="4">
         <v>-1.7646922572511701</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>7.7615500578327001E-2</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="65"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="4">
+      <c r="N30" s="4">
         <v>3.1578767898616703E-2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="O30" s="4">
         <v>0.15219057039776501</v>
       </c>
-      <c r="L30" s="4">
+      <c r="P30" s="4">
         <v>0.20749490468484699</v>
       </c>
-      <c r="M30" s="5">
+      <c r="Q30" s="5">
         <v>0.83562337156051503</v>
       </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="3" t="s">
+      <c r="S30" s="65"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="W30" s="4">
         <v>-9.7618137283647405E-2</v>
       </c>
-      <c r="R30" s="4">
+      <c r="X30" s="4">
         <v>0.169889248041135</v>
       </c>
-      <c r="S30" s="4">
+      <c r="Y30" s="4">
         <v>-0.574598677722156</v>
       </c>
-      <c r="T30" s="5">
+      <c r="Z30" s="5">
         <v>0.56556274654174599</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="11">
+      <c r="E31" s="11">
         <v>0.34580689267075498</v>
       </c>
-      <c r="D31" s="7">
+      <c r="F31" s="7">
         <v>5.07454454690568E-2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="G31" s="7">
         <v>6.8145404868229704</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="66"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="11">
+      <c r="N31" s="11">
         <v>0.41514859526629699</v>
       </c>
-      <c r="K31" s="7">
+      <c r="O31" s="7">
         <v>4.2184935112644997E-2</v>
       </c>
-      <c r="L31" s="7">
+      <c r="P31" s="7">
         <v>9.8411576113069597</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="Q31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="34"/>
-      <c r="P31" s="6" t="s">
+      <c r="S31" s="66"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="W31" s="7">
         <v>3.95277080845578E-2</v>
       </c>
-      <c r="R31" s="7">
+      <c r="X31" s="7">
         <v>4.33616950671726E-2</v>
       </c>
-      <c r="S31" s="7">
+      <c r="Y31" s="7">
         <v>0.91158124753482295</v>
       </c>
-      <c r="T31" s="8">
+      <c r="Z31" s="8">
         <v>0.36198919768273502</v>
       </c>
-      <c r="Z31" s="43"/>
-    </row>
-    <row r="36" spans="26:26" x14ac:dyDescent="0.3">
-      <c r="Z36" s="43"/>
+      <c r="AF31" s="35"/>
+    </row>
+    <row r="36" spans="32:32" x14ac:dyDescent="0.3">
+      <c r="AF36" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2344,1630 +3386,1903 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="O27:O31"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="O12:O16"/>
-    <mergeCell ref="O17:O21"/>
-    <mergeCell ref="O22:O26"/>
+    <mergeCell ref="S27:S31"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="S7:S11"/>
+    <mergeCell ref="S12:S16"/>
+    <mergeCell ref="S17:S21"/>
+    <mergeCell ref="S22:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BFEEC7-0F86-4CA4-A8B4-019FFF3CA19F}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="K1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="T1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37">
         <v>3.3156228152498801E-2</v>
       </c>
-      <c r="D2" s="46">
+      <c r="F2" s="37">
         <v>2.77759630890515E-2</v>
       </c>
-      <c r="E2" s="46">
+      <c r="G2" s="37">
         <v>1.1937021966150301</v>
       </c>
-      <c r="F2" s="26">
+      <c r="H2" s="26">
         <v>0.232594480943555</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="J2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="46">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="37">
         <v>2.8359689424233499E-2</v>
       </c>
-      <c r="K2" s="46">
+      <c r="O2" s="37">
         <v>5.13175387890073E-2</v>
       </c>
-      <c r="L2" s="46">
+      <c r="P2" s="37">
         <v>0.552631519232336</v>
       </c>
-      <c r="M2" s="26">
+      <c r="Q2" s="26">
         <v>0.58051575449478299</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="S2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="46">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="37">
         <v>-6.6505541904004501E-3</v>
       </c>
-      <c r="R2" s="46">
+      <c r="X2" s="37">
         <v>5.08662256321913E-2</v>
       </c>
-      <c r="S2" s="46">
+      <c r="Y2" s="37">
         <v>-0.13074597353634901</v>
       </c>
-      <c r="T2" s="26">
+      <c r="Z2" s="26">
         <v>0.89597626285148502</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="E3" s="14">
         <v>8.6957855087571694E-3</v>
       </c>
-      <c r="D3" s="14">
+      <c r="F3" s="14">
         <v>2.43363402219814E-2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="G3" s="14">
         <v>0.35731689438261699</v>
       </c>
-      <c r="F3" s="15">
+      <c r="H3" s="15">
         <v>0.72085458380743095</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="62"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="N3" s="14">
         <v>-5.6390401741875297E-2</v>
       </c>
-      <c r="K3" s="14">
+      <c r="O3" s="14">
         <v>4.6010092553017898E-2</v>
       </c>
-      <c r="L3" s="14">
+      <c r="P3" s="14">
         <v>-1.2256093959579899</v>
       </c>
-      <c r="M3" s="15">
+      <c r="Q3" s="15">
         <v>0.22034570029552</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="13" t="s">
+      <c r="S3" s="62"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="W3" s="14">
         <v>-3.8502429646390501E-2</v>
       </c>
-      <c r="R3" s="14">
+      <c r="X3" s="14">
         <v>4.8011006710733301E-2</v>
       </c>
-      <c r="S3" s="14">
+      <c r="Y3" s="14">
         <v>-0.80195005862651503</v>
       </c>
-      <c r="T3" s="15">
+      <c r="Z3" s="15">
         <v>0.42258184769563201</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.86</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="21">
+      <c r="E4" s="21">
         <v>6.7096149640972699E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="F4" s="14">
         <v>2.1288082043779698E-2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="G4" s="14">
         <v>3.1518175053528501</v>
       </c>
-      <c r="F4" s="22">
+      <c r="H4" s="22">
         <v>1.62257649215358E-3</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="62"/>
+      <c r="K4" s="44">
+        <v>0.41</v>
+      </c>
+      <c r="L4" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="14">
+      <c r="N4" s="14">
         <v>2.5783403385694799E-2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="O4" s="14">
         <v>3.4890721853948002E-2</v>
       </c>
-      <c r="L4" s="14">
+      <c r="P4" s="14">
         <v>0.73897592298673798</v>
       </c>
-      <c r="M4" s="15">
+      <c r="Q4" s="15">
         <v>0.45992161771271001</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="13" t="s">
+      <c r="S4" s="62"/>
+      <c r="T4" s="44">
+        <v>0.44</v>
+      </c>
+      <c r="U4" s="44">
+        <v>0.79</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="W4" s="21">
         <v>0.14681249840178701</v>
       </c>
-      <c r="R4" s="14">
+      <c r="X4" s="14">
         <v>4.0250607202605197E-2</v>
       </c>
-      <c r="S4" s="14">
+      <c r="Y4" s="14">
         <v>3.64746046346065</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="Z4" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="62"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14">
+      <c r="E5" s="14">
         <v>1.4288476527605401E-3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="F5" s="14">
         <v>1.2279449967697901E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="G5" s="14">
         <v>0.116360883958095</v>
       </c>
-      <c r="F5" s="15">
+      <c r="H5" s="15">
         <v>0.90736653483351304</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="14">
+      <c r="N5" s="14">
         <v>-1.03086205412931E-2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="O5" s="14">
         <v>1.4986898654505299E-2</v>
       </c>
-      <c r="L5" s="14">
+      <c r="P5" s="14">
         <v>-0.68784214659343001</v>
       </c>
-      <c r="M5" s="15">
+      <c r="Q5" s="15">
         <v>0.49155219186801202</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="13" t="s">
+      <c r="S5" s="62"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="W5" s="14">
         <v>2.41461458015871E-3</v>
       </c>
-      <c r="R5" s="14">
+      <c r="X5" s="14">
         <v>1.8648178859111599E-2</v>
       </c>
-      <c r="S5" s="14">
+      <c r="Y5" s="14">
         <v>0.12948259443462601</v>
       </c>
-      <c r="T5" s="15">
+      <c r="Z5" s="15">
         <v>0.89697579663677196</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17">
+      <c r="E6" s="17">
         <v>-0.10010386455376399</v>
       </c>
-      <c r="D6" s="18">
+      <c r="F6" s="18">
         <v>1.0114627218963499E-2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="G6" s="18">
         <v>-9.8969405779071504</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="63"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="18">
+      <c r="N6" s="18">
         <v>-7.5837198312734694E-2</v>
       </c>
-      <c r="K6" s="17">
+      <c r="O6" s="17">
         <v>1.2437084521542199E-2</v>
       </c>
-      <c r="L6" s="18">
+      <c r="P6" s="18">
         <v>-6.0976668753338297</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="Q6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="16" t="s">
+      <c r="S6" s="63"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="W6" s="18">
         <v>-5.2453630890476003E-3</v>
       </c>
-      <c r="R6" s="18">
+      <c r="X6" s="18">
         <v>1.3984587102285E-2</v>
       </c>
-      <c r="S6" s="18">
+      <c r="Y6" s="18">
         <v>-0.37508172752490798</v>
       </c>
-      <c r="T6" s="20">
+      <c r="Z6" s="20">
         <v>0.70759968599312895</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="47">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="38">
         <v>2.2971155768235E-2</v>
       </c>
-      <c r="D7" s="47">
+      <c r="F7" s="38">
         <v>3.8647355457117498E-2</v>
       </c>
-      <c r="E7" s="47">
+      <c r="G7" s="38">
         <v>0.59437846384401105</v>
       </c>
-      <c r="F7" s="27">
+      <c r="H7" s="27">
         <v>0.552259009406043</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="J7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="47">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="38">
         <v>5.0891910613686399E-2</v>
       </c>
-      <c r="K7" s="47">
+      <c r="O7" s="38">
         <v>5.1367636050221203E-2</v>
       </c>
-      <c r="L7" s="47">
+      <c r="P7" s="38">
         <v>0.99073881001512898</v>
       </c>
-      <c r="M7" s="27">
+      <c r="Q7" s="27">
         <v>0.32181313500870801</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="S7" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="47">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="38">
         <v>4.5639268514275702E-3</v>
       </c>
-      <c r="R7" s="47">
+      <c r="X7" s="38">
         <v>4.7117302631301497E-2</v>
       </c>
-      <c r="S7" s="47">
+      <c r="Y7" s="38">
         <v>9.6863075697283502E-2</v>
       </c>
-      <c r="T7" s="27">
+      <c r="Z7" s="27">
         <v>0.92283513220081503</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="E8" s="4">
         <v>3.35054555996607E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="F8" s="4">
         <v>3.39263727065214E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="4">
         <v>0.987593218099036</v>
       </c>
-      <c r="F8" s="5">
+      <c r="H8" s="5">
         <v>0.32335190904313799</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="65"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="N8" s="4">
         <v>-8.4376717264429604E-3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="O8" s="4">
         <v>4.5633078348217303E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="P8" s="4">
         <v>-0.18490253193213699</v>
       </c>
-      <c r="M8" s="5">
+      <c r="Q8" s="5">
         <v>0.85330548504150305</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="3" t="s">
+      <c r="S8" s="65"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="W8" s="4">
         <v>-4.6625981760100597E-2</v>
       </c>
-      <c r="R8" s="4">
+      <c r="X8" s="4">
         <v>4.4488057675909701E-2</v>
       </c>
-      <c r="S8" s="4">
+      <c r="Y8" s="4">
         <v>-1.04805613451964</v>
       </c>
-      <c r="T8" s="5">
+      <c r="Z8" s="5">
         <v>0.29461274479202199</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="41">
+        <v>0.39</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4">
+      <c r="E9" s="4">
         <v>4.5395826857868998E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="F9" s="4">
         <v>2.9545228843699499E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>1.5364858772298799</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H9" s="5">
         <v>0.124419258908589</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="65"/>
+      <c r="K9" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="4">
+      <c r="N9" s="4">
         <v>-2.63065707216701E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="O9" s="4">
         <v>3.5928421538327399E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="P9" s="4">
         <v>-0.73219388983195499</v>
       </c>
-      <c r="M9" s="5">
+      <c r="Q9" s="5">
         <v>0.46405023322165001</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="3" t="s">
+      <c r="S9" s="65"/>
+      <c r="T9" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="U9" s="41">
+        <v>0.82</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="W9" s="9">
         <v>0.126690293387412</v>
       </c>
-      <c r="R9" s="4">
+      <c r="X9" s="4">
         <v>3.70435616348056E-2</v>
       </c>
-      <c r="S9" s="4">
+      <c r="Y9" s="4">
         <v>3.4200354338599901</v>
       </c>
-      <c r="T9" s="10">
+      <c r="Z9" s="10">
         <v>6.2612979453202698E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4">
+      <c r="E10" s="4">
         <v>7.2249030087614798E-3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F10" s="4">
         <v>1.5989336556353099E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>0.45185758541625098</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5">
         <v>0.65137158175371701</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="65"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="4">
+      <c r="N10" s="4">
         <v>-8.1229249363161202E-3</v>
       </c>
-      <c r="K10" s="4">
+      <c r="O10" s="4">
         <v>2.0453153392900301E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="P10" s="4">
         <v>-0.39714780309308001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="Q10" s="5">
         <v>0.69125847064969603</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="3" t="s">
+      <c r="S10" s="65"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="W10" s="4">
         <v>-1.60145547840671E-3</v>
       </c>
-      <c r="R10" s="4">
+      <c r="X10" s="4">
         <v>1.5814624043946599E-2</v>
       </c>
-      <c r="S10" s="4">
+      <c r="Y10" s="4">
         <v>-0.10126421430926801</v>
       </c>
-      <c r="T10" s="5">
+      <c r="Z10" s="5">
         <v>0.91934072297180802</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11">
+      <c r="E11" s="11">
         <v>-7.3409020911542194E-2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="F11" s="7">
         <v>1.2971729153534801E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="G11" s="7">
         <v>-5.6591546156002099</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="66"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="7">
+      <c r="N11" s="7">
         <v>-6.09052259235792E-2</v>
       </c>
-      <c r="K11" s="11">
+      <c r="O11" s="11">
         <v>1.76972734070787E-2</v>
       </c>
-      <c r="L11" s="7">
+      <c r="P11" s="7">
         <v>-3.4415033617109501</v>
       </c>
-      <c r="M11" s="12">
+      <c r="Q11" s="12">
         <v>5.7849128320341904E-4</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="6" t="s">
+      <c r="S11" s="66"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="W11" s="7">
         <v>-5.5667899239266799E-3</v>
       </c>
-      <c r="R11" s="7">
+      <c r="X11" s="7">
         <v>1.17532078632595E-2</v>
       </c>
-      <c r="S11" s="7">
+      <c r="Y11" s="7">
         <v>-0.47364004692952399</v>
       </c>
-      <c r="T11" s="8">
+      <c r="Z11" s="8">
         <v>0.63575661274712503</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="46">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
         <v>1.0844779282492899E-2</v>
       </c>
-      <c r="D12" s="46">
+      <c r="F12" s="37">
         <v>4.3210714010592302E-2</v>
       </c>
-      <c r="E12" s="46">
+      <c r="G12" s="37">
         <v>0.25097431345000498</v>
       </c>
-      <c r="F12" s="26">
+      <c r="H12" s="26">
         <v>0.80183396861683798</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="J12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="46">
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="37">
         <v>5.6832672340526497E-2</v>
       </c>
-      <c r="K12" s="46">
+      <c r="O12" s="37">
         <v>6.69665825116635E-2</v>
       </c>
-      <c r="L12" s="46">
+      <c r="P12" s="37">
         <v>0.84867213181482004</v>
       </c>
-      <c r="M12" s="26">
+      <c r="Q12" s="26">
         <v>0.396063757387072</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="S12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="46">
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="37">
         <v>2.1555528669549599E-3</v>
       </c>
-      <c r="R12" s="46">
+      <c r="X12" s="37">
         <v>4.8287867428113702E-2</v>
       </c>
-      <c r="S12" s="46">
+      <c r="Y12" s="37">
         <v>4.4639636864558997E-2</v>
       </c>
-      <c r="T12" s="26">
+      <c r="Z12" s="26">
         <v>0.96439454848558304</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="14">
+      <c r="E13" s="14">
         <v>8.6566219736505697E-3</v>
       </c>
-      <c r="D13" s="14">
+      <c r="F13" s="14">
         <v>3.7873736810199399E-2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="G13" s="14">
         <v>0.22856529887801699</v>
       </c>
-      <c r="F13" s="15">
+      <c r="H13" s="15">
         <v>0.81920679808716201</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="14">
+      <c r="N13" s="14">
         <v>-4.2199150078136197E-2</v>
       </c>
-      <c r="K13" s="14">
+      <c r="O13" s="14">
         <v>5.9451579017507701E-2</v>
       </c>
-      <c r="L13" s="14">
+      <c r="P13" s="14">
         <v>-0.70980705265555899</v>
       </c>
-      <c r="M13" s="15">
+      <c r="Q13" s="15">
         <v>0.47782379499238098</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="13" t="s">
+      <c r="S13" s="62"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="W13" s="14">
         <v>-6.3982978348894104E-2</v>
       </c>
-      <c r="R13" s="14">
+      <c r="X13" s="14">
         <v>4.5756568335520401E-2</v>
       </c>
-      <c r="S13" s="14">
+      <c r="Y13" s="14">
         <v>-1.39833428677877</v>
       </c>
-      <c r="T13" s="15">
+      <c r="Z13" s="15">
         <v>0.16201270633449</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="44">
+        <v>0.46</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.76</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21">
+      <c r="E14" s="21">
         <v>8.3628589919067201E-2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="F14" s="14">
         <v>3.3101542159420898E-2</v>
       </c>
-      <c r="E14" s="14">
+      <c r="G14" s="14">
         <v>2.5264257935869598</v>
       </c>
-      <c r="F14" s="22">
+      <c r="H14" s="22">
         <v>1.1522972880144901E-2</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="62"/>
+      <c r="K14" s="44">
+        <v>0.27</v>
+      </c>
+      <c r="L14" s="44">
+        <v>0.59</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="14">
+      <c r="N14" s="14">
         <v>-2.19653492959366E-2</v>
       </c>
-      <c r="K14" s="14">
+      <c r="O14" s="14">
         <v>4.6941659675328901E-2</v>
       </c>
-      <c r="L14" s="14">
+      <c r="P14" s="14">
         <v>-0.467928689523538</v>
       </c>
-      <c r="M14" s="15">
+      <c r="Q14" s="15">
         <v>0.63983558618550995</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="13" t="s">
+      <c r="S14" s="62"/>
+      <c r="T14" s="44">
+        <v>0.17</v>
+      </c>
+      <c r="U14" s="44">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="W14" s="14">
         <v>-4.3639868909588701E-2</v>
       </c>
-      <c r="R14" s="14">
+      <c r="X14" s="14">
         <v>3.9037663430319197E-2</v>
       </c>
-      <c r="S14" s="14">
+      <c r="Y14" s="14">
         <v>-1.1178914175405099</v>
       </c>
-      <c r="T14" s="15">
+      <c r="Z14" s="15">
         <v>0.26361337099597798</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="14">
+      <c r="E15" s="14">
         <v>-6.9344129023429504E-3</v>
       </c>
-      <c r="D15" s="14">
+      <c r="F15" s="14">
         <v>1.8864893028998402E-2</v>
       </c>
-      <c r="E15" s="14">
+      <c r="G15" s="14">
         <v>-0.36758294317829499</v>
       </c>
-      <c r="F15" s="15">
+      <c r="H15" s="15">
         <v>0.71318423509832796</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="14">
+      <c r="N15" s="14">
         <v>-4.1290983033017099E-2</v>
       </c>
-      <c r="K15" s="14">
+      <c r="O15" s="14">
         <v>2.72684477756212E-2</v>
       </c>
-      <c r="L15" s="14">
+      <c r="P15" s="14">
         <v>-1.5142403180694599</v>
       </c>
-      <c r="M15" s="15">
+      <c r="Q15" s="15">
         <v>0.12996489935105601</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="13" t="s">
+      <c r="S15" s="62"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="W15" s="21">
         <v>8.6088339443977605E-2</v>
       </c>
-      <c r="R15" s="14">
+      <c r="X15" s="14">
         <v>3.2133465217890601E-2</v>
       </c>
-      <c r="S15" s="14">
+      <c r="Y15" s="14">
         <v>2.6790867047867302</v>
       </c>
-      <c r="T15" s="22">
+      <c r="Z15" s="22">
         <v>7.38232751745005E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17">
+      <c r="E16" s="17">
         <v>-8.3336771035073295E-2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="F16" s="18">
         <v>1.54920104317374E-2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="G16" s="18">
         <v>-5.3793386857232601</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="63"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="18">
+      <c r="N16" s="18">
         <v>-8.0916465910812099E-2</v>
       </c>
-      <c r="K16" s="17">
+      <c r="O16" s="17">
         <v>2.3706881957986599E-2</v>
       </c>
-      <c r="L16" s="18">
+      <c r="P16" s="18">
         <v>-3.4132057541018099</v>
       </c>
-      <c r="M16" s="19">
+      <c r="Q16" s="19">
         <v>6.4203448897037795E-4</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="16" t="s">
+      <c r="S16" s="63"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="W16" s="18">
         <v>1.0015130922367801E-2</v>
       </c>
-      <c r="R16" s="18">
+      <c r="X16" s="18">
         <v>2.8499762352103199E-2</v>
       </c>
-      <c r="S16" s="18">
+      <c r="Y16" s="18">
         <v>0.35141103278809299</v>
       </c>
-      <c r="T16" s="20">
+      <c r="Z16" s="20">
         <v>0.72528000657917102</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="48">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39">
         <v>5.4907076179083601E-2</v>
       </c>
-      <c r="D17" s="47">
+      <c r="F17" s="38">
         <v>2.2496976080189399E-2</v>
       </c>
-      <c r="E17" s="47">
+      <c r="G17" s="38">
         <v>2.4406425105031802</v>
       </c>
-      <c r="F17" s="28">
+      <c r="H17" s="28">
         <v>1.4661160013996999E-2</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="J17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="47">
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="38">
         <v>3.75275935487243E-2</v>
       </c>
-      <c r="K17" s="47">
+      <c r="O17" s="38">
         <v>7.8420359772998396E-2</v>
       </c>
-      <c r="L17" s="47">
+      <c r="P17" s="38">
         <v>0.47854401149592501</v>
       </c>
-      <c r="M17" s="27">
+      <c r="Q17" s="27">
         <v>0.63226305707268105</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="S17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="47">
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="38">
         <v>2.5372075064650199E-2</v>
       </c>
-      <c r="R17" s="47">
+      <c r="X17" s="38">
         <v>3.0325846561113302E-2</v>
       </c>
-      <c r="S17" s="47">
+      <c r="Y17" s="38">
         <v>0.83664853390060601</v>
       </c>
-      <c r="T17" s="27">
+      <c r="Z17" s="27">
         <v>0.402790156122729</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="E18" s="9">
         <v>7.5330630881341995E-2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="F18" s="4">
         <v>1.94049714936705E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="G18" s="4">
         <v>3.88202739209967</v>
       </c>
-      <c r="F18" s="10">
+      <c r="H18" s="10">
         <v>1.03589205298071E-4</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="65"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="4">
+      <c r="N18" s="4">
         <v>-3.3532827624667798E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="O18" s="4">
         <v>6.9796779146246199E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="P18" s="4">
         <v>-0.48043517243691097</v>
       </c>
-      <c r="M18" s="5">
+      <c r="Q18" s="5">
         <v>0.63091798944421296</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="3" t="s">
+      <c r="S18" s="65"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="W18" s="4">
         <v>-2.39332020298741E-2</v>
       </c>
-      <c r="R18" s="4">
+      <c r="X18" s="4">
         <v>2.8765511187700599E-2</v>
       </c>
-      <c r="S18" s="4">
+      <c r="Y18" s="4">
         <v>-0.83201031518978597</v>
       </c>
-      <c r="T18" s="5">
+      <c r="Z18" s="5">
         <v>0.40540312212280699</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="41">
+        <v>0.37</v>
+      </c>
+      <c r="C19" s="41">
+        <v>0.37</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9">
+      <c r="E19" s="9">
         <v>3.85500344431162E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="4">
         <v>1.8273722784628601E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>2.1095884455215499</v>
       </c>
-      <c r="F19" s="10">
+      <c r="H19" s="10">
         <v>3.4893820447861899E-2</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="65"/>
+      <c r="K19" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="L19" s="41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="4">
+      <c r="N19" s="4">
         <v>-7.1452133380435601E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="O19" s="4">
         <v>5.4527640550414903E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="P19" s="4">
         <v>-1.3103837367467399</v>
       </c>
-      <c r="M19" s="5">
+      <c r="Q19" s="5">
         <v>0.19006605256154599</v>
       </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="3" t="s">
+      <c r="S19" s="65"/>
+      <c r="T19" s="41">
+        <v>0.09</v>
+      </c>
+      <c r="U19" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="W19" s="4">
         <v>-2.7669911376381699E-2</v>
       </c>
-      <c r="R19" s="4">
+      <c r="X19" s="4">
         <v>2.4530707076577101E-2</v>
       </c>
-      <c r="S19" s="4">
+      <c r="Y19" s="4">
         <v>-1.1279703960430101</v>
       </c>
-      <c r="T19" s="5">
+      <c r="Z19" s="5">
         <v>0.25933242180015398</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4">
+      <c r="E20" s="4">
         <v>-9.3840185038558295E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="F20" s="4">
         <v>1.7365951878234899E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>-0.54036879577082098</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="5">
         <v>0.58894272291956795</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="65"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="4">
+      <c r="N20" s="4">
         <v>-2.17722739101485E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="O20" s="4">
         <v>2.9317475793608602E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="P20" s="4">
         <v>-0.74263807919285696</v>
       </c>
-      <c r="M20" s="5">
+      <c r="Q20" s="5">
         <v>0.45770082770904802</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="3" t="s">
+      <c r="S20" s="65"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="W20" s="4">
         <v>-2.77032369025455E-3</v>
       </c>
-      <c r="R20" s="4">
+      <c r="X20" s="4">
         <v>2.1303570839723601E-2</v>
       </c>
-      <c r="S20" s="4">
+      <c r="Y20" s="4">
         <v>-0.13004034446135601</v>
       </c>
-      <c r="T20" s="5">
+      <c r="Z20" s="5">
         <v>0.896534507413143</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="66"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="7">
+      <c r="E21" s="7">
         <v>3.1329593628376597E-2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="F21" s="7">
         <v>1.7972915405427801E-2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="G21" s="7">
         <v>1.7431559055196499</v>
       </c>
-      <c r="F21" s="8">
+      <c r="H21" s="8">
         <v>8.1306385386086505E-2</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="66"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="7">
+      <c r="N21" s="7">
         <v>-3.4194061946250701E-2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="O21" s="7">
         <v>2.5068800790210202E-2</v>
       </c>
-      <c r="L21" s="7">
+      <c r="P21" s="7">
         <v>-1.3640086828407101</v>
       </c>
-      <c r="M21" s="8">
+      <c r="Q21" s="8">
         <v>0.17256483293313099</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="6" t="s">
+      <c r="S21" s="66"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="W21" s="7">
         <v>2.1906654504763399E-2</v>
       </c>
-      <c r="R21" s="7">
+      <c r="X21" s="7">
         <v>1.9568695414354399E-2</v>
       </c>
-      <c r="S21" s="7">
+      <c r="Y21" s="7">
         <v>1.11947444839343</v>
       </c>
-      <c r="T21" s="8">
+      <c r="Z21" s="8">
         <v>0.26293778566561199</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="46">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="37">
         <v>-1.03662730828585E-2</v>
       </c>
-      <c r="D22" s="46">
+      <c r="F22" s="37">
         <v>7.3175450270506698E-3</v>
       </c>
-      <c r="E22" s="46">
+      <c r="G22" s="37">
         <v>-1.4166326335591499</v>
       </c>
-      <c r="F22" s="26">
+      <c r="H22" s="26">
         <v>0.156590362282719</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="J22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="46">
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="37">
         <v>2.5728796442093999E-2</v>
       </c>
-      <c r="K22" s="46">
+      <c r="O22" s="37">
         <v>6.6506638274205401E-2</v>
       </c>
-      <c r="L22" s="46">
+      <c r="P22" s="37">
         <v>0.38686057677452801</v>
       </c>
-      <c r="M22" s="26">
+      <c r="Q22" s="26">
         <v>0.69885942821946401</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="S22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="46">
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="37">
         <v>-7.7016632159171402E-3</v>
       </c>
-      <c r="R22" s="46">
+      <c r="X22" s="37">
         <v>3.3931094768329E-2</v>
       </c>
-      <c r="S22" s="46">
+      <c r="Y22" s="37">
         <v>-0.226979508574707</v>
       </c>
-      <c r="T22" s="26">
+      <c r="Z22" s="26">
         <v>0.82043967613348501</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="14">
+      <c r="E23" s="14">
         <v>7.5911596999651203E-4</v>
       </c>
-      <c r="D23" s="14">
+      <c r="F23" s="14">
         <v>6.3197418955163401E-3</v>
       </c>
-      <c r="E23" s="14">
+      <c r="G23" s="14">
         <v>0.120118191936775</v>
       </c>
-      <c r="F23" s="15">
+      <c r="H23" s="15">
         <v>0.904389521648304</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="13" t="s">
+      <c r="J23" s="62"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="14">
+      <c r="N23" s="14">
         <v>-2.9085241280256999E-2</v>
       </c>
-      <c r="K23" s="14">
+      <c r="O23" s="14">
         <v>5.9651203572086101E-2</v>
       </c>
-      <c r="L23" s="14">
+      <c r="P23" s="14">
         <v>-0.48758850682884602</v>
       </c>
-      <c r="M23" s="15">
+      <c r="Q23" s="15">
         <v>0.62584133799445296</v>
       </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="13" t="s">
+      <c r="S23" s="62"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="W23" s="14">
         <v>-5.0099426520924001E-2</v>
       </c>
-      <c r="R23" s="14">
+      <c r="X23" s="14">
         <v>3.2106788577915699E-2</v>
       </c>
-      <c r="S23" s="14">
+      <c r="Y23" s="14">
         <v>-1.5603998014109799</v>
       </c>
-      <c r="T23" s="15">
+      <c r="Z23" s="15">
         <v>0.118665431742197</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0.16</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="14">
+      <c r="E24" s="14">
         <v>5.9875746788782503E-3</v>
       </c>
-      <c r="D24" s="14">
+      <c r="F24" s="14">
         <v>5.84554861844668E-3</v>
       </c>
-      <c r="E24" s="14">
+      <c r="G24" s="14">
         <v>1.0242964466985001</v>
       </c>
-      <c r="F24" s="15">
+      <c r="H24" s="15">
         <v>0.30569527576697603</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="13" t="s">
+      <c r="J24" s="62"/>
+      <c r="K24" s="44">
+        <v>0.08</v>
+      </c>
+      <c r="L24" s="44">
+        <v>0.71</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="14">
+      <c r="N24" s="14">
         <v>-2.6079908262912999E-2</v>
       </c>
-      <c r="K24" s="14">
+      <c r="O24" s="14">
         <v>4.51589991528865E-2</v>
       </c>
-      <c r="L24" s="14">
+      <c r="P24" s="14">
         <v>-0.57751298195557998</v>
       </c>
-      <c r="M24" s="15">
+      <c r="Q24" s="15">
         <v>0.56359297147337195</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="13" t="s">
+      <c r="S24" s="62"/>
+      <c r="T24" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="U24" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="V24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="W24" s="14">
         <v>-2.0822534239382701E-2</v>
       </c>
-      <c r="R24" s="14">
+      <c r="X24" s="14">
         <v>2.73929320168011E-2</v>
       </c>
-      <c r="S24" s="14">
+      <c r="Y24" s="14">
         <v>-0.76014258811767399</v>
       </c>
-      <c r="T24" s="15">
+      <c r="Z24" s="15">
         <v>0.44716935818592202</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="14">
+      <c r="E25" s="14">
         <v>2.1215142823842398E-3</v>
       </c>
-      <c r="D25" s="14">
+      <c r="F25" s="14">
         <v>5.2446061149493397E-3</v>
       </c>
-      <c r="E25" s="14">
+      <c r="G25" s="14">
         <v>0.40451355848002102</v>
       </c>
-      <c r="F25" s="15">
+      <c r="H25" s="15">
         <v>0.68583510960772898</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="13" t="s">
+      <c r="J25" s="62"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="14">
+      <c r="N25" s="14">
         <v>-7.2323356330252497E-3</v>
       </c>
-      <c r="K25" s="14">
+      <c r="O25" s="14">
         <v>1.91639017045565E-2</v>
       </c>
-      <c r="L25" s="14">
+      <c r="P25" s="14">
         <v>-0.377393692814948</v>
       </c>
-      <c r="M25" s="15">
+      <c r="Q25" s="15">
         <v>0.70588105337253604</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="13" t="s">
+      <c r="S25" s="62"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="W25" s="14">
         <v>1.6507373177031801E-2</v>
       </c>
-      <c r="R25" s="14">
+      <c r="X25" s="14">
         <v>2.0612267910184199E-2</v>
       </c>
-      <c r="S25" s="14">
+      <c r="Y25" s="14">
         <v>0.80085186399482799</v>
       </c>
-      <c r="T25" s="15">
+      <c r="Z25" s="15">
         <v>0.42321740975835298</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="63"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="18">
+      <c r="E26" s="18">
         <v>4.2794080733071296E-3</v>
       </c>
-      <c r="D26" s="18">
+      <c r="F26" s="18">
         <v>5.2077818373839398E-3</v>
       </c>
-      <c r="E26" s="18">
+      <c r="G26" s="18">
         <v>0.82173336113803797</v>
       </c>
-      <c r="F26" s="20">
+      <c r="H26" s="20">
         <v>0.41122866769062399</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="16" t="s">
+      <c r="J26" s="63"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="18">
+      <c r="N26" s="18">
         <v>1.83346377768057E-2</v>
       </c>
-      <c r="K26" s="18">
+      <c r="O26" s="18">
         <v>1.58865259511035E-2</v>
       </c>
-      <c r="L26" s="18">
+      <c r="P26" s="18">
         <v>1.15409988522583</v>
       </c>
-      <c r="M26" s="20">
+      <c r="Q26" s="20">
         <v>0.24845922044221999</v>
       </c>
-      <c r="O26" s="31"/>
-      <c r="P26" s="16" t="s">
+      <c r="S26" s="63"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="W26" s="18">
         <v>1.59385993539191E-2</v>
       </c>
-      <c r="R26" s="18">
+      <c r="X26" s="18">
         <v>1.7446533956012401E-2</v>
       </c>
-      <c r="S26" s="18">
+      <c r="Y26" s="18">
         <v>0.91356824192729602</v>
       </c>
-      <c r="T26" s="20">
+      <c r="Z26" s="20">
         <v>0.36094376021320301</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="48">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="39">
         <v>-0.226035499549714</v>
       </c>
-      <c r="D27" s="47">
+      <c r="F27" s="38">
         <v>8.8097657550294195E-2</v>
       </c>
-      <c r="E27" s="47">
+      <c r="G27" s="38">
         <v>-2.5657379076245301</v>
       </c>
-      <c r="F27" s="28">
+      <c r="H27" s="28">
         <v>1.02956589885583E-2</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="J27" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="47">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="38">
         <v>7.7912973999788599E-3</v>
       </c>
-      <c r="K27" s="47">
+      <c r="O27" s="38">
         <v>6.9597085990696805E-2</v>
       </c>
-      <c r="L27" s="47">
+      <c r="P27" s="38">
         <v>0.111948615219613</v>
       </c>
-      <c r="M27" s="27">
+      <c r="Q27" s="27">
         <v>0.91086414946984995</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="S27" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="47">
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="38">
         <v>3.2584264801240402E-2</v>
       </c>
-      <c r="R27" s="47">
+      <c r="X27" s="38">
         <v>7.2695834859194799E-2</v>
       </c>
-      <c r="S27" s="47">
+      <c r="Y27" s="38">
         <v>0.44822739658129201</v>
       </c>
-      <c r="T27" s="27">
+      <c r="Z27" s="27">
         <v>0.65398909246306203</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="65"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="9">
+      <c r="E28" s="9">
         <v>-0.149622127770388</v>
       </c>
-      <c r="D28" s="4">
+      <c r="F28" s="4">
         <v>7.5989436417101305E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="G28" s="4">
         <v>-1.9689858857370801</v>
       </c>
-      <c r="F28" s="10">
+      <c r="H28" s="10">
         <v>4.8954711894798199E-2</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="65"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="4">
+      <c r="N28" s="4">
         <v>3.6423044661631002E-3</v>
       </c>
-      <c r="K28" s="4">
+      <c r="O28" s="4">
         <v>6.1565057177981497E-2</v>
       </c>
-      <c r="L28" s="4">
+      <c r="P28" s="4">
         <v>5.9161879045013799E-2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="Q28" s="5">
         <v>0.95282317254778404</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="3" t="s">
+      <c r="S28" s="65"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="W28" s="4">
         <v>4.7841689165472399E-2</v>
       </c>
-      <c r="R28" s="4">
+      <c r="X28" s="4">
         <v>6.8987488561699895E-2</v>
       </c>
-      <c r="S28" s="4">
+      <c r="Y28" s="4">
         <v>0.69348356003254896</v>
       </c>
-      <c r="T28" s="5">
+      <c r="Z28" s="5">
         <v>0.48800613938113602</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="41">
+        <v>0.54</v>
+      </c>
+      <c r="C29" s="41">
+        <v>0.54</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4">
+      <c r="E29" s="4">
         <v>3.7244112267387199E-2</v>
       </c>
-      <c r="D29" s="4">
+      <c r="F29" s="4">
         <v>7.1559491653940502E-2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="G29" s="4">
         <v>0.52046362273642999</v>
       </c>
-      <c r="F29" s="5">
+      <c r="H29" s="5">
         <v>0.60274047594928004</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="65"/>
+      <c r="K29" s="41">
+        <v>0.68</v>
+      </c>
+      <c r="L29" s="41">
+        <v>0.68</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="4">
+      <c r="N29" s="4">
         <v>1.8395897331407798E-2</v>
       </c>
-      <c r="K29" s="4">
+      <c r="O29" s="4">
         <v>5.3067173769854599E-2</v>
       </c>
-      <c r="L29" s="4">
+      <c r="P29" s="4">
         <v>0.34665304414341702</v>
       </c>
-      <c r="M29" s="5">
+      <c r="Q29" s="5">
         <v>0.72885199050288396</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="3" t="s">
+      <c r="S29" s="65"/>
+      <c r="T29" s="41">
+        <v>0.05</v>
+      </c>
+      <c r="U29" s="41">
+        <v>0.11</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="W29" s="4">
         <v>-5.3429906330795501E-2</v>
       </c>
-      <c r="R29" s="4">
+      <c r="X29" s="4">
         <v>5.88149660988707E-2</v>
       </c>
-      <c r="S29" s="4">
+      <c r="Y29" s="4">
         <v>-0.90844065507029803</v>
       </c>
-      <c r="T29" s="5">
+      <c r="Z29" s="5">
         <v>0.363645454415921</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
+      <c r="E30" s="4">
         <v>0.111825714192421</v>
       </c>
-      <c r="D30" s="4">
+      <c r="F30" s="4">
         <v>6.8004680991364003E-2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="G30" s="4">
         <v>1.6443826007598099</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>0.100097196819914</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="65"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="4">
+      <c r="N30" s="4">
         <v>-3.2809329382891599E-2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="O30" s="4">
         <v>4.3897431220536E-2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="P30" s="4">
         <v>-0.74740886814221597</v>
       </c>
-      <c r="M30" s="5">
+      <c r="Q30" s="5">
         <v>0.45481679394520702</v>
       </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="3" t="s">
+      <c r="S30" s="65"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="W30" s="4">
         <v>-5.97692958736449E-2</v>
       </c>
-      <c r="R30" s="4">
+      <c r="X30" s="4">
         <v>5.2223623595006999E-2</v>
       </c>
-      <c r="S30" s="4">
+      <c r="Y30" s="4">
         <v>-1.14448771952621</v>
       </c>
-      <c r="T30" s="5">
+      <c r="Z30" s="5">
         <v>0.25242142793291</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="11">
+      <c r="E31" s="11">
         <v>0.44818010137063902</v>
       </c>
-      <c r="D31" s="7">
+      <c r="F31" s="7">
         <v>7.0381536652922905E-2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="G31" s="7">
         <v>6.3678646799199603</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="66"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="11">
+      <c r="N31" s="11">
         <v>0.46377516208800401</v>
       </c>
-      <c r="K31" s="7">
+      <c r="O31" s="7">
         <v>4.7024906551029803E-2</v>
       </c>
-      <c r="L31" s="7">
+      <c r="P31" s="7">
         <v>9.8623303288169595</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="Q31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="34"/>
-      <c r="P31" s="6" t="s">
+      <c r="S31" s="66"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="W31" s="7">
         <v>3.9420725230575999E-2</v>
       </c>
-      <c r="R31" s="7">
+      <c r="X31" s="7">
         <v>4.8769745640703001E-2</v>
       </c>
-      <c r="S31" s="7">
+      <c r="Y31" s="7">
         <v>0.80830286712989696</v>
       </c>
-      <c r="T31" s="8">
+      <c r="Z31" s="8">
         <v>0.41891625241834501</v>
       </c>
     </row>
@@ -3979,29 +5294,29 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="O27:O31"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="O12:O16"/>
-    <mergeCell ref="O17:O21"/>
-    <mergeCell ref="O22:O26"/>
+    <mergeCell ref="S27:S31"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="S7:S11"/>
+    <mergeCell ref="S12:S16"/>
+    <mergeCell ref="S17:S21"/>
+    <mergeCell ref="S22:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1643CC-3B51-4F91-A5C2-EE8C9D976A4F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4009,7 +5324,7 @@
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -4025,9 +5340,15 @@
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="G1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14">
@@ -4042,9 +5363,15 @@
       <c r="E2" s="15">
         <v>0.37184768200000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="G2" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="H2" s="67">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="14">
@@ -4060,8 +5387,8 @@
         <v>5.7295048000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="21">
@@ -4077,8 +5404,8 @@
         <v>2.0198379999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="21">
@@ -4094,8 +5421,8 @@
         <v>1.1351099999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="14">
@@ -4111,8 +5438,8 @@
         <v>0.22441529599999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="17">
@@ -4133,12 +5460,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA57C79B-597D-4C75-A549-1798BCB1BB79}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4146,7 +5473,7 @@
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
@@ -4162,103 +5489,115 @@
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37">
+      <c r="G1" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31">
         <v>-33.493444699999998</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="29">
         <v>15.212668000000001</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="29">
         <v>-2.2016811199999999</v>
       </c>
       <c r="E2" s="22">
         <v>2.7687839999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="67">
+        <v>0.27</v>
+      </c>
+      <c r="H2" s="67">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="29">
         <v>-22.301627</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="29">
         <v>14.387525</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="29">
         <v>-1.5500669499999999</v>
       </c>
       <c r="E3" s="15">
         <v>0.12112545</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="29">
         <v>-4.9300122000000002</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="29">
         <v>11.767192</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="29">
         <v>-0.41896250000000002</v>
       </c>
       <c r="E4" s="15">
         <v>0.67524353999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="29">
         <v>3.3278292</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="29">
         <v>4.5890529999999998</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="29">
         <v>0.7251668</v>
       </c>
       <c r="E5" s="15">
         <v>0.46834970999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="29">
         <v>-0.95307589999999998</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="29">
         <v>24.221768999999998</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="29">
         <v>-3.934791E-2</v>
       </c>
       <c r="E6" s="15">
         <v>0.96861301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="30">
         <v>-45.134131500000002</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="30">
         <v>25.571297999999999</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <v>-1.76503093</v>
       </c>
       <c r="E7" s="20">

--- a/outputs/SupplementalTables.xlsx
+++ b/outputs/SupplementalTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwel\OneDrive\Desktop\AppraisingGrazing\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D6B748-D447-45F4-801B-F4D5A027B13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9E7B5-6069-4405-BEFA-8BFAF5DA6282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="4" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="5" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteDescriptions" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ElementGradient" sheetId="2" r:id="rId3"/>
     <sheet name="BiomassTRT" sheetId="3" r:id="rId4"/>
     <sheet name="BiomassGradient" sheetId="4" r:id="rId5"/>
+    <sheet name="BiomassPerTRT" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="93">
   <si>
     <t>bison</t>
   </si>
@@ -480,7 +481,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,15 +644,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,17 +668,65 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1491,7 +1546,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="M3" sqref="M3:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,10 +1568,10 @@
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="24" t="s">
@@ -1537,10 +1592,10 @@
       <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="58" t="s">
         <v>92</v>
       </c>
       <c r="M1" s="24" t="s">
@@ -1561,10 +1616,10 @@
       <c r="S1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="58" t="s">
         <v>92</v>
       </c>
       <c r="V1" s="24" t="s">
@@ -1584,11 +1639,11 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1604,11 +1659,11 @@
       <c r="H2" s="15">
         <v>0.75643309065928399</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1624,11 +1679,11 @@
       <c r="Q2" s="15">
         <v>0.78445569199090504</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1701,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="13" t="s">
@@ -1664,7 +1719,7 @@
       <c r="H3" s="15">
         <v>0.85620580622572096</v>
       </c>
-      <c r="J3" s="62"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="13" t="s">
@@ -1682,7 +1737,7 @@
       <c r="Q3" s="15">
         <v>0.111358770556964</v>
       </c>
-      <c r="S3" s="62"/>
+      <c r="S3" s="64"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="13" t="s">
@@ -1702,7 +1757,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="44">
         <v>0.59</v>
       </c>
@@ -1724,7 +1779,7 @@
       <c r="H4" s="15">
         <v>0.198730750798048</v>
       </c>
-      <c r="J4" s="62"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="44">
         <v>0.41</v>
       </c>
@@ -1746,7 +1801,7 @@
       <c r="Q4" s="15">
         <v>0.54152757122083806</v>
       </c>
-      <c r="S4" s="62"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="44">
         <v>0.21</v>
       </c>
@@ -1770,7 +1825,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="13" t="s">
@@ -1788,7 +1843,7 @@
       <c r="H5" s="22">
         <v>2.0426214511249902E-2</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="13" t="s">
@@ -1806,7 +1861,7 @@
       <c r="Q5" s="15">
         <v>0.58620851191461298</v>
       </c>
-      <c r="S5" s="62"/>
+      <c r="S5" s="64"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="13" t="s">
@@ -1826,7 +1881,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
@@ -1844,7 +1899,7 @@
       <c r="H6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="63"/>
+      <c r="J6" s="65"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="16" t="s">
@@ -1862,7 +1917,7 @@
       <c r="Q6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="63"/>
+      <c r="S6" s="65"/>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="16" t="s">
@@ -1882,11 +1937,11 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1902,11 +1957,11 @@
       <c r="H7" s="5">
         <v>0.45450659664544801</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1922,11 +1977,11 @@
       <c r="Q7" s="5">
         <v>0.96017688602466</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
       <c r="V7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1999,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
@@ -1962,7 +2017,7 @@
       <c r="H8" s="5">
         <v>0.53062471950727597</v>
       </c>
-      <c r="J8" s="65"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="3" t="s">
@@ -1980,7 +2035,7 @@
       <c r="Q8" s="5">
         <v>0.49430589283329901</v>
       </c>
-      <c r="S8" s="65"/>
+      <c r="S8" s="61"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="3" t="s">
@@ -2000,7 +2055,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="41">
         <v>0.23</v>
       </c>
@@ -2022,7 +2077,7 @@
       <c r="H9" s="5">
         <v>0.85845654845826103</v>
       </c>
-      <c r="J9" s="65"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="41">
         <v>0.32</v>
       </c>
@@ -2044,7 +2099,7 @@
       <c r="Q9" s="5">
         <v>0.12333957548581399</v>
       </c>
-      <c r="S9" s="65"/>
+      <c r="S9" s="61"/>
       <c r="T9" s="41">
         <v>0.21</v>
       </c>
@@ -2068,7 +2123,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="3" t="s">
@@ -2086,7 +2141,7 @@
       <c r="H10" s="5">
         <v>0.68725480675239803</v>
       </c>
-      <c r="J10" s="65"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="3" t="s">
@@ -2104,7 +2159,7 @@
       <c r="Q10" s="5">
         <v>0.56468785934212196</v>
       </c>
-      <c r="S10" s="65"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="3" t="s">
@@ -2124,7 +2179,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
@@ -2142,7 +2197,7 @@
       <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="6" t="s">
@@ -2160,7 +2215,7 @@
       <c r="Q11" s="12">
         <v>5.6703110896494401E-4</v>
       </c>
-      <c r="S11" s="66"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="6" t="s">
@@ -2181,11 +2236,11 @@
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="13" t="s">
         <v>0</v>
       </c>
@@ -2201,11 +2256,11 @@
       <c r="H12" s="15">
         <v>0.70634877764113901</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="13" t="s">
         <v>0</v>
       </c>
@@ -2221,11 +2276,11 @@
       <c r="Q12" s="15">
         <v>0.96903819673954605</v>
       </c>
-      <c r="S12" s="61" t="s">
+      <c r="S12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
       <c r="V12" s="13" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2298,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
@@ -2261,7 +2316,7 @@
       <c r="H13" s="15">
         <v>0.98064258715030805</v>
       </c>
-      <c r="J13" s="62"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="13" t="s">
@@ -2279,7 +2334,7 @@
       <c r="Q13" s="15">
         <v>0.204959108693586</v>
       </c>
-      <c r="S13" s="62"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="13" t="s">
@@ -2299,7 +2354,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="44">
         <v>0.36</v>
       </c>
@@ -2321,7 +2376,7 @@
       <c r="H14" s="15">
         <v>0.46443467686441597</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="44">
         <v>0.33</v>
       </c>
@@ -2343,7 +2398,7 @@
       <c r="Q14" s="15">
         <v>0.28711644693738703</v>
       </c>
-      <c r="S14" s="62"/>
+      <c r="S14" s="64"/>
       <c r="T14" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2367,7 +2422,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="13" t="s">
@@ -2385,7 +2440,7 @@
       <c r="H15" s="15">
         <v>0.17886255886840399</v>
       </c>
-      <c r="J15" s="62"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="13" t="s">
@@ -2403,7 +2458,7 @@
       <c r="Q15" s="15">
         <v>0.43957422325523998</v>
       </c>
-      <c r="S15" s="62"/>
+      <c r="S15" s="64"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="13" t="s">
@@ -2423,7 +2478,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
@@ -2441,7 +2496,7 @@
       <c r="H16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
       <c r="M16" s="16" t="s">
@@ -2459,7 +2514,7 @@
       <c r="Q16" s="19">
         <v>9.5878767935397803E-4</v>
       </c>
-      <c r="S16" s="63"/>
+      <c r="S16" s="65"/>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="16" t="s">
@@ -2480,11 +2535,11 @@
       <c r="AF16" s="35"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2500,11 +2555,11 @@
       <c r="H17" s="10">
         <v>4.2440815812778497E-2</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2520,11 +2575,11 @@
       <c r="Q17" s="5">
         <v>0.50381674695789302</v>
       </c>
-      <c r="S17" s="64" t="s">
+      <c r="S17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
       <c r="V17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2597,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="3" t="s">
@@ -2560,7 +2615,7 @@
       <c r="H18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="3" t="s">
@@ -2578,7 +2633,7 @@
       <c r="Q18" s="5">
         <v>0.264487950777611</v>
       </c>
-      <c r="S18" s="65"/>
+      <c r="S18" s="61"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="3" t="s">
@@ -2598,7 +2653,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="41">
         <v>0.31</v>
       </c>
@@ -2620,7 +2675,7 @@
       <c r="H19" s="5">
         <v>9.6818088993625706E-2</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="41">
         <v>0.26</v>
       </c>
@@ -2642,7 +2697,7 @@
       <c r="Q19" s="5">
         <v>0.37610715062244399</v>
       </c>
-      <c r="S19" s="65"/>
+      <c r="S19" s="61"/>
       <c r="T19" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2666,7 +2721,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="3" t="s">
@@ -2684,7 +2739,7 @@
       <c r="H20" s="10">
         <v>6.5707623725130805E-4</v>
       </c>
-      <c r="J20" s="65"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="3" t="s">
@@ -2702,7 +2757,7 @@
       <c r="Q20" s="5">
         <v>0.239285481771352</v>
       </c>
-      <c r="S20" s="65"/>
+      <c r="S20" s="61"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
       <c r="V20" s="3" t="s">
@@ -2722,7 +2777,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="6" t="s">
@@ -2740,7 +2795,7 @@
       <c r="H21" s="12">
         <v>5.7643528578590598E-2</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="6" t="s">
@@ -2758,7 +2813,7 @@
       <c r="Q21" s="8">
         <v>0.18897297602503599</v>
       </c>
-      <c r="S21" s="66"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="6" t="s">
@@ -2778,11 +2833,11 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2798,11 +2853,11 @@
       <c r="H22" s="15">
         <v>5.8951439115694199E-2</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2818,11 +2873,11 @@
       <c r="Q22" s="15">
         <v>0.85580186913876699</v>
       </c>
-      <c r="S22" s="61" t="s">
+      <c r="S22" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
       <c r="V22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2895,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="13" t="s">
@@ -2858,7 +2913,7 @@
       <c r="H23" s="15">
         <v>0.898896282859034</v>
       </c>
-      <c r="J23" s="62"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="13" t="s">
@@ -2876,7 +2931,7 @@
       <c r="Q23" s="15">
         <v>0.53963880509304496</v>
       </c>
-      <c r="S23" s="62"/>
+      <c r="S23" s="64"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="13" t="s">
@@ -2896,7 +2951,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="44">
         <v>0.13</v>
       </c>
@@ -2918,7 +2973,7 @@
       <c r="H24" s="15">
         <v>0.56247855473640496</v>
       </c>
-      <c r="J24" s="62"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="44">
         <v>0.27</v>
       </c>
@@ -2940,7 +2995,7 @@
       <c r="Q24" s="15">
         <v>0.19620110579128799</v>
       </c>
-      <c r="S24" s="62"/>
+      <c r="S24" s="64"/>
       <c r="T24" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2964,7 +3019,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="13" t="s">
@@ -2982,7 +3037,7 @@
       <c r="H25" s="15">
         <v>0.96061530261722605</v>
       </c>
-      <c r="J25" s="62"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="13" t="s">
@@ -3000,7 +3055,7 @@
       <c r="Q25" s="15">
         <v>0.57714986420537495</v>
       </c>
-      <c r="S25" s="62"/>
+      <c r="S25" s="64"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="13" t="s">
@@ -3020,7 +3075,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="16" t="s">
@@ -3038,7 +3093,7 @@
       <c r="H26" s="20">
         <v>0.32774660012482898</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="16" t="s">
@@ -3056,7 +3111,7 @@
       <c r="Q26" s="20">
         <v>0.21330625309083201</v>
       </c>
-      <c r="S26" s="63"/>
+      <c r="S26" s="65"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="16" t="s">
@@ -3076,11 +3131,11 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="3" t="s">
         <v>0</v>
       </c>
@@ -3096,11 +3151,11 @@
       <c r="H27" s="10">
         <v>4.0137352839097598E-2</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="3" t="s">
         <v>0</v>
       </c>
@@ -3116,11 +3171,11 @@
       <c r="Q27" s="5">
         <v>0.65952820034885495</v>
       </c>
-      <c r="S27" s="64" t="s">
+      <c r="S27" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
       <c r="V27" s="3" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3193,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
@@ -3156,7 +3211,7 @@
       <c r="H28" s="10">
         <v>3.5068868917491801E-2</v>
       </c>
-      <c r="J28" s="65"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
       <c r="M28" s="3" t="s">
@@ -3174,7 +3229,7 @@
       <c r="Q28" s="5">
         <v>0.94359388051558002</v>
       </c>
-      <c r="S28" s="65"/>
+      <c r="S28" s="61"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
       <c r="V28" s="3" t="s">
@@ -3194,7 +3249,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="41">
         <v>0.71</v>
       </c>
@@ -3216,7 +3271,7 @@
       <c r="H29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="65"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="41">
         <v>0.68</v>
       </c>
@@ -3238,7 +3293,7 @@
       <c r="Q29" s="5">
         <v>0.96316540129969996</v>
       </c>
-      <c r="S29" s="65"/>
+      <c r="S29" s="61"/>
       <c r="T29" s="41">
         <v>0.05</v>
       </c>
@@ -3263,7 +3318,7 @@
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="3" t="s">
@@ -3281,7 +3336,7 @@
       <c r="H30" s="5">
         <v>7.7615500578327001E-2</v>
       </c>
-      <c r="J30" s="65"/>
+      <c r="J30" s="61"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="3" t="s">
@@ -3299,7 +3354,7 @@
       <c r="Q30" s="5">
         <v>0.83562337156051503</v>
       </c>
-      <c r="S30" s="65"/>
+      <c r="S30" s="61"/>
       <c r="T30" s="41"/>
       <c r="U30" s="41"/>
       <c r="V30" s="3" t="s">
@@ -3319,7 +3374,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
@@ -3337,7 +3392,7 @@
       <c r="H31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="66"/>
+      <c r="J31" s="62"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="6" t="s">
@@ -3355,7 +3410,7 @@
       <c r="Q31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="66"/>
+      <c r="S31" s="62"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="6" t="s">
@@ -3380,12 +3435,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="S27:S31"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="J7:J11"/>
@@ -3398,6 +3447,12 @@
     <mergeCell ref="S12:S16"/>
     <mergeCell ref="S17:S21"/>
     <mergeCell ref="S22:S26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3409,7 +3464,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3428,10 +3483,10 @@
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="24" t="s">
@@ -3452,10 +3507,10 @@
       <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="58" t="s">
         <v>92</v>
       </c>
       <c r="M1" s="24" t="s">
@@ -3476,10 +3531,10 @@
       <c r="S1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="58" t="s">
         <v>92</v>
       </c>
       <c r="V1" s="24" t="s">
@@ -3499,11 +3554,11 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +3574,7 @@
       <c r="H2" s="26">
         <v>0.232594480943555</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="43"/>
@@ -3539,7 +3594,7 @@
       <c r="Q2" s="26">
         <v>0.58051575449478299</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="63" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="43"/>
@@ -3561,7 +3616,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="13" t="s">
@@ -3579,7 +3634,7 @@
       <c r="H3" s="15">
         <v>0.72085458380743095</v>
       </c>
-      <c r="J3" s="62"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="13" t="s">
@@ -3597,7 +3652,7 @@
       <c r="Q3" s="15">
         <v>0.22034570029552</v>
       </c>
-      <c r="S3" s="62"/>
+      <c r="S3" s="64"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="13" t="s">
@@ -3617,7 +3672,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="44">
         <v>0.7</v>
       </c>
@@ -3639,7 +3694,7 @@
       <c r="H4" s="22">
         <v>1.62257649215358E-3</v>
       </c>
-      <c r="J4" s="62"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="44">
         <v>0.41</v>
       </c>
@@ -3661,7 +3716,7 @@
       <c r="Q4" s="15">
         <v>0.45992161771271001</v>
       </c>
-      <c r="S4" s="62"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="44">
         <v>0.44</v>
       </c>
@@ -3685,7 +3740,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="13" t="s">
@@ -3703,7 +3758,7 @@
       <c r="H5" s="15">
         <v>0.90736653483351304</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="13" t="s">
@@ -3721,7 +3776,7 @@
       <c r="Q5" s="15">
         <v>0.49155219186801202</v>
       </c>
-      <c r="S5" s="62"/>
+      <c r="S5" s="64"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="13" t="s">
@@ -3741,7 +3796,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
@@ -3759,7 +3814,7 @@
       <c r="H6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="63"/>
+      <c r="J6" s="65"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="16" t="s">
@@ -3777,7 +3832,7 @@
       <c r="Q6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="63"/>
+      <c r="S6" s="65"/>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="16" t="s">
@@ -3797,11 +3852,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="36" t="s">
         <v>0</v>
       </c>
@@ -3817,7 +3872,7 @@
       <c r="H7" s="27">
         <v>0.552259009406043</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="60" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="40"/>
@@ -3837,7 +3892,7 @@
       <c r="Q7" s="27">
         <v>0.32181313500870801</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="60" t="s">
         <v>21</v>
       </c>
       <c r="T7" s="40"/>
@@ -3859,7 +3914,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
@@ -3877,7 +3932,7 @@
       <c r="H8" s="5">
         <v>0.32335190904313799</v>
       </c>
-      <c r="J8" s="65"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="3" t="s">
@@ -3895,7 +3950,7 @@
       <c r="Q8" s="5">
         <v>0.85330548504150305</v>
       </c>
-      <c r="S8" s="65"/>
+      <c r="S8" s="61"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="3" t="s">
@@ -3915,7 +3970,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="41">
         <v>0.39</v>
       </c>
@@ -3937,7 +3992,7 @@
       <c r="H9" s="5">
         <v>0.124419258908589</v>
       </c>
-      <c r="J9" s="65"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="41">
         <v>0.2</v>
       </c>
@@ -3959,7 +4014,7 @@
       <c r="Q9" s="5">
         <v>0.46405023322165001</v>
       </c>
-      <c r="S9" s="65"/>
+      <c r="S9" s="61"/>
       <c r="T9" s="41">
         <v>0.46</v>
       </c>
@@ -3983,7 +4038,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="3" t="s">
@@ -4001,7 +4056,7 @@
       <c r="H10" s="5">
         <v>0.65137158175371701</v>
       </c>
-      <c r="J10" s="65"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="3" t="s">
@@ -4019,7 +4074,7 @@
       <c r="Q10" s="5">
         <v>0.69125847064969603</v>
       </c>
-      <c r="S10" s="65"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="3" t="s">
@@ -4039,7 +4094,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
@@ -4057,7 +4112,7 @@
       <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="6" t="s">
@@ -4075,7 +4130,7 @@
       <c r="Q11" s="12">
         <v>5.7849128320341904E-4</v>
       </c>
-      <c r="S11" s="66"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="6" t="s">
@@ -4095,7 +4150,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="63" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="43"/>
@@ -4115,7 +4170,7 @@
       <c r="H12" s="26">
         <v>0.80183396861683798</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="63" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="43"/>
@@ -4135,7 +4190,7 @@
       <c r="Q12" s="26">
         <v>0.396063757387072</v>
       </c>
-      <c r="S12" s="61" t="s">
+      <c r="S12" s="63" t="s">
         <v>22</v>
       </c>
       <c r="T12" s="43"/>
@@ -4157,7 +4212,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
@@ -4175,7 +4230,7 @@
       <c r="H13" s="15">
         <v>0.81920679808716201</v>
       </c>
-      <c r="J13" s="62"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="13" t="s">
@@ -4193,7 +4248,7 @@
       <c r="Q13" s="15">
         <v>0.47782379499238098</v>
       </c>
-      <c r="S13" s="62"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="13" t="s">
@@ -4213,7 +4268,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="44">
         <v>0.46</v>
       </c>
@@ -4235,7 +4290,7 @@
       <c r="H14" s="22">
         <v>1.1522972880144901E-2</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="44">
         <v>0.27</v>
       </c>
@@ -4257,7 +4312,7 @@
       <c r="Q14" s="15">
         <v>0.63983558618550995</v>
       </c>
-      <c r="S14" s="62"/>
+      <c r="S14" s="64"/>
       <c r="T14" s="44">
         <v>0.17</v>
       </c>
@@ -4281,7 +4336,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="13" t="s">
@@ -4299,7 +4354,7 @@
       <c r="H15" s="15">
         <v>0.71318423509832796</v>
       </c>
-      <c r="J15" s="62"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="13" t="s">
@@ -4317,7 +4372,7 @@
       <c r="Q15" s="15">
         <v>0.12996489935105601</v>
       </c>
-      <c r="S15" s="62"/>
+      <c r="S15" s="64"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="13" t="s">
@@ -4337,7 +4392,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
@@ -4355,7 +4410,7 @@
       <c r="H16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
       <c r="M16" s="16" t="s">
@@ -4373,7 +4428,7 @@
       <c r="Q16" s="19">
         <v>6.4203448897037795E-4</v>
       </c>
-      <c r="S16" s="63"/>
+      <c r="S16" s="65"/>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="16" t="s">
@@ -4393,7 +4448,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="40"/>
@@ -4413,7 +4468,7 @@
       <c r="H17" s="28">
         <v>1.4661160013996999E-2</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="60" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="40"/>
@@ -4433,7 +4488,7 @@
       <c r="Q17" s="27">
         <v>0.63226305707268105</v>
       </c>
-      <c r="S17" s="64" t="s">
+      <c r="S17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="T17" s="40"/>
@@ -4455,7 +4510,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="3" t="s">
@@ -4473,7 +4528,7 @@
       <c r="H18" s="10">
         <v>1.03589205298071E-4</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="3" t="s">
@@ -4491,7 +4546,7 @@
       <c r="Q18" s="5">
         <v>0.63091798944421296</v>
       </c>
-      <c r="S18" s="65"/>
+      <c r="S18" s="61"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="3" t="s">
@@ -4511,7 +4566,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="41">
         <v>0.37</v>
       </c>
@@ -4533,7 +4588,7 @@
       <c r="H19" s="10">
         <v>3.4893820447861899E-2</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="41">
         <v>0.12</v>
       </c>
@@ -4555,7 +4610,7 @@
       <c r="Q19" s="5">
         <v>0.19006605256154599</v>
       </c>
-      <c r="S19" s="65"/>
+      <c r="S19" s="61"/>
       <c r="T19" s="41">
         <v>0.09</v>
       </c>
@@ -4579,7 +4634,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="3" t="s">
@@ -4597,7 +4652,7 @@
       <c r="H20" s="5">
         <v>0.58894272291956795</v>
       </c>
-      <c r="J20" s="65"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="3" t="s">
@@ -4615,7 +4670,7 @@
       <c r="Q20" s="5">
         <v>0.45770082770904802</v>
       </c>
-      <c r="S20" s="65"/>
+      <c r="S20" s="61"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
       <c r="V20" s="3" t="s">
@@ -4635,7 +4690,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="6" t="s">
@@ -4653,7 +4708,7 @@
       <c r="H21" s="8">
         <v>8.1306385386086505E-2</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="6" t="s">
@@ -4671,7 +4726,7 @@
       <c r="Q21" s="8">
         <v>0.17256483293313099</v>
       </c>
-      <c r="S21" s="66"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="6" t="s">
@@ -4691,7 +4746,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="43"/>
@@ -4711,7 +4766,7 @@
       <c r="H22" s="26">
         <v>0.156590362282719</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="63" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="43"/>
@@ -4731,7 +4786,7 @@
       <c r="Q22" s="26">
         <v>0.69885942821946401</v>
       </c>
-      <c r="S22" s="61" t="s">
+      <c r="S22" s="63" t="s">
         <v>24</v>
       </c>
       <c r="T22" s="43"/>
@@ -4753,7 +4808,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="13" t="s">
@@ -4771,7 +4826,7 @@
       <c r="H23" s="15">
         <v>0.904389521648304</v>
       </c>
-      <c r="J23" s="62"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="13" t="s">
@@ -4789,7 +4844,7 @@
       <c r="Q23" s="15">
         <v>0.62584133799445296</v>
       </c>
-      <c r="S23" s="62"/>
+      <c r="S23" s="64"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="13" t="s">
@@ -4809,7 +4864,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="44">
         <v>0.1</v>
       </c>
@@ -4831,7 +4886,7 @@
       <c r="H24" s="15">
         <v>0.30569527576697603</v>
       </c>
-      <c r="J24" s="62"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="44">
         <v>0.08</v>
       </c>
@@ -4853,7 +4908,7 @@
       <c r="Q24" s="15">
         <v>0.56359297147337195</v>
       </c>
-      <c r="S24" s="62"/>
+      <c r="S24" s="64"/>
       <c r="T24" s="44">
         <v>0.1</v>
       </c>
@@ -4877,7 +4932,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="13" t="s">
@@ -4895,7 +4950,7 @@
       <c r="H25" s="15">
         <v>0.68583510960772898</v>
       </c>
-      <c r="J25" s="62"/>
+      <c r="J25" s="64"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="13" t="s">
@@ -4913,7 +4968,7 @@
       <c r="Q25" s="15">
         <v>0.70588105337253604</v>
       </c>
-      <c r="S25" s="62"/>
+      <c r="S25" s="64"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="13" t="s">
@@ -4933,7 +4988,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="16" t="s">
@@ -4951,7 +5006,7 @@
       <c r="H26" s="20">
         <v>0.41122866769062399</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="16" t="s">
@@ -4969,7 +5024,7 @@
       <c r="Q26" s="20">
         <v>0.24845922044221999</v>
       </c>
-      <c r="S26" s="63"/>
+      <c r="S26" s="65"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="16" t="s">
@@ -4989,7 +5044,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="40"/>
@@ -5009,7 +5064,7 @@
       <c r="H27" s="28">
         <v>1.02956589885583E-2</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="60" t="s">
         <v>19</v>
       </c>
       <c r="K27" s="40"/>
@@ -5029,7 +5084,7 @@
       <c r="Q27" s="27">
         <v>0.91086414946984995</v>
       </c>
-      <c r="S27" s="64" t="s">
+      <c r="S27" s="60" t="s">
         <v>25</v>
       </c>
       <c r="T27" s="40"/>
@@ -5051,7 +5106,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
@@ -5069,7 +5124,7 @@
       <c r="H28" s="10">
         <v>4.8954711894798199E-2</v>
       </c>
-      <c r="J28" s="65"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
       <c r="M28" s="3" t="s">
@@ -5087,7 +5142,7 @@
       <c r="Q28" s="5">
         <v>0.95282317254778404</v>
       </c>
-      <c r="S28" s="65"/>
+      <c r="S28" s="61"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
       <c r="V28" s="3" t="s">
@@ -5107,7 +5162,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="41">
         <v>0.54</v>
       </c>
@@ -5129,7 +5184,7 @@
       <c r="H29" s="5">
         <v>0.60274047594928004</v>
       </c>
-      <c r="J29" s="65"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="41">
         <v>0.68</v>
       </c>
@@ -5151,7 +5206,7 @@
       <c r="Q29" s="5">
         <v>0.72885199050288396</v>
       </c>
-      <c r="S29" s="65"/>
+      <c r="S29" s="61"/>
       <c r="T29" s="41">
         <v>0.05</v>
       </c>
@@ -5175,7 +5230,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="3" t="s">
@@ -5193,7 +5248,7 @@
       <c r="H30" s="5">
         <v>0.100097196819914</v>
       </c>
-      <c r="J30" s="65"/>
+      <c r="J30" s="61"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="3" t="s">
@@ -5211,7 +5266,7 @@
       <c r="Q30" s="5">
         <v>0.45481679394520702</v>
       </c>
-      <c r="S30" s="65"/>
+      <c r="S30" s="61"/>
       <c r="T30" s="41"/>
       <c r="U30" s="41"/>
       <c r="V30" s="3" t="s">
@@ -5231,7 +5286,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
@@ -5249,7 +5304,7 @@
       <c r="H31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="66"/>
+      <c r="J31" s="62"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="6" t="s">
@@ -5267,7 +5322,7 @@
       <c r="Q31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="66"/>
+      <c r="S31" s="62"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="6" t="s">
@@ -5288,12 +5343,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="S27:S31"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="J7:J11"/>
@@ -5306,6 +5355,12 @@
     <mergeCell ref="S12:S16"/>
     <mergeCell ref="S17:S21"/>
     <mergeCell ref="S22:S26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5316,7 +5371,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,10 +5395,10 @@
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5366,7 +5421,7 @@
       <c r="G2" s="14">
         <v>0.43</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="59">
         <v>0.76</v>
       </c>
     </row>
@@ -5464,7 +5519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA57C79B-597D-4C75-A549-1798BCB1BB79}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5489,10 +5544,10 @@
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5512,10 +5567,10 @@
       <c r="E2" s="22">
         <v>2.7687839999999998E-2</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="59">
         <v>0.27</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="59">
         <v>0.82</v>
       </c>
     </row>
@@ -5607,4 +5662,303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D9F11B-EFAD-4DF3-B541-EC1B3775B03E}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="66">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="67">
+        <v>-0.69682290000000002</v>
+      </c>
+      <c r="F2" s="68">
+        <v>0.26659928999999999</v>
+      </c>
+      <c r="G2" s="68">
+        <v>-2.6137459999999999</v>
+      </c>
+      <c r="H2" s="69">
+        <v>8.9555539999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="71">
+        <v>-0.8702917</v>
+      </c>
+      <c r="F3" s="72">
+        <v>0.26659928999999999</v>
+      </c>
+      <c r="G3" s="72">
+        <v>-3.2644190000000002</v>
+      </c>
+      <c r="H3" s="73">
+        <v>1.0968900000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="75">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="75">
+        <v>0.42</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="76">
+        <v>0.39358779999999999</v>
+      </c>
+      <c r="F4" s="76">
+        <v>0.25136041999999997</v>
+      </c>
+      <c r="G4" s="76">
+        <v>1.5658300000000001</v>
+      </c>
+      <c r="H4" s="77">
+        <v>0.1173884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="85">
+        <v>-1.0091218</v>
+      </c>
+      <c r="F5" s="79">
+        <v>0.25136041999999997</v>
+      </c>
+      <c r="G5" s="79">
+        <v>-4.0146410000000001</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="66">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="67">
+        <v>4.4245760000000001</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.53118730000000003</v>
+      </c>
+      <c r="G6" s="68">
+        <v>8.3295960000000004</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="71">
+        <v>-1.7969949999999999</v>
+      </c>
+      <c r="F7" s="72">
+        <v>0.53118730000000003</v>
+      </c>
+      <c r="G7" s="72">
+        <v>-3.382978</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="75">
+        <v>0.03</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="76">
+        <v>-0.37195499999999998</v>
+      </c>
+      <c r="F8" s="76">
+        <v>0.23623229000000001</v>
+      </c>
+      <c r="G8" s="76">
+        <v>-1.5745309999999999</v>
+      </c>
+      <c r="H8" s="77">
+        <v>0.1153648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="83"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="85">
+        <v>-1.0671889999999999</v>
+      </c>
+      <c r="F9" s="79">
+        <v>0.23623229000000001</v>
+      </c>
+      <c r="G9" s="79">
+        <v>-4.5175390000000002</v>
+      </c>
+      <c r="H9" s="84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="66">
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="68">
+        <v>-0.1822646</v>
+      </c>
+      <c r="F10" s="68">
+        <v>0.28269546000000001</v>
+      </c>
+      <c r="G10" s="68">
+        <v>-0.64473840000000004</v>
+      </c>
+      <c r="H10" s="74">
+        <v>0.51909673099999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="71">
+        <v>-0.7442782</v>
+      </c>
+      <c r="F11" s="72">
+        <v>0.28269546000000001</v>
+      </c>
+      <c r="G11" s="72">
+        <v>-2.6327913999999999</v>
+      </c>
+      <c r="H11" s="73">
+        <v>8.4686339999999992E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/outputs/SupplementalTables.xlsx
+++ b/outputs/SupplementalTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwel\OneDrive\Desktop\AppraisingGrazing\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9E7B5-6069-4405-BEFA-8BFAF5DA6282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332137AB-E140-480A-BE66-7525C6A350B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="5" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="6" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteDescriptions" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BiomassTRT" sheetId="3" r:id="rId4"/>
     <sheet name="BiomassGradient" sheetId="4" r:id="rId5"/>
     <sheet name="BiomassPerTRT" sheetId="7" r:id="rId6"/>
+    <sheet name="NutrientsPerTRT" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,18 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="130">
   <si>
     <t>bison</t>
   </si>
   <si>
     <t>cattle</t>
-  </si>
-  <si>
-    <t>trt pd</t>
-  </si>
-  <si>
-    <t>untrt pd</t>
   </si>
   <si>
     <t>Model</t>
@@ -346,6 +341,123 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>bison C</t>
+  </si>
+  <si>
+    <t>cattle C</t>
+  </si>
+  <si>
+    <t>trt prairie dog C</t>
+  </si>
+  <si>
+    <t>ungrazed C</t>
+  </si>
+  <si>
+    <t>untrt prairie dog C</t>
+  </si>
+  <si>
+    <t>bison N</t>
+  </si>
+  <si>
+    <t>cattle N</t>
+  </si>
+  <si>
+    <t>trt prairie dog N</t>
+  </si>
+  <si>
+    <t>ungrazed N</t>
+  </si>
+  <si>
+    <t>untrt prairie dog N</t>
+  </si>
+  <si>
+    <t>bison P</t>
+  </si>
+  <si>
+    <t>cattle P</t>
+  </si>
+  <si>
+    <t>trt prairie dog P</t>
+  </si>
+  <si>
+    <t>ungrazed P</t>
+  </si>
+  <si>
+    <t>untrt prairie dog P</t>
+  </si>
+  <si>
+    <t>bison K</t>
+  </si>
+  <si>
+    <t>cattle K</t>
+  </si>
+  <si>
+    <t>trt prairie dog K</t>
+  </si>
+  <si>
+    <t>ungrazed K</t>
+  </si>
+  <si>
+    <t>untrt prairie dog K</t>
+  </si>
+  <si>
+    <t>bison Mg</t>
+  </si>
+  <si>
+    <t>cattle Mg</t>
+  </si>
+  <si>
+    <t>trt prairie dog Mg</t>
+  </si>
+  <si>
+    <t>ungrazed Mg</t>
+  </si>
+  <si>
+    <t>untrt prairie dog Mg</t>
+  </si>
+  <si>
+    <t>bison Na</t>
+  </si>
+  <si>
+    <t>cattle Na</t>
+  </si>
+  <si>
+    <t>trt prairie dog Na</t>
+  </si>
+  <si>
+    <t>ungrazed Na</t>
+  </si>
+  <si>
+    <t>untrt prairie dog Na</t>
+  </si>
+  <si>
+    <t>bison Si</t>
+  </si>
+  <si>
+    <t>cattle Si</t>
+  </si>
+  <si>
+    <t>trt prairie dog Si</t>
+  </si>
+  <si>
+    <t>ungrazed Si</t>
+  </si>
+  <si>
+    <t>untrt prairie dog Si</t>
+  </si>
+  <si>
+    <t>Grass Models</t>
+  </si>
+  <si>
+    <t>Forb Models</t>
+  </si>
+  <si>
+    <t>Soil Models</t>
+  </si>
+  <si>
+    <t>Month Est.</t>
   </si>
 </sst>
 </file>
@@ -481,7 +593,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,6 +762,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,62 +819,99 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1074,42 +1259,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="D1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="53">
         <v>47.777996999999999</v>
@@ -1127,18 +1312,18 @@
         <v>0</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="53">
         <v>47.977333000000002</v>
@@ -1156,18 +1341,18 @@
         <v>0</v>
       </c>
       <c r="I3" s="53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="53">
         <v>47.897232000000002</v>
@@ -1185,18 +1370,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="50">
         <v>47.754890000000003</v>
@@ -1214,18 +1399,18 @@
         <v>0</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="50">
         <v>47.910995999999997</v>
@@ -1243,18 +1428,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="50">
         <v>47.811923999999998</v>
@@ -1272,18 +1457,18 @@
         <v>0</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="53">
         <v>47.711489</v>
@@ -1301,18 +1486,18 @@
         <v>0</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="53">
         <v>47.697944999999997</v>
@@ -1330,18 +1515,18 @@
         <v>0</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="53">
         <v>48.391666999999998</v>
@@ -1359,18 +1544,18 @@
         <v>0</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="50">
         <v>47.781408999999996</v>
@@ -1385,21 +1570,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="50">
         <v>47.764141000000002</v>
@@ -1414,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="50">
         <v>47.734526000000002</v>
@@ -1443,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="53">
         <v>47.982081999999998</v>
@@ -1472,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="53">
         <v>47.893331000000003</v>
@@ -1501,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="57">
         <v>47.870778000000001</v>
@@ -1530,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1731,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M5"/>
+      <selection activeCell="K1" sqref="K1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,81 +1751,81 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="J1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -1659,8 +1844,8 @@
       <c r="H2" s="15">
         <v>0.75643309065928399</v>
       </c>
-      <c r="J2" s="63" t="s">
-        <v>14</v>
+      <c r="J2" s="75" t="s">
+        <v>12</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
@@ -1679,8 +1864,8 @@
       <c r="Q2" s="15">
         <v>0.78445569199090504</v>
       </c>
-      <c r="S2" s="63" t="s">
-        <v>20</v>
+      <c r="S2" s="75" t="s">
+        <v>18</v>
       </c>
       <c r="T2" s="44"/>
       <c r="U2" s="44"/>
@@ -1701,7 +1886,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="13" t="s">
@@ -1719,7 +1904,7 @@
       <c r="H3" s="15">
         <v>0.85620580622572096</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="13" t="s">
@@ -1737,7 +1922,7 @@
       <c r="Q3" s="15">
         <v>0.111358770556964</v>
       </c>
-      <c r="S3" s="64"/>
+      <c r="S3" s="76"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="13" t="s">
@@ -1757,7 +1942,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="44">
         <v>0.59</v>
       </c>
@@ -1765,7 +1950,7 @@
         <v>0.87</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="14">
         <v>0.159032055911285</v>
@@ -1779,7 +1964,7 @@
       <c r="H4" s="15">
         <v>0.198730750798048</v>
       </c>
-      <c r="J4" s="64"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="44">
         <v>0.41</v>
       </c>
@@ -1787,7 +1972,7 @@
         <v>0.83</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" s="14">
         <v>7.4413004066024496E-2</v>
@@ -1801,7 +1986,7 @@
       <c r="Q4" s="15">
         <v>0.54152757122083806</v>
       </c>
-      <c r="S4" s="64"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="44">
         <v>0.21</v>
       </c>
@@ -1809,7 +1994,7 @@
         <v>0.84</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W4" s="14">
         <v>-6.9025691318559304E-2</v>
@@ -1825,11 +2010,11 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="21">
         <v>0.18415790799878701</v>
@@ -1843,11 +2028,11 @@
       <c r="H5" s="22">
         <v>2.0426214511249902E-2</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N5" s="14">
         <v>-6.6481368870013893E-2</v>
@@ -1861,11 +2046,11 @@
       <c r="Q5" s="15">
         <v>0.58620851191461298</v>
       </c>
-      <c r="S5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W5" s="14">
         <v>0.22361294007199101</v>
@@ -1881,11 +2066,11 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="17">
         <v>-8.7747694889480102E-2</v>
@@ -1897,13 +2082,13 @@
         <v>-9.5815255826438399</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="65"/>
+        <v>33</v>
+      </c>
+      <c r="J6" s="77"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="17">
         <v>-6.6765536797300004E-2</v>
@@ -1915,13 +2100,13 @@
         <v>-6.2447025501132796</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="65"/>
+        <v>33</v>
+      </c>
+      <c r="S6" s="77"/>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W6" s="18">
         <v>-9.5298116621168293E-3</v>
@@ -1937,8 +2122,8 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
-        <v>9</v>
+      <c r="A7" s="72" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -1957,8 +2142,8 @@
       <c r="H7" s="5">
         <v>0.45450659664544801</v>
       </c>
-      <c r="J7" s="60" t="s">
-        <v>15</v>
+      <c r="J7" s="72" t="s">
+        <v>13</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
@@ -1977,8 +2162,8 @@
       <c r="Q7" s="5">
         <v>0.96017688602466</v>
       </c>
-      <c r="S7" s="60" t="s">
-        <v>21</v>
+      <c r="S7" s="72" t="s">
+        <v>19</v>
       </c>
       <c r="T7" s="41"/>
       <c r="U7" s="41"/>
@@ -1999,7 +2184,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
@@ -2017,7 +2202,7 @@
       <c r="H8" s="5">
         <v>0.53062471950727597</v>
       </c>
-      <c r="J8" s="61"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="3" t="s">
@@ -2035,7 +2220,7 @@
       <c r="Q8" s="5">
         <v>0.49430589283329901</v>
       </c>
-      <c r="S8" s="61"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="3" t="s">
@@ -2055,7 +2240,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="41">
         <v>0.23</v>
       </c>
@@ -2063,7 +2248,7 @@
         <v>0.77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4">
         <v>-2.8708412241880199E-2</v>
@@ -2077,7 +2262,7 @@
       <c r="H9" s="5">
         <v>0.85845654845826103</v>
       </c>
-      <c r="J9" s="61"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="41">
         <v>0.32</v>
       </c>
@@ -2085,7 +2270,7 @@
         <v>0.53</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N9" s="4">
         <v>0.139465771423957</v>
@@ -2099,7 +2284,7 @@
       <c r="Q9" s="5">
         <v>0.12333957548581399</v>
       </c>
-      <c r="S9" s="61"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="41">
         <v>0.21</v>
       </c>
@@ -2107,7 +2292,7 @@
         <v>0.87</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W9" s="4">
         <v>-3.3435314359381997E-2</v>
@@ -2123,11 +2308,11 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>4.1903738466794099E-2</v>
@@ -2141,11 +2326,11 @@
       <c r="H10" s="5">
         <v>0.68725480675239803</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N10" s="4">
         <v>-5.2519544230058099E-2</v>
@@ -2159,11 +2344,11 @@
       <c r="Q10" s="5">
         <v>0.56468785934212196</v>
       </c>
-      <c r="S10" s="61"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W10" s="4">
         <v>0.20305867078680301</v>
@@ -2179,11 +2364,11 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="11">
         <v>-6.7484314277625898E-2</v>
@@ -2195,13 +2380,13 @@
         <v>-5.8682719410076301</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="J11" s="74"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="11">
         <v>-5.43070340427294E-2</v>
@@ -2215,11 +2400,11 @@
       <c r="Q11" s="12">
         <v>5.6703110896494401E-4</v>
       </c>
-      <c r="S11" s="62"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W11" s="7">
         <v>-8.9718823059076799E-3</v>
@@ -2236,8 +2421,8 @@
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>10</v>
+      <c r="A12" s="75" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -2256,8 +2441,8 @@
       <c r="H12" s="15">
         <v>0.70634877764113901</v>
       </c>
-      <c r="J12" s="63" t="s">
-        <v>16</v>
+      <c r="J12" s="75" t="s">
+        <v>14</v>
       </c>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
@@ -2276,8 +2461,8 @@
       <c r="Q12" s="15">
         <v>0.96903819673954605</v>
       </c>
-      <c r="S12" s="63" t="s">
-        <v>22</v>
+      <c r="S12" s="75" t="s">
+        <v>20</v>
       </c>
       <c r="T12" s="44"/>
       <c r="U12" s="44"/>
@@ -2298,7 +2483,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
@@ -2316,7 +2501,7 @@
       <c r="H13" s="15">
         <v>0.98064258715030805</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="13" t="s">
@@ -2334,7 +2519,7 @@
       <c r="Q13" s="15">
         <v>0.204959108693586</v>
       </c>
-      <c r="S13" s="64"/>
+      <c r="S13" s="76"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="13" t="s">
@@ -2354,7 +2539,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="44">
         <v>0.36</v>
       </c>
@@ -2362,7 +2547,7 @@
         <v>0.77</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="14">
         <v>0.13025206398846501</v>
@@ -2376,7 +2561,7 @@
       <c r="H14" s="15">
         <v>0.46443467686441597</v>
       </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="44">
         <v>0.33</v>
       </c>
@@ -2384,7 +2569,7 @@
         <v>0.62</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N14" s="14">
         <v>0.15424298905387801</v>
@@ -2398,7 +2583,7 @@
       <c r="Q14" s="15">
         <v>0.28711644693738703</v>
       </c>
-      <c r="S14" s="64"/>
+      <c r="S14" s="76"/>
       <c r="T14" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2406,7 +2591,7 @@
         <v>0.23</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W14" s="14">
         <v>-7.3413121855626595E-2</v>
@@ -2422,11 +2607,11 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="14">
         <v>0.151594351904803</v>
@@ -2440,11 +2625,11 @@
       <c r="H15" s="15">
         <v>0.17886255886840399</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N15" s="14">
         <v>-0.112583581750355</v>
@@ -2458,11 +2643,11 @@
       <c r="Q15" s="15">
         <v>0.43957422325523998</v>
       </c>
-      <c r="S15" s="64"/>
+      <c r="S15" s="76"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W15" s="14">
         <v>5.0931924485710697E-2</v>
@@ -2478,11 +2663,11 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="17">
         <v>-7.3407957417090303E-2</v>
@@ -2494,13 +2679,13 @@
         <v>-5.2576902199703301</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="65"/>
+        <v>33</v>
+      </c>
+      <c r="J16" s="77"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
       <c r="M16" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16" s="17">
         <v>-6.8586244097887397E-2</v>
@@ -2514,11 +2699,11 @@
       <c r="Q16" s="19">
         <v>9.5878767935397803E-4</v>
       </c>
-      <c r="S16" s="65"/>
+      <c r="S16" s="77"/>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W16" s="18">
         <v>6.2220215512979703E-3</v>
@@ -2535,8 +2720,8 @@
       <c r="AF16" s="35"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
-        <v>11</v>
+      <c r="A17" s="72" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -2555,8 +2740,8 @@
       <c r="H17" s="10">
         <v>4.2440815812778497E-2</v>
       </c>
-      <c r="J17" s="60" t="s">
-        <v>17</v>
+      <c r="J17" s="72" t="s">
+        <v>15</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
@@ -2575,8 +2760,8 @@
       <c r="Q17" s="5">
         <v>0.50381674695789302</v>
       </c>
-      <c r="S17" s="60" t="s">
-        <v>23</v>
+      <c r="S17" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="41"/>
@@ -2597,7 +2782,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="3" t="s">
@@ -2613,9 +2798,9 @@
         <v>3.6494957713699501</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="61"/>
+        <v>33</v>
+      </c>
+      <c r="J18" s="73"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="3" t="s">
@@ -2633,7 +2818,7 @@
       <c r="Q18" s="5">
         <v>0.264487950777611</v>
       </c>
-      <c r="S18" s="61"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="3" t="s">
@@ -2653,7 +2838,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="41">
         <v>0.31</v>
       </c>
@@ -2661,7 +2846,7 @@
         <v>0.31</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="4">
         <v>0.20966262436679001</v>
@@ -2675,7 +2860,7 @@
       <c r="H19" s="5">
         <v>9.6818088993625706E-2</v>
       </c>
-      <c r="J19" s="61"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="41">
         <v>0.26</v>
       </c>
@@ -2683,7 +2868,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N19" s="4">
         <v>0.130014736351487</v>
@@ -2697,7 +2882,7 @@
       <c r="Q19" s="5">
         <v>0.37610715062244399</v>
       </c>
-      <c r="S19" s="61"/>
+      <c r="S19" s="73"/>
       <c r="T19" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2705,7 +2890,7 @@
         <v>0.19</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W19" s="4">
         <v>4.3262500082116399E-2</v>
@@ -2721,11 +2906,11 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="9">
         <v>0.188259260724114</v>
@@ -2739,11 +2924,11 @@
       <c r="H20" s="10">
         <v>6.5707623725130805E-4</v>
       </c>
-      <c r="J20" s="61"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N20" s="4">
         <v>-0.173864646255073</v>
@@ -2757,11 +2942,11 @@
       <c r="Q20" s="5">
         <v>0.239285481771352</v>
       </c>
-      <c r="S20" s="61"/>
+      <c r="S20" s="73"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
       <c r="V20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W20" s="4">
         <v>1.23831039224699E-2</v>
@@ -2777,11 +2962,11 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="11">
         <v>3.2734291689714701E-2</v>
@@ -2795,11 +2980,11 @@
       <c r="H21" s="12">
         <v>5.7643528578590598E-2</v>
       </c>
-      <c r="J21" s="62"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N21" s="7">
         <v>-2.9153947682128499E-2</v>
@@ -2813,11 +2998,11 @@
       <c r="Q21" s="8">
         <v>0.18897297602503599</v>
       </c>
-      <c r="S21" s="62"/>
+      <c r="S21" s="74"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W21" s="7">
         <v>2.0458838914721101E-2</v>
@@ -2833,8 +3018,8 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
-        <v>12</v>
+      <c r="A22" s="75" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -2853,8 +3038,8 @@
       <c r="H22" s="15">
         <v>5.8951439115694199E-2</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>18</v>
+      <c r="J22" s="75" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
@@ -2873,8 +3058,8 @@
       <c r="Q22" s="15">
         <v>0.85580186913876699</v>
       </c>
-      <c r="S22" s="63" t="s">
-        <v>24</v>
+      <c r="S22" s="75" t="s">
+        <v>22</v>
       </c>
       <c r="T22" s="44"/>
       <c r="U22" s="44"/>
@@ -2895,7 +3080,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="13" t="s">
@@ -2913,7 +3098,7 @@
       <c r="H23" s="15">
         <v>0.898896282859034</v>
       </c>
-      <c r="J23" s="64"/>
+      <c r="J23" s="76"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="13" t="s">
@@ -2931,7 +3116,7 @@
       <c r="Q23" s="15">
         <v>0.53963880509304496</v>
       </c>
-      <c r="S23" s="64"/>
+      <c r="S23" s="76"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="13" t="s">
@@ -2951,7 +3136,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="44">
         <v>0.13</v>
       </c>
@@ -2959,7 +3144,7 @@
         <v>0.15</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" s="14">
         <v>-2.0287627788087501E-2</v>
@@ -2973,7 +3158,7 @@
       <c r="H24" s="15">
         <v>0.56247855473640496</v>
       </c>
-      <c r="J24" s="64"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="44">
         <v>0.27</v>
       </c>
@@ -2981,7 +3166,7 @@
         <v>0.73</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N24" s="14">
         <v>0.17123462561726999</v>
@@ -2995,7 +3180,7 @@
       <c r="Q24" s="15">
         <v>0.19620110579128799</v>
       </c>
-      <c r="S24" s="64"/>
+      <c r="S24" s="76"/>
       <c r="T24" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3003,7 +3188,7 @@
         <v>0.32</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W24" s="14">
         <v>-3.4621949006031501E-2</v>
@@ -3019,11 +3204,11 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="14">
         <v>7.6737046759900798E-4</v>
@@ -3037,11 +3222,11 @@
       <c r="H25" s="15">
         <v>0.96061530261722605</v>
       </c>
-      <c r="J25" s="64"/>
+      <c r="J25" s="76"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N25" s="14">
         <v>-7.4072335744296502E-2</v>
@@ -3055,11 +3240,11 @@
       <c r="Q25" s="15">
         <v>0.57714986420537495</v>
       </c>
-      <c r="S25" s="64"/>
+      <c r="S25" s="76"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W25" s="14">
         <v>-2.7152562524621102E-2</v>
@@ -3075,11 +3260,11 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="18">
         <v>4.6442352245735204E-3</v>
@@ -3093,11 +3278,11 @@
       <c r="H26" s="20">
         <v>0.32774660012482898</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N26" s="18">
         <v>1.69657092540632E-2</v>
@@ -3111,11 +3296,11 @@
       <c r="Q26" s="20">
         <v>0.21330625309083201</v>
       </c>
-      <c r="S26" s="65"/>
+      <c r="S26" s="77"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W26" s="18">
         <v>1.40304811636284E-2</v>
@@ -3131,8 +3316,8 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
-        <v>13</v>
+      <c r="A27" s="72" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3151,8 +3336,8 @@
       <c r="H27" s="10">
         <v>4.0137352839097598E-2</v>
       </c>
-      <c r="J27" s="60" t="s">
-        <v>19</v>
+      <c r="J27" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
@@ -3171,8 +3356,8 @@
       <c r="Q27" s="5">
         <v>0.65952820034885495</v>
       </c>
-      <c r="S27" s="60" t="s">
-        <v>25</v>
+      <c r="S27" s="72" t="s">
+        <v>23</v>
       </c>
       <c r="T27" s="41"/>
       <c r="U27" s="41"/>
@@ -3193,7 +3378,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
@@ -3211,7 +3396,7 @@
       <c r="H28" s="10">
         <v>3.5068868917491801E-2</v>
       </c>
-      <c r="J28" s="61"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
       <c r="M28" s="3" t="s">
@@ -3229,7 +3414,7 @@
       <c r="Q28" s="5">
         <v>0.94359388051558002</v>
       </c>
-      <c r="S28" s="61"/>
+      <c r="S28" s="73"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
       <c r="V28" s="3" t="s">
@@ -3249,7 +3434,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="41">
         <v>0.71</v>
       </c>
@@ -3257,7 +3442,7 @@
         <v>0.71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="9">
         <v>-2.1971540300833299</v>
@@ -3269,9 +3454,9 @@
         <v>-5.9127740902513004</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="61"/>
+        <v>33</v>
+      </c>
+      <c r="J29" s="73"/>
       <c r="K29" s="41">
         <v>0.68</v>
       </c>
@@ -3279,7 +3464,7 @@
         <v>0.68</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N29" s="4">
         <v>6.9034696747322802E-3</v>
@@ -3293,7 +3478,7 @@
       <c r="Q29" s="5">
         <v>0.96316540129969996</v>
       </c>
-      <c r="S29" s="61"/>
+      <c r="S29" s="73"/>
       <c r="T29" s="41">
         <v>0.05</v>
       </c>
@@ -3301,7 +3486,7 @@
         <v>0.1</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W29" s="4">
         <v>-3.0835806718048999E-2</v>
@@ -3318,11 +3503,11 @@
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E30" s="4">
         <v>-0.28697817444130902</v>
@@ -3336,11 +3521,11 @@
       <c r="H30" s="5">
         <v>7.7615500578327001E-2</v>
       </c>
-      <c r="J30" s="61"/>
+      <c r="J30" s="73"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N30" s="4">
         <v>3.1578767898616703E-2</v>
@@ -3354,11 +3539,11 @@
       <c r="Q30" s="5">
         <v>0.83562337156051503</v>
       </c>
-      <c r="S30" s="61"/>
+      <c r="S30" s="73"/>
       <c r="T30" s="41"/>
       <c r="U30" s="41"/>
       <c r="V30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W30" s="4">
         <v>-9.7618137283647405E-2</v>
@@ -3374,11 +3559,11 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" s="62"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" s="11">
         <v>0.34580689267075498</v>
@@ -3390,13 +3575,13 @@
         <v>6.8145404868229704</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="J31" s="74"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N31" s="11">
         <v>0.41514859526629699</v>
@@ -3408,13 +3593,13 @@
         <v>9.8411576113069597</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S31" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="S31" s="74"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W31" s="7">
         <v>3.95277080845578E-2</v>
@@ -3435,6 +3620,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="S27:S31"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="J7:J11"/>
@@ -3447,12 +3638,6 @@
     <mergeCell ref="S12:S16"/>
     <mergeCell ref="S17:S21"/>
     <mergeCell ref="S22:S26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3481,81 +3666,81 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="J1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -3574,8 +3759,8 @@
       <c r="H2" s="26">
         <v>0.232594480943555</v>
       </c>
-      <c r="J2" s="63" t="s">
-        <v>14</v>
+      <c r="J2" s="75" t="s">
+        <v>12</v>
       </c>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
@@ -3594,8 +3779,8 @@
       <c r="Q2" s="26">
         <v>0.58051575449478299</v>
       </c>
-      <c r="S2" s="63" t="s">
-        <v>20</v>
+      <c r="S2" s="75" t="s">
+        <v>18</v>
       </c>
       <c r="T2" s="43"/>
       <c r="U2" s="43"/>
@@ -3616,7 +3801,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="13" t="s">
@@ -3634,7 +3819,7 @@
       <c r="H3" s="15">
         <v>0.72085458380743095</v>
       </c>
-      <c r="J3" s="64"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="13" t="s">
@@ -3652,7 +3837,7 @@
       <c r="Q3" s="15">
         <v>0.22034570029552</v>
       </c>
-      <c r="S3" s="64"/>
+      <c r="S3" s="76"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="13" t="s">
@@ -3672,7 +3857,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="44">
         <v>0.7</v>
       </c>
@@ -3680,7 +3865,7 @@
         <v>0.86</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="21">
         <v>6.7096149640972699E-2</v>
@@ -3694,7 +3879,7 @@
       <c r="H4" s="22">
         <v>1.62257649215358E-3</v>
       </c>
-      <c r="J4" s="64"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="44">
         <v>0.41</v>
       </c>
@@ -3702,7 +3887,7 @@
         <v>0.81</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="14">
         <v>2.5783403385694799E-2</v>
@@ -3716,7 +3901,7 @@
       <c r="Q4" s="15">
         <v>0.45992161771271001</v>
       </c>
-      <c r="S4" s="64"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="44">
         <v>0.44</v>
       </c>
@@ -3724,7 +3909,7 @@
         <v>0.79</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W4" s="21">
         <v>0.14681249840178701</v>
@@ -3736,15 +3921,15 @@
         <v>3.64746046346065</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="14">
         <v>1.4288476527605401E-3</v>
@@ -3758,11 +3943,11 @@
       <c r="H5" s="15">
         <v>0.90736653483351304</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N5" s="14">
         <v>-1.03086205412931E-2</v>
@@ -3776,11 +3961,11 @@
       <c r="Q5" s="15">
         <v>0.49155219186801202</v>
       </c>
-      <c r="S5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W5" s="14">
         <v>2.41461458015871E-3</v>
@@ -3796,11 +3981,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="17">
         <v>-0.10010386455376399</v>
@@ -3812,13 +3997,13 @@
         <v>-9.8969405779071504</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="65"/>
+        <v>33</v>
+      </c>
+      <c r="J6" s="77"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="18">
         <v>-7.5837198312734694E-2</v>
@@ -3830,13 +4015,13 @@
         <v>-6.0976668753338297</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="65"/>
+        <v>33</v>
+      </c>
+      <c r="S6" s="77"/>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W6" s="18">
         <v>-5.2453630890476003E-3</v>
@@ -3852,8 +4037,8 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
-        <v>9</v>
+      <c r="A7" s="72" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -3872,8 +4057,8 @@
       <c r="H7" s="27">
         <v>0.552259009406043</v>
       </c>
-      <c r="J7" s="60" t="s">
-        <v>15</v>
+      <c r="J7" s="72" t="s">
+        <v>13</v>
       </c>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
@@ -3892,8 +4077,8 @@
       <c r="Q7" s="27">
         <v>0.32181313500870801</v>
       </c>
-      <c r="S7" s="60" t="s">
-        <v>21</v>
+      <c r="S7" s="72" t="s">
+        <v>19</v>
       </c>
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
@@ -3914,7 +4099,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
@@ -3932,7 +4117,7 @@
       <c r="H8" s="5">
         <v>0.32335190904313799</v>
       </c>
-      <c r="J8" s="61"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="3" t="s">
@@ -3950,7 +4135,7 @@
       <c r="Q8" s="5">
         <v>0.85330548504150305</v>
       </c>
-      <c r="S8" s="61"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="3" t="s">
@@ -3970,7 +4155,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="41">
         <v>0.39</v>
       </c>
@@ -3978,7 +4163,7 @@
         <v>0.75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4">
         <v>4.5395826857868998E-2</v>
@@ -3992,7 +4177,7 @@
       <c r="H9" s="5">
         <v>0.124419258908589</v>
       </c>
-      <c r="J9" s="61"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="41">
         <v>0.2</v>
       </c>
@@ -4000,7 +4185,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N9" s="4">
         <v>-2.63065707216701E-2</v>
@@ -4014,7 +4199,7 @@
       <c r="Q9" s="5">
         <v>0.46405023322165001</v>
       </c>
-      <c r="S9" s="61"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="41">
         <v>0.46</v>
       </c>
@@ -4022,7 +4207,7 @@
         <v>0.82</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W9" s="9">
         <v>0.126690293387412</v>
@@ -4038,11 +4223,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4">
         <v>7.2249030087614798E-3</v>
@@ -4056,11 +4241,11 @@
       <c r="H10" s="5">
         <v>0.65137158175371701</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10" s="4">
         <v>-8.1229249363161202E-3</v>
@@ -4074,11 +4259,11 @@
       <c r="Q10" s="5">
         <v>0.69125847064969603</v>
       </c>
-      <c r="S10" s="61"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W10" s="4">
         <v>-1.60145547840671E-3</v>
@@ -4094,11 +4279,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="11">
         <v>-7.3409020911542194E-2</v>
@@ -4110,13 +4295,13 @@
         <v>-5.6591546156002099</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="J11" s="74"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="7">
         <v>-6.09052259235792E-2</v>
@@ -4130,11 +4315,11 @@
       <c r="Q11" s="12">
         <v>5.7849128320341904E-4</v>
       </c>
-      <c r="S11" s="62"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W11" s="7">
         <v>-5.5667899239266799E-3</v>
@@ -4150,8 +4335,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>10</v>
+      <c r="A12" s="75" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
@@ -4170,8 +4355,8 @@
       <c r="H12" s="26">
         <v>0.80183396861683798</v>
       </c>
-      <c r="J12" s="63" t="s">
-        <v>16</v>
+      <c r="J12" s="75" t="s">
+        <v>14</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
@@ -4190,8 +4375,8 @@
       <c r="Q12" s="26">
         <v>0.396063757387072</v>
       </c>
-      <c r="S12" s="63" t="s">
-        <v>22</v>
+      <c r="S12" s="75" t="s">
+        <v>20</v>
       </c>
       <c r="T12" s="43"/>
       <c r="U12" s="43"/>
@@ -4212,7 +4397,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
@@ -4230,7 +4415,7 @@
       <c r="H13" s="15">
         <v>0.81920679808716201</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="13" t="s">
@@ -4248,7 +4433,7 @@
       <c r="Q13" s="15">
         <v>0.47782379499238098</v>
       </c>
-      <c r="S13" s="64"/>
+      <c r="S13" s="76"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="13" t="s">
@@ -4268,7 +4453,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="44">
         <v>0.46</v>
       </c>
@@ -4276,7 +4461,7 @@
         <v>0.76</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="21">
         <v>8.3628589919067201E-2</v>
@@ -4290,7 +4475,7 @@
       <c r="H14" s="22">
         <v>1.1522972880144901E-2</v>
       </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="44">
         <v>0.27</v>
       </c>
@@ -4298,7 +4483,7 @@
         <v>0.59</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N14" s="14">
         <v>-2.19653492959366E-2</v>
@@ -4312,7 +4497,7 @@
       <c r="Q14" s="15">
         <v>0.63983558618550995</v>
       </c>
-      <c r="S14" s="64"/>
+      <c r="S14" s="76"/>
       <c r="T14" s="44">
         <v>0.17</v>
       </c>
@@ -4320,7 +4505,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W14" s="14">
         <v>-4.3639868909588701E-2</v>
@@ -4336,11 +4521,11 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="14">
         <v>-6.9344129023429504E-3</v>
@@ -4354,11 +4539,11 @@
       <c r="H15" s="15">
         <v>0.71318423509832796</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15" s="14">
         <v>-4.1290983033017099E-2</v>
@@ -4372,11 +4557,11 @@
       <c r="Q15" s="15">
         <v>0.12996489935105601</v>
       </c>
-      <c r="S15" s="64"/>
+      <c r="S15" s="76"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W15" s="21">
         <v>8.6088339443977605E-2</v>
@@ -4392,11 +4577,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="17">
         <v>-8.3336771035073295E-2</v>
@@ -4408,13 +4593,13 @@
         <v>-5.3793386857232601</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="65"/>
+        <v>33</v>
+      </c>
+      <c r="J16" s="77"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
       <c r="M16" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16" s="18">
         <v>-8.0916465910812099E-2</v>
@@ -4428,11 +4613,11 @@
       <c r="Q16" s="19">
         <v>6.4203448897037795E-4</v>
       </c>
-      <c r="S16" s="65"/>
+      <c r="S16" s="77"/>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W16" s="18">
         <v>1.0015130922367801E-2</v>
@@ -4448,8 +4633,8 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
-        <v>11</v>
+      <c r="A17" s="72" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -4468,8 +4653,8 @@
       <c r="H17" s="28">
         <v>1.4661160013996999E-2</v>
       </c>
-      <c r="J17" s="60" t="s">
-        <v>17</v>
+      <c r="J17" s="72" t="s">
+        <v>15</v>
       </c>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
@@ -4488,8 +4673,8 @@
       <c r="Q17" s="27">
         <v>0.63226305707268105</v>
       </c>
-      <c r="S17" s="60" t="s">
-        <v>23</v>
+      <c r="S17" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
@@ -4510,7 +4695,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="3" t="s">
@@ -4528,7 +4713,7 @@
       <c r="H18" s="10">
         <v>1.03589205298071E-4</v>
       </c>
-      <c r="J18" s="61"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="3" t="s">
@@ -4546,7 +4731,7 @@
       <c r="Q18" s="5">
         <v>0.63091798944421296</v>
       </c>
-      <c r="S18" s="61"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="3" t="s">
@@ -4566,7 +4751,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="41">
         <v>0.37</v>
       </c>
@@ -4574,7 +4759,7 @@
         <v>0.37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="9">
         <v>3.85500344431162E-2</v>
@@ -4588,7 +4773,7 @@
       <c r="H19" s="10">
         <v>3.4893820447861899E-2</v>
       </c>
-      <c r="J19" s="61"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="41">
         <v>0.12</v>
       </c>
@@ -4596,7 +4781,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N19" s="4">
         <v>-7.1452133380435601E-2</v>
@@ -4610,7 +4795,7 @@
       <c r="Q19" s="5">
         <v>0.19006605256154599</v>
       </c>
-      <c r="S19" s="61"/>
+      <c r="S19" s="73"/>
       <c r="T19" s="41">
         <v>0.09</v>
       </c>
@@ -4618,7 +4803,7 @@
         <v>0.16</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W19" s="4">
         <v>-2.7669911376381699E-2</v>
@@ -4634,11 +4819,11 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4">
         <v>-9.3840185038558295E-3</v>
@@ -4652,11 +4837,11 @@
       <c r="H20" s="5">
         <v>0.58894272291956795</v>
       </c>
-      <c r="J20" s="61"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N20" s="4">
         <v>-2.17722739101485E-2</v>
@@ -4670,11 +4855,11 @@
       <c r="Q20" s="5">
         <v>0.45770082770904802</v>
       </c>
-      <c r="S20" s="61"/>
+      <c r="S20" s="73"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
       <c r="V20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W20" s="4">
         <v>-2.77032369025455E-3</v>
@@ -4690,11 +4875,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="7">
         <v>3.1329593628376597E-2</v>
@@ -4708,11 +4893,11 @@
       <c r="H21" s="8">
         <v>8.1306385386086505E-2</v>
       </c>
-      <c r="J21" s="62"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N21" s="7">
         <v>-3.4194061946250701E-2</v>
@@ -4726,11 +4911,11 @@
       <c r="Q21" s="8">
         <v>0.17256483293313099</v>
       </c>
-      <c r="S21" s="62"/>
+      <c r="S21" s="74"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W21" s="7">
         <v>2.1906654504763399E-2</v>
@@ -4746,8 +4931,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
-        <v>12</v>
+      <c r="A22" s="75" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -4766,8 +4951,8 @@
       <c r="H22" s="26">
         <v>0.156590362282719</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>18</v>
+      <c r="J22" s="75" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
@@ -4786,8 +4971,8 @@
       <c r="Q22" s="26">
         <v>0.69885942821946401</v>
       </c>
-      <c r="S22" s="63" t="s">
-        <v>24</v>
+      <c r="S22" s="75" t="s">
+        <v>22</v>
       </c>
       <c r="T22" s="43"/>
       <c r="U22" s="43"/>
@@ -4808,7 +4993,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="13" t="s">
@@ -4826,7 +5011,7 @@
       <c r="H23" s="15">
         <v>0.904389521648304</v>
       </c>
-      <c r="J23" s="64"/>
+      <c r="J23" s="76"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="13" t="s">
@@ -4844,7 +5029,7 @@
       <c r="Q23" s="15">
         <v>0.62584133799445296</v>
       </c>
-      <c r="S23" s="64"/>
+      <c r="S23" s="76"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="13" t="s">
@@ -4864,7 +5049,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="44">
         <v>0.1</v>
       </c>
@@ -4872,7 +5057,7 @@
         <v>0.16</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="14">
         <v>5.9875746788782503E-3</v>
@@ -4886,7 +5071,7 @@
       <c r="H24" s="15">
         <v>0.30569527576697603</v>
       </c>
-      <c r="J24" s="64"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="44">
         <v>0.08</v>
       </c>
@@ -4894,7 +5079,7 @@
         <v>0.71</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N24" s="14">
         <v>-2.6079908262912999E-2</v>
@@ -4908,7 +5093,7 @@
       <c r="Q24" s="15">
         <v>0.56359297147337195</v>
       </c>
-      <c r="S24" s="64"/>
+      <c r="S24" s="76"/>
       <c r="T24" s="44">
         <v>0.1</v>
       </c>
@@ -4916,7 +5101,7 @@
         <v>0.3</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W24" s="14">
         <v>-2.0822534239382701E-2</v>
@@ -4932,11 +5117,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="14">
         <v>2.1215142823842398E-3</v>
@@ -4950,11 +5135,11 @@
       <c r="H25" s="15">
         <v>0.68583510960772898</v>
       </c>
-      <c r="J25" s="64"/>
+      <c r="J25" s="76"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N25" s="14">
         <v>-7.2323356330252497E-3</v>
@@ -4968,11 +5153,11 @@
       <c r="Q25" s="15">
         <v>0.70588105337253604</v>
       </c>
-      <c r="S25" s="64"/>
+      <c r="S25" s="76"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W25" s="14">
         <v>1.6507373177031801E-2</v>
@@ -4988,11 +5173,11 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="18">
         <v>4.2794080733071296E-3</v>
@@ -5006,11 +5191,11 @@
       <c r="H26" s="20">
         <v>0.41122866769062399</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N26" s="18">
         <v>1.83346377768057E-2</v>
@@ -5024,11 +5209,11 @@
       <c r="Q26" s="20">
         <v>0.24845922044221999</v>
       </c>
-      <c r="S26" s="65"/>
+      <c r="S26" s="77"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W26" s="18">
         <v>1.59385993539191E-2</v>
@@ -5044,8 +5229,8 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
-        <v>13</v>
+      <c r="A27" s="72" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -5064,8 +5249,8 @@
       <c r="H27" s="28">
         <v>1.02956589885583E-2</v>
       </c>
-      <c r="J27" s="60" t="s">
-        <v>19</v>
+      <c r="J27" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
@@ -5084,8 +5269,8 @@
       <c r="Q27" s="27">
         <v>0.91086414946984995</v>
       </c>
-      <c r="S27" s="60" t="s">
-        <v>25</v>
+      <c r="S27" s="72" t="s">
+        <v>23</v>
       </c>
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
@@ -5106,7 +5291,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
@@ -5124,7 +5309,7 @@
       <c r="H28" s="10">
         <v>4.8954711894798199E-2</v>
       </c>
-      <c r="J28" s="61"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
       <c r="M28" s="3" t="s">
@@ -5142,7 +5327,7 @@
       <c r="Q28" s="5">
         <v>0.95282317254778404</v>
       </c>
-      <c r="S28" s="61"/>
+      <c r="S28" s="73"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
       <c r="V28" s="3" t="s">
@@ -5162,7 +5347,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="41">
         <v>0.54</v>
       </c>
@@ -5170,7 +5355,7 @@
         <v>0.54</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="4">
         <v>3.7244112267387199E-2</v>
@@ -5184,7 +5369,7 @@
       <c r="H29" s="5">
         <v>0.60274047594928004</v>
       </c>
-      <c r="J29" s="61"/>
+      <c r="J29" s="73"/>
       <c r="K29" s="41">
         <v>0.68</v>
       </c>
@@ -5192,7 +5377,7 @@
         <v>0.68</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N29" s="4">
         <v>1.8395897331407798E-2</v>
@@ -5206,7 +5391,7 @@
       <c r="Q29" s="5">
         <v>0.72885199050288396</v>
       </c>
-      <c r="S29" s="61"/>
+      <c r="S29" s="73"/>
       <c r="T29" s="41">
         <v>0.05</v>
       </c>
@@ -5214,7 +5399,7 @@
         <v>0.11</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W29" s="4">
         <v>-5.3429906330795501E-2</v>
@@ -5230,11 +5415,11 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="4">
         <v>0.111825714192421</v>
@@ -5248,11 +5433,11 @@
       <c r="H30" s="5">
         <v>0.100097196819914</v>
       </c>
-      <c r="J30" s="61"/>
+      <c r="J30" s="73"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N30" s="4">
         <v>-3.2809329382891599E-2</v>
@@ -5266,11 +5451,11 @@
       <c r="Q30" s="5">
         <v>0.45481679394520702</v>
       </c>
-      <c r="S30" s="61"/>
+      <c r="S30" s="73"/>
       <c r="T30" s="41"/>
       <c r="U30" s="41"/>
       <c r="V30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W30" s="4">
         <v>-5.97692958736449E-2</v>
@@ -5286,11 +5471,11 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="62"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" s="11">
         <v>0.44818010137063902</v>
@@ -5302,13 +5487,13 @@
         <v>6.3678646799199603</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="J31" s="74"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N31" s="11">
         <v>0.46377516208800401</v>
@@ -5320,13 +5505,13 @@
         <v>9.8623303288169595</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S31" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="S31" s="74"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W31" s="7">
         <v>3.9420725230575999E-2</v>
@@ -5343,6 +5528,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="S27:S31"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="J7:J11"/>
@@ -5355,12 +5546,6 @@
     <mergeCell ref="S12:S16"/>
     <mergeCell ref="S17:S21"/>
     <mergeCell ref="S22:S26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5371,7 +5556,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5381,25 +5566,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5444,7 +5629,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B4" s="21">
         <v>-0.3516416</v>
@@ -5461,7 +5646,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B5" s="21">
         <v>-0.3707087</v>
@@ -5478,7 +5663,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="14">
         <v>0.1338211</v>
@@ -5495,7 +5680,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="17">
         <v>-0.23187099999999999</v>
@@ -5530,25 +5715,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5593,7 +5778,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="29">
         <v>-4.9300122000000002</v>
@@ -5610,7 +5795,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="29">
         <v>3.3278292</v>
@@ -5627,7 +5812,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="29">
         <v>-0.95307589999999998</v>
@@ -5644,7 +5829,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="30">
         <v>-45.134131500000002</v>
@@ -5668,7 +5853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D9F11B-EFAD-4DF3-B541-EC1B3775B03E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -5686,262 +5871,268 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="78">
         <v>0.02</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="78">
         <v>0.13</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="67">
+        <v>28</v>
+      </c>
+      <c r="E2" s="60">
         <v>-0.69682290000000002</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="61">
         <v>0.26659928999999999</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="61">
         <v>-2.6137459999999999</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="62">
         <v>8.9555539999999993E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="71">
+        <v>29</v>
+      </c>
+      <c r="E3" s="63">
         <v>-0.8702917</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="64">
         <v>0.26659928999999999</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="64">
         <v>-3.2644190000000002</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="65">
         <v>1.0968900000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="84">
         <v>0.01</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="84">
         <v>0.42</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="76">
+        <v>28</v>
+      </c>
+      <c r="E4" s="67">
         <v>0.39358779999999999</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="67">
         <v>0.25136041999999997</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="67">
         <v>1.5658300000000001</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="68">
         <v>0.1173884</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="85">
+        <v>29</v>
+      </c>
+      <c r="E5" s="71">
         <v>-1.0091218</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="69">
         <v>0.25136041999999997</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="69">
         <v>-4.0146410000000001</v>
       </c>
-      <c r="H5" s="84" t="s">
-        <v>35</v>
+      <c r="H5" s="70" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="60">
+        <v>4.4245760000000001</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0.53118730000000003</v>
+      </c>
+      <c r="G6" s="61">
+        <v>8.3295960000000004</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="66">
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="67">
-        <v>4.4245760000000001</v>
-      </c>
-      <c r="F6" s="68">
-        <v>0.53118730000000003</v>
-      </c>
-      <c r="G6" s="68">
-        <v>8.3295960000000004</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="81"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="71">
+        <v>29</v>
+      </c>
+      <c r="E7" s="63">
         <v>-1.7969949999999999</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="64">
         <v>0.53118730000000003</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="64">
         <v>-3.382978</v>
       </c>
-      <c r="H7" s="73" t="s">
-        <v>35</v>
+      <c r="H7" s="65" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="75">
+        <v>32</v>
+      </c>
+      <c r="B8" s="84">
         <v>0.03</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="84">
         <v>0.15</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="76">
+        <v>28</v>
+      </c>
+      <c r="E8" s="67">
         <v>-0.37195499999999998</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="67">
         <v>0.23623229000000001</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="67">
         <v>-1.5745309999999999</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="68">
         <v>0.1153648</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="85">
+        <v>29</v>
+      </c>
+      <c r="E9" s="71">
         <v>-1.0671889999999999</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="69">
         <v>0.23623229000000001</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="69">
         <v>-4.5175390000000002</v>
       </c>
-      <c r="H9" s="84" t="s">
-        <v>35</v>
+      <c r="H9" s="70" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="66">
+      <c r="A10" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="78">
         <v>0.01</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="78">
         <v>0.08</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="68">
+        <v>28</v>
+      </c>
+      <c r="E10" s="61">
         <v>-0.1822646</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="61">
         <v>0.28269546000000001</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="61">
         <v>-0.64473840000000004</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="66">
         <v>0.51909673099999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="71">
+        <v>29</v>
+      </c>
+      <c r="E11" s="63">
         <v>-0.7442782</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="64">
         <v>0.28269546000000001</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="64">
         <v>-2.6327913999999999</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="65">
         <v>8.4686339999999992E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -5951,14 +6142,1975 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64F4DAD-9E02-44CC-9B21-7675E393CEAC}">
+  <dimension ref="A1:W32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:W32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="86"/>
+    <col min="9" max="9" width="19" style="86" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.21875" style="86" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="86"/>
+    <col min="17" max="17" width="19" style="86" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.77734375" style="86" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.21875" style="86" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="86"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="I1" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="Q1" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0.43517616527189201</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.88131467557302301</v>
+      </c>
+      <c r="D3" s="100">
+        <v>-9.8019035084793801E-2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1.5434054893169701E-2</v>
+      </c>
+      <c r="F3" s="37">
+        <v>-6.3508284610398702</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="37">
+        <v>0.25454825575201401</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0.98269129564414703</v>
+      </c>
+      <c r="L3" s="100">
+        <v>-8.2719511879325094E-2</v>
+      </c>
+      <c r="M3" s="26">
+        <v>1.2159205049004199E-2</v>
+      </c>
+      <c r="N3" s="37">
+        <v>-6.8030361808973501</v>
+      </c>
+      <c r="O3" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="37">
+        <v>4.4578354075998E-2</v>
+      </c>
+      <c r="S3" s="37">
+        <v>0.82407213402610802</v>
+      </c>
+      <c r="T3" s="26">
+        <v>-2.9365925669972998E-2</v>
+      </c>
+      <c r="U3" s="26">
+        <v>1.7589466015013901E-2</v>
+      </c>
+      <c r="V3" s="37">
+        <v>-1.66951774686662</v>
+      </c>
+      <c r="W3" s="26">
+        <v>9.5014816270512698E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="87">
+        <v>0.66710783984258804</v>
+      </c>
+      <c r="C4" s="87">
+        <v>0.69116857988539004</v>
+      </c>
+      <c r="D4" s="88">
+        <v>-8.1197517108981099E-2</v>
+      </c>
+      <c r="E4" s="89">
+        <v>1.7548183462441198E-2</v>
+      </c>
+      <c r="F4" s="87">
+        <v>-4.62711808790751</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="87">
+        <v>0.54095534054056704</v>
+      </c>
+      <c r="K4" s="87">
+        <v>0.54095534054056704</v>
+      </c>
+      <c r="L4" s="88">
+        <v>-6.2976256741974698E-2</v>
+      </c>
+      <c r="M4" s="89">
+        <v>1.8345248804811299E-2</v>
+      </c>
+      <c r="N4" s="87">
+        <v>-3.4328374290273</v>
+      </c>
+      <c r="O4" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="87">
+        <v>0.34637488087420998</v>
+      </c>
+      <c r="S4" s="87">
+        <v>0.34637488087420998</v>
+      </c>
+      <c r="T4" s="88">
+        <v>-6.2798594397034002E-2</v>
+      </c>
+      <c r="U4" s="89">
+        <v>2.6010263558101199E-2</v>
+      </c>
+      <c r="V4" s="87">
+        <v>-2.4143774728293601</v>
+      </c>
+      <c r="W4" s="88">
+        <v>1.57621233813394E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="87">
+        <v>0.43722158845070103</v>
+      </c>
+      <c r="C5" s="87">
+        <v>0.68276650095009295</v>
+      </c>
+      <c r="D5" s="88">
+        <v>-6.9447617835114106E-2</v>
+      </c>
+      <c r="E5" s="89">
+        <v>1.78360931831071E-2</v>
+      </c>
+      <c r="F5" s="87">
+        <v>-3.8936563698203401</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="87">
+        <v>0.41544290529841699</v>
+      </c>
+      <c r="K5" s="87">
+        <v>0.88424319415291397</v>
+      </c>
+      <c r="L5" s="88">
+        <v>-9.7935331414033197E-2</v>
+      </c>
+      <c r="M5" s="89">
+        <v>1.55869322829492E-2</v>
+      </c>
+      <c r="N5" s="87">
+        <v>-6.2831691083412498</v>
+      </c>
+      <c r="O5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="87">
+        <v>3.1638961137750998E-2</v>
+      </c>
+      <c r="S5" s="87">
+        <v>0.732389756378788</v>
+      </c>
+      <c r="T5" s="89">
+        <v>3.6323373499386698E-2</v>
+      </c>
+      <c r="U5" s="89">
+        <v>3.18515149172156E-2</v>
+      </c>
+      <c r="V5" s="87">
+        <v>1.14039704528321</v>
+      </c>
+      <c r="W5" s="89">
+        <v>0.25412092330939401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.41555283832539502</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.99216304989465298</v>
+      </c>
+      <c r="D6" s="19">
+        <v>-0.14486278685994999</v>
+      </c>
+      <c r="E6" s="20">
+        <v>7.8242128781733193E-3</v>
+      </c>
+      <c r="F6" s="18">
+        <v>-18.514678615668</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="87">
+        <v>1.9533976684702001E-2</v>
+      </c>
+      <c r="K6" s="87">
+        <v>0.27512693440407698</v>
+      </c>
+      <c r="L6" s="89">
+        <v>-1.34765218865127E-2</v>
+      </c>
+      <c r="M6" s="89">
+        <v>3.1028762113403201E-2</v>
+      </c>
+      <c r="N6" s="87">
+        <v>-0.43432354269432299</v>
+      </c>
+      <c r="O6" s="89">
+        <v>0.66405351013498803</v>
+      </c>
+      <c r="Q6" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="87">
+        <v>1.0107195353671601E-3</v>
+      </c>
+      <c r="S6" s="87">
+        <v>0.76172606542772003</v>
+      </c>
+      <c r="T6" s="89">
+        <v>-4.9904882640520697E-3</v>
+      </c>
+      <c r="U6" s="89">
+        <v>2.3103066821470002E-2</v>
+      </c>
+      <c r="V6" s="87">
+        <v>-0.21600977491933401</v>
+      </c>
+      <c r="W6" s="89">
+        <v>0.82898012815102995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0.18875969913829499</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.89051399429932998</v>
+      </c>
+      <c r="D7" s="28">
+        <v>-4.9201370157635101E-2</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1.1298102808754699E-2</v>
+      </c>
+      <c r="F7" s="38">
+        <v>-4.3548347001684196</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.14747152190979601</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.80859493279642303</v>
+      </c>
+      <c r="L7" s="19">
+        <v>-6.7667626567031902E-2</v>
+      </c>
+      <c r="M7" s="20">
+        <v>2.44245245072824E-2</v>
+      </c>
+      <c r="N7" s="18">
+        <v>-2.7704787680454599</v>
+      </c>
+      <c r="O7" s="19">
+        <v>5.5973949370031802E-3</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="18">
+        <v>1.7323523984726201E-3</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0.94282785852835904</v>
+      </c>
+      <c r="T7" s="20">
+        <v>1.31825765210983E-2</v>
+      </c>
+      <c r="U7" s="20">
+        <v>2.2833793407712001E-2</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0.57732748500063102</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0.56371825007245902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="90">
+        <v>0.37442313318574599</v>
+      </c>
+      <c r="C8" s="90">
+        <v>0.69846202856958906</v>
+      </c>
+      <c r="D8" s="91">
+        <v>-4.7330607553170798E-2</v>
+      </c>
+      <c r="E8" s="92">
+        <v>1.36650135243821E-2</v>
+      </c>
+      <c r="F8" s="90">
+        <v>-3.4636341536523299</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.146786093088356</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0.40020102011792702</v>
+      </c>
+      <c r="L8" s="27">
+        <v>-7.6192980561982399E-2</v>
+      </c>
+      <c r="M8" s="27">
+        <v>7.5684874940157298E-2</v>
+      </c>
+      <c r="N8" s="38">
+        <v>-1.00671343676298</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0.31407250314297303</v>
+      </c>
+      <c r="Q8" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="38">
+        <v>3.2570340797541203E-2</v>
+      </c>
+      <c r="S8" s="38">
+        <v>0.87984519596045596</v>
+      </c>
+      <c r="T8" s="27">
+        <v>-2.3566280883087098E-2</v>
+      </c>
+      <c r="U8" s="27">
+        <v>1.3647532130212799E-2</v>
+      </c>
+      <c r="V8" s="38">
+        <v>-1.72677965937272</v>
+      </c>
+      <c r="W8" s="27">
+        <v>8.4207242890545597E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="90">
+        <v>0.33918961529897002</v>
+      </c>
+      <c r="C9" s="90">
+        <v>0.75550333014474902</v>
+      </c>
+      <c r="D9" s="91">
+        <v>-8.4221681329308906E-2</v>
+      </c>
+      <c r="E9" s="92">
+        <v>2.1559702556969099E-2</v>
+      </c>
+      <c r="F9" s="90">
+        <v>-3.9064398549452299</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="90">
+        <v>0.101603224848101</v>
+      </c>
+      <c r="K9" s="90">
+        <v>0.101603224848101</v>
+      </c>
+      <c r="L9" s="92">
+        <v>-3.5420093581485901E-2</v>
+      </c>
+      <c r="M9" s="92">
+        <v>3.3306580737482598E-2</v>
+      </c>
+      <c r="N9" s="90">
+        <v>-1.0634563139537401</v>
+      </c>
+      <c r="O9" s="92">
+        <v>0.28757506642501701</v>
+      </c>
+      <c r="Q9" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="90">
+        <v>0.354908032017622</v>
+      </c>
+      <c r="S9" s="90">
+        <v>0.354908032017622</v>
+      </c>
+      <c r="T9" s="91">
+        <v>-5.4365749028637299E-2</v>
+      </c>
+      <c r="U9" s="92">
+        <v>2.2099473980815999E-2</v>
+      </c>
+      <c r="V9" s="90">
+        <v>-2.4600471973147799</v>
+      </c>
+      <c r="W9" s="91">
+        <v>1.38918745547432E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.18118637279289801</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.75505656920044495</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-0.12809570205884199</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5.8206345658995497E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-2.2007171315872802</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2.7756055244445601E-2</v>
+      </c>
+      <c r="I10" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="90">
+        <v>0.15756520680198799</v>
+      </c>
+      <c r="K10" s="90">
+        <v>0.73108462704673005</v>
+      </c>
+      <c r="L10" s="91">
+        <v>-5.0350828191650501E-2</v>
+      </c>
+      <c r="M10" s="92">
+        <v>1.98329779456787E-2</v>
+      </c>
+      <c r="N10" s="90">
+        <v>-2.53874271072949</v>
+      </c>
+      <c r="O10" s="91">
+        <v>1.1125160556327601E-2</v>
+      </c>
+      <c r="Q10" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="90">
+        <v>1.7616663646243699E-2</v>
+      </c>
+      <c r="S10" s="90">
+        <v>0.82252804997691598</v>
+      </c>
+      <c r="T10" s="92">
+        <v>2.5971980464054901E-2</v>
+      </c>
+      <c r="U10" s="92">
+        <v>2.4854884787504101E-2</v>
+      </c>
+      <c r="V10" s="90">
+        <v>1.0449447135282</v>
+      </c>
+      <c r="W10" s="92">
+        <v>0.29604852248576302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="87">
+        <v>0.26646274201391701</v>
+      </c>
+      <c r="C11" s="87">
+        <v>0.83462650200239996</v>
+      </c>
+      <c r="D11" s="88">
+        <v>-9.2511900443405501E-2</v>
+      </c>
+      <c r="E11" s="89">
+        <v>2.1974346587643401E-2</v>
+      </c>
+      <c r="F11" s="87">
+        <v>-4.2099955088278698</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="90">
+        <v>0.18328422474660599</v>
+      </c>
+      <c r="K11" s="90">
+        <v>0.63382211688654899</v>
+      </c>
+      <c r="L11" s="92">
+        <v>-5.5787618156151297E-2</v>
+      </c>
+      <c r="M11" s="92">
+        <v>2.9803846025700399E-2</v>
+      </c>
+      <c r="N11" s="90">
+        <v>-1.87182614311068</v>
+      </c>
+      <c r="O11" s="92">
+        <v>6.1230660171244698E-2</v>
+      </c>
+      <c r="Q11" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="90">
+        <v>4.7238136378487203E-3</v>
+      </c>
+      <c r="S11" s="90">
+        <v>0.75013495507449501</v>
+      </c>
+      <c r="T11" s="92">
+        <v>-8.9291439480759204E-3</v>
+      </c>
+      <c r="U11" s="92">
+        <v>1.9580323199494501E-2</v>
+      </c>
+      <c r="V11" s="90">
+        <v>-0.45602638205208101</v>
+      </c>
+      <c r="W11" s="92">
+        <v>0.64837100708135498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="87">
+        <v>8.4171884694533294E-2</v>
+      </c>
+      <c r="C12" s="87">
+        <v>0.235545162308925</v>
+      </c>
+      <c r="D12" s="89">
+        <v>-2.83530127645054E-2</v>
+      </c>
+      <c r="E12" s="89">
+        <v>2.7254372250901101E-2</v>
+      </c>
+      <c r="F12" s="87">
+        <v>-1.0403106152469901</v>
+      </c>
+      <c r="G12" s="89">
+        <v>0.298195613987704</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.20906258740060699</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.20906258740060699</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-6.2445379132722897E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3.8409018169814499E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>-1.6257999321054899</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.10399222281932501</v>
+      </c>
+      <c r="Q12" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="7">
+        <v>2.9218020058482102E-3</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.94624844649619499</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1.6029781866200899E-2</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2.0730099601958901E-2</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0.77326120829087197</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0.43936780843719703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="87">
+        <v>0.26412414648485699</v>
+      </c>
+      <c r="C13" s="87">
+        <v>0.77495461837118496</v>
+      </c>
+      <c r="D13" s="88">
+        <v>-7.0813458301321006E-2</v>
+      </c>
+      <c r="E13" s="89">
+        <v>1.9708358833297999E-2</v>
+      </c>
+      <c r="F13" s="87">
+        <v>-3.59306723103089</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="87">
+        <v>0.38932878875545501</v>
+      </c>
+      <c r="K13" s="87">
+        <v>0.57064987846292703</v>
+      </c>
+      <c r="L13" s="89">
+        <v>-0.18126241235592999</v>
+      </c>
+      <c r="M13" s="89">
+        <v>9.3535906220054005E-2</v>
+      </c>
+      <c r="N13" s="87">
+        <v>-1.9378912300212201</v>
+      </c>
+      <c r="O13" s="89">
+        <v>5.2636494155608997E-2</v>
+      </c>
+      <c r="Q13" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="87">
+        <v>9.9575877666512796E-2</v>
+      </c>
+      <c r="S13" s="87">
+        <v>9.9575877666512796E-2</v>
+      </c>
+      <c r="T13" s="89">
+        <v>-7.2883661044314402E-2</v>
+      </c>
+      <c r="U13" s="89">
+        <v>6.60815659856369E-2</v>
+      </c>
+      <c r="V13" s="87">
+        <v>-1.10293483450674</v>
+      </c>
+      <c r="W13" s="89">
+        <v>0.27005546538923098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.235749115237506</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.78239101986763504</v>
+      </c>
+      <c r="D14" s="19">
+        <v>-0.13905706469667201</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5.2231809213393397E-2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>-2.6623061079227401</v>
+      </c>
+      <c r="G14" s="19">
+        <v>7.76072663314942E-3</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="87">
+        <v>9.8207379389655694E-2</v>
+      </c>
+      <c r="K14" s="87">
+        <v>0.24063340614060799</v>
+      </c>
+      <c r="L14" s="89">
+        <v>-4.8336095435263501E-2</v>
+      </c>
+      <c r="M14" s="89">
+        <v>4.2859419212394598E-2</v>
+      </c>
+      <c r="N14" s="87">
+        <v>-1.1277823247144001</v>
+      </c>
+      <c r="O14" s="89">
+        <v>0.259411859844703</v>
+      </c>
+      <c r="Q14" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" s="87">
+        <v>9.1057801525080695E-2</v>
+      </c>
+      <c r="S14" s="87">
+        <v>0.41774973683205502</v>
+      </c>
+      <c r="T14" s="89">
+        <v>7.7508190238214494E-2</v>
+      </c>
+      <c r="U14" s="89">
+        <v>5.9094562317178398E-2</v>
+      </c>
+      <c r="V14" s="87">
+        <v>1.31159597768412</v>
+      </c>
+      <c r="W14" s="89">
+        <v>0.18965649091679801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0.300405773703256</v>
+      </c>
+      <c r="C15" s="38">
+        <v>0.300405773703256</v>
+      </c>
+      <c r="D15" s="28">
+        <v>4.0240444184394202E-2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1.85154978489524E-2</v>
+      </c>
+      <c r="F15" s="38">
+        <v>2.1733384925791199</v>
+      </c>
+      <c r="G15" s="28">
+        <v>2.97548504107359E-2</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="87">
+        <v>8.7920706129776094E-2</v>
+      </c>
+      <c r="K15" s="87">
+        <v>0.58608089905612204</v>
+      </c>
+      <c r="L15" s="89">
+        <v>-5.84422134248474E-2</v>
+      </c>
+      <c r="M15" s="89">
+        <v>3.8233359786043898E-2</v>
+      </c>
+      <c r="N15" s="87">
+        <v>-1.52856598927987</v>
+      </c>
+      <c r="O15" s="89">
+        <v>0.12637207281625701</v>
+      </c>
+      <c r="Q15" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="87">
+        <v>7.3859723705051297E-2</v>
+      </c>
+      <c r="S15" s="87">
+        <v>0.163151144842691</v>
+      </c>
+      <c r="T15" s="89">
+        <v>5.1694166598557897E-2</v>
+      </c>
+      <c r="U15" s="89">
+        <v>5.2464419191421897E-2</v>
+      </c>
+      <c r="V15" s="87">
+        <v>0.98531857200108197</v>
+      </c>
+      <c r="W15" s="89">
+        <v>0.32446761294080001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="90">
+        <v>0.25628763704936902</v>
+      </c>
+      <c r="C16" s="90">
+        <v>0.25628763704936902</v>
+      </c>
+      <c r="D16" s="92">
+        <v>6.6542971557223801E-2</v>
+      </c>
+      <c r="E16" s="92">
+        <v>3.5846013409580997E-2</v>
+      </c>
+      <c r="F16" s="90">
+        <v>1.8563562646952001</v>
+      </c>
+      <c r="G16" s="92">
+        <v>6.3402794230564205E-2</v>
+      </c>
+      <c r="I16" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="87">
+        <v>0.22467498765110999</v>
+      </c>
+      <c r="K16" s="87">
+        <v>0.23449139622892201</v>
+      </c>
+      <c r="L16" s="89">
+        <v>-4.9190359922241703E-2</v>
+      </c>
+      <c r="M16" s="89">
+        <v>3.4318528271432398E-2</v>
+      </c>
+      <c r="N16" s="87">
+        <v>-1.43334701107183</v>
+      </c>
+      <c r="O16" s="89">
+        <v>0.15175869343675799</v>
+      </c>
+      <c r="Q16" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="87">
+        <v>6.83307397796886E-4</v>
+      </c>
+      <c r="S16" s="87">
+        <v>0.33652331172221001</v>
+      </c>
+      <c r="T16" s="89">
+        <v>-5.2837806432061299E-3</v>
+      </c>
+      <c r="U16" s="89">
+        <v>4.9642450308114497E-2</v>
+      </c>
+      <c r="V16" s="87">
+        <v>-0.106436741345591</v>
+      </c>
+      <c r="W16" s="89">
+        <v>0.91523584325324603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="90">
+        <v>6.5515203743213096E-2</v>
+      </c>
+      <c r="C17" s="90">
+        <v>6.5515203743213096E-2</v>
+      </c>
+      <c r="D17" s="92">
+        <v>2.1089191579322299E-2</v>
+      </c>
+      <c r="E17" s="92">
+        <v>2.4014782713818499E-2</v>
+      </c>
+      <c r="F17" s="90">
+        <v>0.87817540681670303</v>
+      </c>
+      <c r="G17" s="92">
+        <v>0.37984853607715602</v>
+      </c>
+      <c r="I17" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0.13163645276489899</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0.302702372773274</v>
+      </c>
+      <c r="L17" s="20">
+        <v>-6.7049837458807104E-2</v>
+      </c>
+      <c r="M17" s="20">
+        <v>4.8844656317033899E-2</v>
+      </c>
+      <c r="N17" s="18">
+        <v>-1.3727159225690899</v>
+      </c>
+      <c r="O17" s="20">
+        <v>0.16984067724777799</v>
+      </c>
+      <c r="Q17" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="R17" s="18">
+        <v>7.8784432890102903E-3</v>
+      </c>
+      <c r="S17" s="18">
+        <v>0.178996798205524</v>
+      </c>
+      <c r="T17" s="20">
+        <v>-1.99248073927208E-2</v>
+      </c>
+      <c r="U17" s="20">
+        <v>6.1326758214875897E-2</v>
+      </c>
+      <c r="V17" s="18">
+        <v>-0.324895819911246</v>
+      </c>
+      <c r="W17" s="20">
+        <v>0.74525992065149105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4.5927565357339398E-2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.163462086809394</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-4.9590924814602803E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8.0743756586779E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-0.61417658666035801</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.53909864335053403</v>
+      </c>
+      <c r="I18" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="38">
+        <v>0.52338442286440101</v>
+      </c>
+      <c r="K18" s="38">
+        <v>0.52338442286440101</v>
+      </c>
+      <c r="L18" s="28">
+        <v>-0.14919890369591601</v>
+      </c>
+      <c r="M18" s="27">
+        <v>6.3672858815922107E-2</v>
+      </c>
+      <c r="N18" s="38">
+        <v>-2.3432103799084798</v>
+      </c>
+      <c r="O18" s="28">
+        <v>1.91185992134018E-2</v>
+      </c>
+      <c r="Q18" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="38">
+        <v>1.5017060492728499E-5</v>
+      </c>
+      <c r="S18" s="38">
+        <v>0.37176568412479899</v>
+      </c>
+      <c r="T18" s="27">
+        <v>5.2538298974980503E-4</v>
+      </c>
+      <c r="U18" s="27">
+        <v>3.2400225096786299E-2</v>
+      </c>
+      <c r="V18" s="38">
+        <v>1.6215411719529001E-2</v>
+      </c>
+      <c r="W18" s="27">
+        <v>0.98706254030610796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="87">
+        <v>9.5581582708037793E-2</v>
+      </c>
+      <c r="C19" s="87">
+        <v>0.34026101597870301</v>
+      </c>
+      <c r="D19" s="89">
+        <v>-5.6115551636423799E-3</v>
+      </c>
+      <c r="E19" s="89">
+        <v>4.4451442494566002E-3</v>
+      </c>
+      <c r="F19" s="87">
+        <v>-1.26240113902454</v>
+      </c>
+      <c r="G19" s="89">
+        <v>0.206804479579376</v>
+      </c>
+      <c r="I19" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="90">
+        <v>2.4922759350102699E-2</v>
+      </c>
+      <c r="K19" s="90">
+        <v>0.60104715813802001</v>
+      </c>
+      <c r="L19" s="92">
+        <v>-2.93652208942441E-2</v>
+      </c>
+      <c r="M19" s="92">
+        <v>3.7838301756401203E-2</v>
+      </c>
+      <c r="N19" s="90">
+        <v>-0.77607132273784696</v>
+      </c>
+      <c r="O19" s="92">
+        <v>0.43770687490134502</v>
+      </c>
+      <c r="Q19" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="90">
+        <v>8.5901561933159705E-4</v>
+      </c>
+      <c r="S19" s="90">
+        <v>6.95694665450486E-2</v>
+      </c>
+      <c r="T19" s="92">
+        <v>4.5633440472272104E-3</v>
+      </c>
+      <c r="U19" s="92">
+        <v>4.5282283268598698E-2</v>
+      </c>
+      <c r="V19" s="90">
+        <v>0.100775484755463</v>
+      </c>
+      <c r="W19" s="92">
+        <v>0.91972868808040498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="87">
+        <v>0.28075361111592501</v>
+      </c>
+      <c r="C20" s="87">
+        <v>0.28075361111592501</v>
+      </c>
+      <c r="D20" s="88">
+        <v>2.90715235400031E-2</v>
+      </c>
+      <c r="E20" s="89">
+        <v>1.47144475693076E-2</v>
+      </c>
+      <c r="F20" s="87">
+        <v>1.97571287695791</v>
+      </c>
+      <c r="G20" s="88">
+        <v>4.8187305655134502E-2</v>
+      </c>
+      <c r="I20" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="90">
+        <v>3.7945554577965101E-3</v>
+      </c>
+      <c r="K20" s="90">
+        <v>0.79815728626245397</v>
+      </c>
+      <c r="L20" s="92">
+        <v>-1.3825086280082E-2</v>
+      </c>
+      <c r="M20" s="92">
+        <v>3.0401680726775699E-2</v>
+      </c>
+      <c r="N20" s="90">
+        <v>-0.45474743335179502</v>
+      </c>
+      <c r="O20" s="92">
+        <v>0.64929095188022901</v>
+      </c>
+      <c r="Q20" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" s="90">
+        <v>0.13708332140079299</v>
+      </c>
+      <c r="S20" s="90">
+        <v>0.13708332140079299</v>
+      </c>
+      <c r="T20" s="92">
+        <v>5.3209105457176498E-2</v>
+      </c>
+      <c r="U20" s="92">
+        <v>4.0251469248442397E-2</v>
+      </c>
+      <c r="V20" s="90">
+        <v>1.3219170989450399</v>
+      </c>
+      <c r="W20" s="92">
+        <v>0.18619575791306101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="87">
+        <v>0.100227862438392</v>
+      </c>
+      <c r="C21" s="87">
+        <v>0.34512518070174403</v>
+      </c>
+      <c r="D21" s="89">
+        <v>-4.1669195485705803E-3</v>
+      </c>
+      <c r="E21" s="89">
+        <v>3.2114686338049702E-3</v>
+      </c>
+      <c r="F21" s="87">
+        <v>-1.2975121427960401</v>
+      </c>
+      <c r="G21" s="89">
+        <v>0.194455029826578</v>
+      </c>
+      <c r="I21" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="90">
+        <v>9.2963834519367797E-3</v>
+      </c>
+      <c r="K21" s="90">
+        <v>0.79204737965475003</v>
+      </c>
+      <c r="L21" s="92">
+        <v>-1.24332971375217E-2</v>
+      </c>
+      <c r="M21" s="92">
+        <v>2.2226059716351099E-2</v>
+      </c>
+      <c r="N21" s="90">
+        <v>-0.55940176964317401</v>
+      </c>
+      <c r="O21" s="92">
+        <v>0.57588755391885205</v>
+      </c>
+      <c r="Q21" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" s="90">
+        <v>4.1082040598559001E-2</v>
+      </c>
+      <c r="S21" s="90">
+        <v>0.31416602684086697</v>
+      </c>
+      <c r="T21" s="92">
+        <v>3.0220272736632699E-2</v>
+      </c>
+      <c r="U21" s="92">
+        <v>3.7229356565358002E-2</v>
+      </c>
+      <c r="V21" s="90">
+        <v>0.81173234040667597</v>
+      </c>
+      <c r="W21" s="92">
+        <v>0.416945232950235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="18">
+        <v>8.4444483464578106E-3</v>
+      </c>
+      <c r="C22" s="18">
+        <v>8.4444483464578106E-3</v>
+      </c>
+      <c r="D22" s="20">
+        <v>8.8874024241608997E-4</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3.6399775832255E-3</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.24416091091103601</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.80710619957312102</v>
+      </c>
+      <c r="I22" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="7">
+        <v>9.9468076973881198E-5</v>
+      </c>
+      <c r="K22" s="7">
+        <v>9.9468076973881198E-5</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1.9446216268340501E-3</v>
+      </c>
+      <c r="M22" s="8">
+        <v>6.1655475321053303E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3.1540128702406099E-2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.97483878997533202</v>
+      </c>
+      <c r="Q22" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1.10725428331723E-2</v>
+      </c>
+      <c r="S22" s="7">
+        <v>2.6145316053539799E-2</v>
+      </c>
+      <c r="T22" s="8">
+        <v>1.3776089342828301E-2</v>
+      </c>
+      <c r="U22" s="8">
+        <v>3.8954084527501001E-2</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0.35364941853793402</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0.72360163396278998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="38">
+        <v>0.41129018084524299</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.41129018084524299</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.26742567798229799</v>
+      </c>
+      <c r="E23" s="27">
+        <v>9.6467990524516795E-2</v>
+      </c>
+      <c r="F23" s="38">
+        <v>2.7721700900811501</v>
+      </c>
+      <c r="G23" s="28">
+        <v>5.5683932015979697E-3</v>
+      </c>
+      <c r="I23" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="87">
+        <v>0.52338442286440101</v>
+      </c>
+      <c r="K23" s="87">
+        <v>0.52338442286440101</v>
+      </c>
+      <c r="L23" s="88">
+        <v>-0.14919890369591601</v>
+      </c>
+      <c r="M23" s="89">
+        <v>6.3672858815922107E-2</v>
+      </c>
+      <c r="N23" s="87">
+        <v>-2.3432103799084798</v>
+      </c>
+      <c r="O23" s="88">
+        <v>1.91185992134018E-2</v>
+      </c>
+      <c r="Q23" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="R23" s="87">
+        <v>1.1420688224372699E-2</v>
+      </c>
+      <c r="S23" s="87">
+        <v>0.44006375730484798</v>
+      </c>
+      <c r="T23" s="89">
+        <v>1.3465919201208499E-2</v>
+      </c>
+      <c r="U23" s="89">
+        <v>2.8429080494077601E-2</v>
+      </c>
+      <c r="V23" s="87">
+        <v>0.47366706791708302</v>
+      </c>
+      <c r="W23" s="89">
+        <v>0.63573734083545197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="90">
+        <v>0.61318316824936403</v>
+      </c>
+      <c r="C24" s="90">
+        <v>0.61318316824936403</v>
+      </c>
+      <c r="D24" s="91">
+        <v>0.38876150824737099</v>
+      </c>
+      <c r="E24" s="92">
+        <v>9.7642935537949102E-2</v>
+      </c>
+      <c r="F24" s="90">
+        <v>3.9814606771657099</v>
+      </c>
+      <c r="G24" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="87">
+        <v>9.8207379389655694E-2</v>
+      </c>
+      <c r="K24" s="87">
+        <v>0.24063340614060799</v>
+      </c>
+      <c r="L24" s="89">
+        <v>-4.8336095435263501E-2</v>
+      </c>
+      <c r="M24" s="89">
+        <v>4.2859419212394598E-2</v>
+      </c>
+      <c r="N24" s="87">
+        <v>-1.1277823247144001</v>
+      </c>
+      <c r="O24" s="89">
+        <v>0.259411859844703</v>
+      </c>
+      <c r="Q24" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="R24" s="87">
+        <v>0.186781920528337</v>
+      </c>
+      <c r="S24" s="87">
+        <v>0.62083653287280305</v>
+      </c>
+      <c r="T24" s="88">
+        <v>7.0319710480356207E-2</v>
+      </c>
+      <c r="U24" s="89">
+        <v>3.0208318809517101E-2</v>
+      </c>
+      <c r="V24" s="87">
+        <v>2.3278260178518102</v>
+      </c>
+      <c r="W24" s="88">
+        <v>1.99213439444519E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="90">
+        <v>0.57651066723842403</v>
+      </c>
+      <c r="C25" s="90">
+        <v>0.57651066723842403</v>
+      </c>
+      <c r="D25" s="91">
+        <v>0.34321871899749701</v>
+      </c>
+      <c r="E25" s="92">
+        <v>8.8693580498578894E-2</v>
+      </c>
+      <c r="F25" s="90">
+        <v>3.8697131975971599</v>
+      </c>
+      <c r="G25" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="87">
+        <v>8.7920706129776094E-2</v>
+      </c>
+      <c r="K25" s="87">
+        <v>0.58608089905612204</v>
+      </c>
+      <c r="L25" s="89">
+        <v>-5.84422134248474E-2</v>
+      </c>
+      <c r="M25" s="89">
+        <v>3.8233359786043898E-2</v>
+      </c>
+      <c r="N25" s="87">
+        <v>-1.52856598927987</v>
+      </c>
+      <c r="O25" s="89">
+        <v>0.12637207281625701</v>
+      </c>
+      <c r="Q25" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="R25" s="87">
+        <v>4.3525849005857598E-2</v>
+      </c>
+      <c r="S25" s="87">
+        <v>4.3525849005857598E-2</v>
+      </c>
+      <c r="T25" s="89">
+        <v>2.66444489024498E-2</v>
+      </c>
+      <c r="U25" s="89">
+        <v>3.7659399670451503E-2</v>
+      </c>
+      <c r="V25" s="87">
+        <v>0.70751124913326102</v>
+      </c>
+      <c r="W25" s="89">
+        <v>0.47924882453168499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.55730722320292503</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.55730722320292503</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.484402923069087</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.16317800422996101</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2.96855526181356</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2.9920329633350601E-3</v>
+      </c>
+      <c r="I26" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="87">
+        <v>0.22467498765110999</v>
+      </c>
+      <c r="K26" s="87">
+        <v>0.23449139622892201</v>
+      </c>
+      <c r="L26" s="89">
+        <v>-4.9190359922241703E-2</v>
+      </c>
+      <c r="M26" s="89">
+        <v>3.4318528271432398E-2</v>
+      </c>
+      <c r="N26" s="87">
+        <v>-1.43334701107183</v>
+      </c>
+      <c r="O26" s="89">
+        <v>0.15175869343675799</v>
+      </c>
+      <c r="Q26" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26" s="87">
+        <v>2.8851143818738701E-2</v>
+      </c>
+      <c r="S26" s="87">
+        <v>0.36435621422789999</v>
+      </c>
+      <c r="T26" s="89">
+        <v>-2.4883843373679899E-2</v>
+      </c>
+      <c r="U26" s="89">
+        <v>3.5216525149978098E-2</v>
+      </c>
+      <c r="V26" s="87">
+        <v>-0.706595647006795</v>
+      </c>
+      <c r="W26" s="89">
+        <v>0.479817794840393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I27" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0.13163645276489899</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0.302702372773274</v>
+      </c>
+      <c r="L27" s="20">
+        <v>-6.7049837458807104E-2</v>
+      </c>
+      <c r="M27" s="20">
+        <v>4.8844656317033899E-2</v>
+      </c>
+      <c r="N27" s="18">
+        <v>-1.3727159225690899</v>
+      </c>
+      <c r="O27" s="20">
+        <v>0.16984067724777799</v>
+      </c>
+      <c r="Q27" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" s="18">
+        <v>1.6022919121090998E-2</v>
+      </c>
+      <c r="S27" s="18">
+        <v>1.6022919121090998E-2</v>
+      </c>
+      <c r="T27" s="20">
+        <v>-1.5393829392257899E-2</v>
+      </c>
+      <c r="U27" s="20">
+        <v>3.6372403272134098E-2</v>
+      </c>
+      <c r="V27" s="18">
+        <v>-0.42322827218985398</v>
+      </c>
+      <c r="W27" s="20">
+        <v>0.67212872121297096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I28" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="38">
+        <v>0.87319744191992898</v>
+      </c>
+      <c r="K28" s="38">
+        <v>0.87319744191992898</v>
+      </c>
+      <c r="L28" s="28">
+        <v>0.484528097380373</v>
+      </c>
+      <c r="M28" s="27">
+        <v>8.2573699874163894E-2</v>
+      </c>
+      <c r="N28" s="38">
+        <v>5.8678259314861503</v>
+      </c>
+      <c r="O28" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="R28" s="38">
+        <v>1.1420688224372699E-2</v>
+      </c>
+      <c r="S28" s="38">
+        <v>0.44006375730484798</v>
+      </c>
+      <c r="T28" s="27">
+        <v>1.3465919201208499E-2</v>
+      </c>
+      <c r="U28" s="27">
+        <v>2.8429080494077601E-2</v>
+      </c>
+      <c r="V28" s="38">
+        <v>0.47366706791708302</v>
+      </c>
+      <c r="W28" s="27">
+        <v>0.63573734083545197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I29" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="90">
+        <v>0.84657551692770605</v>
+      </c>
+      <c r="K29" s="90">
+        <v>0.85346049216935804</v>
+      </c>
+      <c r="L29" s="91">
+        <v>0.49912631275167701</v>
+      </c>
+      <c r="M29" s="92">
+        <v>6.5859265979663198E-2</v>
+      </c>
+      <c r="N29" s="90">
+        <v>7.5786801648503497</v>
+      </c>
+      <c r="O29" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" s="90">
+        <v>8.5901561933159705E-4</v>
+      </c>
+      <c r="S29" s="90">
+        <v>6.95694665450486E-2</v>
+      </c>
+      <c r="T29" s="92">
+        <v>4.5633440472272104E-3</v>
+      </c>
+      <c r="U29" s="92">
+        <v>4.5282283268598698E-2</v>
+      </c>
+      <c r="V29" s="90">
+        <v>0.100775484755463</v>
+      </c>
+      <c r="W29" s="92">
+        <v>0.91972868808040498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I30" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="90">
+        <v>0.83453020830011904</v>
+      </c>
+      <c r="K30" s="90">
+        <v>0.84405379021622995</v>
+      </c>
+      <c r="L30" s="91">
+        <v>0.48637159527366203</v>
+      </c>
+      <c r="M30" s="92">
+        <v>6.3392552948514605E-2</v>
+      </c>
+      <c r="N30" s="90">
+        <v>7.6723774741912898</v>
+      </c>
+      <c r="O30" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="R30" s="90">
+        <v>0.13708332140079299</v>
+      </c>
+      <c r="S30" s="90">
+        <v>0.13708332140079299</v>
+      </c>
+      <c r="T30" s="92">
+        <v>5.3209105457176498E-2</v>
+      </c>
+      <c r="U30" s="92">
+        <v>4.0251469248442397E-2</v>
+      </c>
+      <c r="V30" s="90">
+        <v>1.3219170989450399</v>
+      </c>
+      <c r="W30" s="92">
+        <v>0.18619575791306101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I31" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="90">
+        <v>0.187971496885177</v>
+      </c>
+      <c r="K31" s="90">
+        <v>0.187971496885177</v>
+      </c>
+      <c r="L31" s="92">
+        <v>0.14431180399246399</v>
+      </c>
+      <c r="M31" s="92">
+        <v>0.11336851883823899</v>
+      </c>
+      <c r="N31" s="90">
+        <v>1.2729442482915101</v>
+      </c>
+      <c r="O31" s="92">
+        <v>0.20303782613763799</v>
+      </c>
+      <c r="Q31" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31" s="90">
+        <v>4.1082040598559001E-2</v>
+      </c>
+      <c r="S31" s="90">
+        <v>0.31416602684086697</v>
+      </c>
+      <c r="T31" s="92">
+        <v>3.0220272736632699E-2</v>
+      </c>
+      <c r="U31" s="92">
+        <v>3.7229356565358002E-2</v>
+      </c>
+      <c r="V31" s="90">
+        <v>0.81173234040667597</v>
+      </c>
+      <c r="W31" s="92">
+        <v>0.416945232950235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I32" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.61447260695346295</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.61447260695346295</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.41583662983780201</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.10415955115485501</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3.9923043564154002</v>
+      </c>
+      <c r="O32" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1.10725428331723E-2</v>
+      </c>
+      <c r="S32" s="7">
+        <v>2.6145316053539799E-2</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1.3776089342828301E-2</v>
+      </c>
+      <c r="U32" s="8">
+        <v>3.8954084527501001E-2</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0.35364941853793402</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0.72360163396278998</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T3:AA32">
+    <sortCondition ref="Z3:Z32"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/outputs/SupplementalTables.xlsx
+++ b/outputs/SupplementalTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwel\OneDrive\Desktop\AppraisingGrazing\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332137AB-E140-480A-BE66-7525C6A350B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D225CF-D855-42FD-9DDB-AA0E5E85A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="6" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{CF962987-2438-4E1C-BBD3-768B42620E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteDescriptions" sheetId="5" r:id="rId1"/>
@@ -593,7 +593,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,6 +798,55 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,6 +871,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -834,83 +889,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1730,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9345813A-2DFE-4E66-B055-012251326829}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,7 +1803,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="92" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="44"/>
@@ -1844,7 +1823,7 @@
       <c r="H2" s="15">
         <v>0.75643309065928399</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="92" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="44"/>
@@ -1864,7 +1843,7 @@
       <c r="Q2" s="15">
         <v>0.78445569199090504</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="92" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="44"/>
@@ -1886,7 +1865,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="13" t="s">
@@ -1904,7 +1883,7 @@
       <c r="H3" s="15">
         <v>0.85620580622572096</v>
       </c>
-      <c r="J3" s="76"/>
+      <c r="J3" s="93"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="13" t="s">
@@ -1922,7 +1901,7 @@
       <c r="Q3" s="15">
         <v>0.111358770556964</v>
       </c>
-      <c r="S3" s="76"/>
+      <c r="S3" s="93"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="13" t="s">
@@ -1942,7 +1921,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="44">
         <v>0.59</v>
       </c>
@@ -1964,7 +1943,7 @@
       <c r="H4" s="15">
         <v>0.198730750798048</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="44">
         <v>0.41</v>
       </c>
@@ -1986,7 +1965,7 @@
       <c r="Q4" s="15">
         <v>0.54152757122083806</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="93"/>
       <c r="T4" s="44">
         <v>0.21</v>
       </c>
@@ -2010,7 +1989,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="13" t="s">
@@ -2028,7 +2007,7 @@
       <c r="H5" s="22">
         <v>2.0426214511249902E-2</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="13" t="s">
@@ -2046,7 +2025,7 @@
       <c r="Q5" s="15">
         <v>0.58620851191461298</v>
       </c>
-      <c r="S5" s="76"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="13" t="s">
@@ -2066,7 +2045,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
@@ -2084,7 +2063,7 @@
       <c r="H6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="77"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="16" t="s">
@@ -2102,7 +2081,7 @@
       <c r="Q6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="77"/>
+      <c r="S6" s="94"/>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="16" t="s">
@@ -2122,7 +2101,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="89" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="41"/>
@@ -2142,7 +2121,7 @@
       <c r="H7" s="5">
         <v>0.45450659664544801</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="89" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="41"/>
@@ -2162,7 +2141,7 @@
       <c r="Q7" s="5">
         <v>0.96017688602466</v>
       </c>
-      <c r="S7" s="72" t="s">
+      <c r="S7" s="89" t="s">
         <v>19</v>
       </c>
       <c r="T7" s="41"/>
@@ -2184,7 +2163,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
@@ -2202,7 +2181,7 @@
       <c r="H8" s="5">
         <v>0.53062471950727597</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="90"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="3" t="s">
@@ -2220,7 +2199,7 @@
       <c r="Q8" s="5">
         <v>0.49430589283329901</v>
       </c>
-      <c r="S8" s="73"/>
+      <c r="S8" s="90"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="3" t="s">
@@ -2240,7 +2219,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="41">
         <v>0.23</v>
       </c>
@@ -2262,7 +2241,7 @@
       <c r="H9" s="5">
         <v>0.85845654845826103</v>
       </c>
-      <c r="J9" s="73"/>
+      <c r="J9" s="90"/>
       <c r="K9" s="41">
         <v>0.32</v>
       </c>
@@ -2284,7 +2263,7 @@
       <c r="Q9" s="5">
         <v>0.12333957548581399</v>
       </c>
-      <c r="S9" s="73"/>
+      <c r="S9" s="90"/>
       <c r="T9" s="41">
         <v>0.21</v>
       </c>
@@ -2308,7 +2287,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="3" t="s">
@@ -2326,7 +2305,7 @@
       <c r="H10" s="5">
         <v>0.68725480675239803</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="90"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="3" t="s">
@@ -2344,7 +2323,7 @@
       <c r="Q10" s="5">
         <v>0.56468785934212196</v>
       </c>
-      <c r="S10" s="73"/>
+      <c r="S10" s="90"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="3" t="s">
@@ -2364,7 +2343,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
@@ -2382,7 +2361,7 @@
       <c r="H11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="6" t="s">
@@ -2400,7 +2379,7 @@
       <c r="Q11" s="12">
         <v>5.6703110896494401E-4</v>
       </c>
-      <c r="S11" s="74"/>
+      <c r="S11" s="91"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="6" t="s">
@@ -2421,7 +2400,7 @@
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="44"/>
@@ -2441,7 +2420,7 @@
       <c r="H12" s="15">
         <v>0.70634877764113901</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="92" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="44"/>
@@ -2461,7 +2440,7 @@
       <c r="Q12" s="15">
         <v>0.96903819673954605</v>
       </c>
-      <c r="S12" s="75" t="s">
+      <c r="S12" s="92" t="s">
         <v>20</v>
       </c>
       <c r="T12" s="44"/>
@@ -2470,20 +2449,20 @@
         <v>0</v>
       </c>
       <c r="W12" s="14">
-        <v>8.9411824277785101E-2</v>
+        <v>-6.8683749960923995E-2</v>
       </c>
       <c r="X12" s="14">
-        <v>0.127158985954198</v>
+        <v>0.13406651483597801</v>
       </c>
       <c r="Y12" s="14">
-        <v>0.70314986870051799</v>
+        <v>-0.51231099760409304</v>
       </c>
       <c r="Z12" s="15">
-        <v>0.48196235697490403</v>
+        <v>0.60843336958759897</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
@@ -2501,7 +2480,7 @@
       <c r="H13" s="15">
         <v>0.98064258715030805</v>
       </c>
-      <c r="J13" s="76"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="13" t="s">
@@ -2519,27 +2498,27 @@
       <c r="Q13" s="15">
         <v>0.204959108693586</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13" s="93"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="13" t="s">
         <v>1</v>
       </c>
       <c r="W13" s="14">
-        <v>-7.5774502890207096E-2</v>
+        <v>-0.13339475217539901</v>
       </c>
       <c r="X13" s="14">
-        <v>0.127158985954198</v>
+        <v>0.13406651483597801</v>
       </c>
       <c r="Y13" s="14">
-        <v>-0.595903642370196</v>
+        <v>-0.99498933300830905</v>
       </c>
       <c r="Z13" s="15">
-        <v>0.55123959982481097</v>
+        <v>0.31974145238871698</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="44">
         <v>0.36</v>
       </c>
@@ -2561,7 +2540,7 @@
       <c r="H14" s="15">
         <v>0.46443467686441597</v>
       </c>
-      <c r="J14" s="76"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="44">
         <v>0.33</v>
       </c>
@@ -2583,7 +2562,7 @@
       <c r="Q14" s="15">
         <v>0.28711644693738703</v>
       </c>
-      <c r="S14" s="76"/>
+      <c r="S14" s="93"/>
       <c r="T14" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2594,20 +2573,20 @@
         <v>31</v>
       </c>
       <c r="W14" s="14">
-        <v>-7.3413121855626595E-2</v>
+        <v>0.17431841062523301</v>
       </c>
       <c r="X14" s="14">
-        <v>0.127158985954198</v>
+        <v>0.13406651483597801</v>
       </c>
       <c r="Y14" s="14">
-        <v>-0.57733333829879496</v>
+        <v>1.3002382499351199</v>
       </c>
       <c r="Z14" s="15">
-        <v>0.56371429674058304</v>
+        <v>0.193519324704434</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="13" t="s">
@@ -2625,7 +2604,7 @@
       <c r="H15" s="15">
         <v>0.17886255886840399</v>
       </c>
-      <c r="J15" s="76"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="13" t="s">
@@ -2643,27 +2622,27 @@
       <c r="Q15" s="15">
         <v>0.43957422325523998</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15" s="93"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="13" t="s">
         <v>32</v>
       </c>
       <c r="W15" s="14">
-        <v>5.0931924485710697E-2</v>
+        <v>1.6554583521734601E-2</v>
       </c>
       <c r="X15" s="14">
-        <v>0.127158985954198</v>
+        <v>0.13406651483597801</v>
       </c>
       <c r="Y15" s="14">
-        <v>0.40053735961732301</v>
+        <v>0.123480374961549</v>
       </c>
       <c r="Z15" s="15">
-        <v>0.68876077232800903</v>
+        <v>0.90172671386593595</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
@@ -2681,7 +2660,7 @@
       <c r="H16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="77"/>
+      <c r="J16" s="94"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
       <c r="M16" s="16" t="s">
@@ -2699,28 +2678,27 @@
       <c r="Q16" s="19">
         <v>9.5878767935397803E-4</v>
       </c>
-      <c r="S16" s="77"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W16" s="18">
-        <v>6.2220215512979703E-3</v>
+        <v>7.8552265845189595E-2</v>
       </c>
       <c r="X16" s="18">
-        <v>2.6301465255499701E-2</v>
+        <v>3.7919736708226903E-2</v>
       </c>
       <c r="Y16" s="18">
-        <v>0.236565586398154</v>
+        <v>2.0715403814538398</v>
       </c>
       <c r="Z16" s="20">
-        <v>0.81299382050265701</v>
-      </c>
-      <c r="AF16" s="35"/>
+        <v>3.8308324805831101E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="41"/>
@@ -2740,7 +2718,7 @@
       <c r="H17" s="10">
         <v>4.2440815812778497E-2</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="89" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="41"/>
@@ -2760,7 +2738,7 @@
       <c r="Q17" s="5">
         <v>0.50381674695789302</v>
       </c>
-      <c r="S17" s="72" t="s">
+      <c r="S17" s="89" t="s">
         <v>21</v>
       </c>
       <c r="T17" s="41"/>
@@ -2782,7 +2760,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="3" t="s">
@@ -2800,7 +2778,7 @@
       <c r="H18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="73"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="3" t="s">
@@ -2818,7 +2796,7 @@
       <c r="Q18" s="5">
         <v>0.264487950777611</v>
       </c>
-      <c r="S18" s="73"/>
+      <c r="S18" s="90"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="3" t="s">
@@ -2838,7 +2816,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="41">
         <v>0.31</v>
       </c>
@@ -2860,7 +2838,7 @@
       <c r="H19" s="5">
         <v>9.6818088993625706E-2</v>
       </c>
-      <c r="J19" s="73"/>
+      <c r="J19" s="90"/>
       <c r="K19" s="41">
         <v>0.26</v>
       </c>
@@ -2882,7 +2860,7 @@
       <c r="Q19" s="5">
         <v>0.37610715062244399</v>
       </c>
-      <c r="S19" s="73"/>
+      <c r="S19" s="90"/>
       <c r="T19" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2906,7 +2884,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="3" t="s">
@@ -2924,7 +2902,7 @@
       <c r="H20" s="10">
         <v>6.5707623725130805E-4</v>
       </c>
-      <c r="J20" s="73"/>
+      <c r="J20" s="90"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="3" t="s">
@@ -2942,7 +2920,7 @@
       <c r="Q20" s="5">
         <v>0.239285481771352</v>
       </c>
-      <c r="S20" s="73"/>
+      <c r="S20" s="90"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
       <c r="V20" s="3" t="s">
@@ -2962,7 +2940,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="6" t="s">
@@ -2980,7 +2958,7 @@
       <c r="H21" s="12">
         <v>5.7643528578590598E-2</v>
       </c>
-      <c r="J21" s="74"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="6" t="s">
@@ -2998,7 +2976,7 @@
       <c r="Q21" s="8">
         <v>0.18897297602503599</v>
       </c>
-      <c r="S21" s="74"/>
+      <c r="S21" s="91"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="6" t="s">
@@ -3018,7 +2996,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="44"/>
@@ -3038,7 +3016,7 @@
       <c r="H22" s="15">
         <v>5.8951439115694199E-2</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="92" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="44"/>
@@ -3058,7 +3036,7 @@
       <c r="Q22" s="15">
         <v>0.85580186913876699</v>
       </c>
-      <c r="S22" s="75" t="s">
+      <c r="S22" s="92" t="s">
         <v>22</v>
       </c>
       <c r="T22" s="44"/>
@@ -3080,7 +3058,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="13" t="s">
@@ -3098,7 +3076,7 @@
       <c r="H23" s="15">
         <v>0.898896282859034</v>
       </c>
-      <c r="J23" s="76"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="13" t="s">
@@ -3116,7 +3094,7 @@
       <c r="Q23" s="15">
         <v>0.53963880509304496</v>
       </c>
-      <c r="S23" s="76"/>
+      <c r="S23" s="93"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="13" t="s">
@@ -3136,7 +3114,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="44">
         <v>0.13</v>
       </c>
@@ -3158,7 +3136,7 @@
       <c r="H24" s="15">
         <v>0.56247855473640496</v>
       </c>
-      <c r="J24" s="76"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="44">
         <v>0.27</v>
       </c>
@@ -3180,7 +3158,7 @@
       <c r="Q24" s="15">
         <v>0.19620110579128799</v>
       </c>
-      <c r="S24" s="76"/>
+      <c r="S24" s="93"/>
       <c r="T24" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3204,7 +3182,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="13" t="s">
@@ -3222,7 +3200,7 @@
       <c r="H25" s="15">
         <v>0.96061530261722605</v>
       </c>
-      <c r="J25" s="76"/>
+      <c r="J25" s="93"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="13" t="s">
@@ -3240,7 +3218,7 @@
       <c r="Q25" s="15">
         <v>0.57714986420537495</v>
       </c>
-      <c r="S25" s="76"/>
+      <c r="S25" s="93"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="13" t="s">
@@ -3260,7 +3238,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="16" t="s">
@@ -3278,7 +3256,7 @@
       <c r="H26" s="20">
         <v>0.32774660012482898</v>
       </c>
-      <c r="J26" s="77"/>
+      <c r="J26" s="94"/>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="16" t="s">
@@ -3296,7 +3274,7 @@
       <c r="Q26" s="20">
         <v>0.21330625309083201</v>
       </c>
-      <c r="S26" s="77"/>
+      <c r="S26" s="94"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="16" t="s">
@@ -3316,7 +3294,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="89" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="41"/>
@@ -3336,7 +3314,7 @@
       <c r="H27" s="10">
         <v>4.0137352839097598E-2</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="89" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="41"/>
@@ -3356,7 +3334,7 @@
       <c r="Q27" s="5">
         <v>0.65952820034885495</v>
       </c>
-      <c r="S27" s="72" t="s">
+      <c r="S27" s="89" t="s">
         <v>23</v>
       </c>
       <c r="T27" s="41"/>
@@ -3378,7 +3356,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
@@ -3396,7 +3374,7 @@
       <c r="H28" s="10">
         <v>3.5068868917491801E-2</v>
       </c>
-      <c r="J28" s="73"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
       <c r="M28" s="3" t="s">
@@ -3414,7 +3392,7 @@
       <c r="Q28" s="5">
         <v>0.94359388051558002</v>
       </c>
-      <c r="S28" s="73"/>
+      <c r="S28" s="90"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
       <c r="V28" s="3" t="s">
@@ -3434,7 +3412,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="41">
         <v>0.71</v>
       </c>
@@ -3456,7 +3434,7 @@
       <c r="H29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="73"/>
+      <c r="J29" s="90"/>
       <c r="K29" s="41">
         <v>0.68</v>
       </c>
@@ -3478,7 +3456,7 @@
       <c r="Q29" s="5">
         <v>0.96316540129969996</v>
       </c>
-      <c r="S29" s="73"/>
+      <c r="S29" s="90"/>
       <c r="T29" s="41">
         <v>0.05</v>
       </c>
@@ -3503,7 +3481,7 @@
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="3" t="s">
@@ -3521,7 +3499,7 @@
       <c r="H30" s="5">
         <v>7.7615500578327001E-2</v>
       </c>
-      <c r="J30" s="73"/>
+      <c r="J30" s="90"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="3" t="s">
@@ -3539,7 +3517,7 @@
       <c r="Q30" s="5">
         <v>0.83562337156051503</v>
       </c>
-      <c r="S30" s="73"/>
+      <c r="S30" s="90"/>
       <c r="T30" s="41"/>
       <c r="U30" s="41"/>
       <c r="V30" s="3" t="s">
@@ -3559,7 +3537,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
@@ -3577,7 +3555,7 @@
       <c r="H31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="74"/>
+      <c r="J31" s="91"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="6" t="s">
@@ -3595,7 +3573,7 @@
       <c r="Q31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S31" s="74"/>
+      <c r="S31" s="91"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="6" t="s">
@@ -3620,12 +3598,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="S27:S31"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="J7:J11"/>
@@ -3638,6 +3610,12 @@
     <mergeCell ref="S12:S16"/>
     <mergeCell ref="S17:S21"/>
     <mergeCell ref="S22:S26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3739,7 +3717,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="92" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="44"/>
@@ -3759,7 +3737,7 @@
       <c r="H2" s="26">
         <v>0.232594480943555</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="92" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="43"/>
@@ -3779,7 +3757,7 @@
       <c r="Q2" s="26">
         <v>0.58051575449478299</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="92" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="43"/>
@@ -3801,7 +3779,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="13" t="s">
@@ -3819,7 +3797,7 @@
       <c r="H3" s="15">
         <v>0.72085458380743095</v>
       </c>
-      <c r="J3" s="76"/>
+      <c r="J3" s="93"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="13" t="s">
@@ -3837,7 +3815,7 @@
       <c r="Q3" s="15">
         <v>0.22034570029552</v>
       </c>
-      <c r="S3" s="76"/>
+      <c r="S3" s="93"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="13" t="s">
@@ -3857,7 +3835,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="44">
         <v>0.7</v>
       </c>
@@ -3879,7 +3857,7 @@
       <c r="H4" s="22">
         <v>1.62257649215358E-3</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="44">
         <v>0.41</v>
       </c>
@@ -3901,7 +3879,7 @@
       <c r="Q4" s="15">
         <v>0.45992161771271001</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="93"/>
       <c r="T4" s="44">
         <v>0.44</v>
       </c>
@@ -3925,7 +3903,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="13" t="s">
@@ -3943,7 +3921,7 @@
       <c r="H5" s="15">
         <v>0.90736653483351304</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="13" t="s">
@@ -3961,7 +3939,7 @@
       <c r="Q5" s="15">
         <v>0.49155219186801202</v>
       </c>
-      <c r="S5" s="76"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="13" t="s">
@@ -3981,7 +3959,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="16" t="s">
@@ -3999,7 +3977,7 @@
       <c r="H6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="77"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="16" t="s">
@@ -4017,7 +3995,7 @@
       <c r="Q6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="77"/>
+      <c r="S6" s="94"/>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="16" t="s">
@@ -4037,7 +4015,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="89" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="41"/>
@@ -4057,7 +4035,7 @@
       <c r="H7" s="27">
         <v>0.552259009406043</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="89" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="40"/>
@@ -4077,7 +4055,7 @@
       <c r="Q7" s="27">
         <v>0.32181313500870801</v>
       </c>
-      <c r="S7" s="72" t="s">
+      <c r="S7" s="89" t="s">
         <v>19</v>
       </c>
       <c r="T7" s="40"/>
@@ -4099,7 +4077,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
@@ -4117,7 +4095,7 @@
       <c r="H8" s="5">
         <v>0.32335190904313799</v>
       </c>
-      <c r="J8" s="73"/>
+      <c r="J8" s="90"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="3" t="s">
@@ -4135,7 +4113,7 @@
       <c r="Q8" s="5">
         <v>0.85330548504150305</v>
       </c>
-      <c r="S8" s="73"/>
+      <c r="S8" s="90"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
       <c r="V8" s="3" t="s">
@@ -4155,7 +4133,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="41">
         <v>0.39</v>
       </c>
@@ -4177,7 +4155,7 @@
       <c r="H9" s="5">
         <v>0.124419258908589</v>
       </c>
-      <c r="J9" s="73"/>
+      <c r="J9" s="90"/>
       <c r="K9" s="41">
         <v>0.2</v>
       </c>
@@ -4199,7 +4177,7 @@
       <c r="Q9" s="5">
         <v>0.46405023322165001</v>
       </c>
-      <c r="S9" s="73"/>
+      <c r="S9" s="90"/>
       <c r="T9" s="41">
         <v>0.46</v>
       </c>
@@ -4223,7 +4201,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="3" t="s">
@@ -4241,7 +4219,7 @@
       <c r="H10" s="5">
         <v>0.65137158175371701</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="90"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="3" t="s">
@@ -4259,7 +4237,7 @@
       <c r="Q10" s="5">
         <v>0.69125847064969603</v>
       </c>
-      <c r="S10" s="73"/>
+      <c r="S10" s="90"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="3" t="s">
@@ -4279,7 +4257,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
@@ -4297,7 +4275,7 @@
       <c r="H11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="6" t="s">
@@ -4315,7 +4293,7 @@
       <c r="Q11" s="12">
         <v>5.7849128320341904E-4</v>
       </c>
-      <c r="S11" s="74"/>
+      <c r="S11" s="91"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="6" t="s">
@@ -4335,7 +4313,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="43"/>
@@ -4355,7 +4333,7 @@
       <c r="H12" s="26">
         <v>0.80183396861683798</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="92" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="43"/>
@@ -4375,7 +4353,7 @@
       <c r="Q12" s="26">
         <v>0.396063757387072</v>
       </c>
-      <c r="S12" s="75" t="s">
+      <c r="S12" s="92" t="s">
         <v>20</v>
       </c>
       <c r="T12" s="43"/>
@@ -4397,7 +4375,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
@@ -4415,7 +4393,7 @@
       <c r="H13" s="15">
         <v>0.81920679808716201</v>
       </c>
-      <c r="J13" s="76"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="13" t="s">
@@ -4433,7 +4411,7 @@
       <c r="Q13" s="15">
         <v>0.47782379499238098</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13" s="93"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="13" t="s">
@@ -4453,7 +4431,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="44">
         <v>0.46</v>
       </c>
@@ -4475,7 +4453,7 @@
       <c r="H14" s="22">
         <v>1.1522972880144901E-2</v>
       </c>
-      <c r="J14" s="76"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="44">
         <v>0.27</v>
       </c>
@@ -4497,7 +4475,7 @@
       <c r="Q14" s="15">
         <v>0.63983558618550995</v>
       </c>
-      <c r="S14" s="76"/>
+      <c r="S14" s="93"/>
       <c r="T14" s="44">
         <v>0.17</v>
       </c>
@@ -4521,7 +4499,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="13" t="s">
@@ -4539,7 +4517,7 @@
       <c r="H15" s="15">
         <v>0.71318423509832796</v>
       </c>
-      <c r="J15" s="76"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="13" t="s">
@@ -4557,7 +4535,7 @@
       <c r="Q15" s="15">
         <v>0.12996489935105601</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15" s="93"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="13" t="s">
@@ -4577,7 +4555,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
@@ -4595,7 +4573,7 @@
       <c r="H16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="77"/>
+      <c r="J16" s="94"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
       <c r="M16" s="16" t="s">
@@ -4613,7 +4591,7 @@
       <c r="Q16" s="19">
         <v>6.4203448897037795E-4</v>
       </c>
-      <c r="S16" s="77"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="16" t="s">
@@ -4633,7 +4611,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="89" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="40"/>
@@ -4653,7 +4631,7 @@
       <c r="H17" s="28">
         <v>1.4661160013996999E-2</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="89" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="40"/>
@@ -4673,7 +4651,7 @@
       <c r="Q17" s="27">
         <v>0.63226305707268105</v>
       </c>
-      <c r="S17" s="72" t="s">
+      <c r="S17" s="89" t="s">
         <v>21</v>
       </c>
       <c r="T17" s="40"/>
@@ -4695,7 +4673,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="3" t="s">
@@ -4713,7 +4691,7 @@
       <c r="H18" s="10">
         <v>1.03589205298071E-4</v>
       </c>
-      <c r="J18" s="73"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
       <c r="M18" s="3" t="s">
@@ -4731,7 +4709,7 @@
       <c r="Q18" s="5">
         <v>0.63091798944421296</v>
       </c>
-      <c r="S18" s="73"/>
+      <c r="S18" s="90"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="3" t="s">
@@ -4751,7 +4729,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="41">
         <v>0.37</v>
       </c>
@@ -4773,7 +4751,7 @@
       <c r="H19" s="10">
         <v>3.4893820447861899E-2</v>
       </c>
-      <c r="J19" s="73"/>
+      <c r="J19" s="90"/>
       <c r="K19" s="41">
         <v>0.12</v>
       </c>
@@ -4795,7 +4773,7 @@
       <c r="Q19" s="5">
         <v>0.19006605256154599</v>
       </c>
-      <c r="S19" s="73"/>
+      <c r="S19" s="90"/>
       <c r="T19" s="41">
         <v>0.09</v>
       </c>
@@ -4819,7 +4797,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="3" t="s">
@@ -4837,7 +4815,7 @@
       <c r="H20" s="5">
         <v>0.58894272291956795</v>
       </c>
-      <c r="J20" s="73"/>
+      <c r="J20" s="90"/>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="3" t="s">
@@ -4855,7 +4833,7 @@
       <c r="Q20" s="5">
         <v>0.45770082770904802</v>
       </c>
-      <c r="S20" s="73"/>
+      <c r="S20" s="90"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
       <c r="V20" s="3" t="s">
@@ -4875,7 +4853,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="6" t="s">
@@ -4893,7 +4871,7 @@
       <c r="H21" s="8">
         <v>8.1306385386086505E-2</v>
       </c>
-      <c r="J21" s="74"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="6" t="s">
@@ -4911,7 +4889,7 @@
       <c r="Q21" s="8">
         <v>0.17256483293313099</v>
       </c>
-      <c r="S21" s="74"/>
+      <c r="S21" s="91"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="6" t="s">
@@ -4931,7 +4909,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="43"/>
@@ -4951,7 +4929,7 @@
       <c r="H22" s="26">
         <v>0.156590362282719</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="92" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="43"/>
@@ -4971,7 +4949,7 @@
       <c r="Q22" s="26">
         <v>0.69885942821946401</v>
       </c>
-      <c r="S22" s="75" t="s">
+      <c r="S22" s="92" t="s">
         <v>22</v>
       </c>
       <c r="T22" s="43"/>
@@ -4993,7 +4971,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="13" t="s">
@@ -5011,7 +4989,7 @@
       <c r="H23" s="15">
         <v>0.904389521648304</v>
       </c>
-      <c r="J23" s="76"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="13" t="s">
@@ -5029,7 +5007,7 @@
       <c r="Q23" s="15">
         <v>0.62584133799445296</v>
       </c>
-      <c r="S23" s="76"/>
+      <c r="S23" s="93"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
       <c r="V23" s="13" t="s">
@@ -5049,7 +5027,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="44">
         <v>0.1</v>
       </c>
@@ -5071,7 +5049,7 @@
       <c r="H24" s="15">
         <v>0.30569527576697603</v>
       </c>
-      <c r="J24" s="76"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="44">
         <v>0.08</v>
       </c>
@@ -5093,7 +5071,7 @@
       <c r="Q24" s="15">
         <v>0.56359297147337195</v>
       </c>
-      <c r="S24" s="76"/>
+      <c r="S24" s="93"/>
       <c r="T24" s="44">
         <v>0.1</v>
       </c>
@@ -5117,7 +5095,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="13" t="s">
@@ -5135,7 +5113,7 @@
       <c r="H25" s="15">
         <v>0.68583510960772898</v>
       </c>
-      <c r="J25" s="76"/>
+      <c r="J25" s="93"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="13" t="s">
@@ -5153,7 +5131,7 @@
       <c r="Q25" s="15">
         <v>0.70588105337253604</v>
       </c>
-      <c r="S25" s="76"/>
+      <c r="S25" s="93"/>
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
       <c r="V25" s="13" t="s">
@@ -5173,7 +5151,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="16" t="s">
@@ -5191,7 +5169,7 @@
       <c r="H26" s="20">
         <v>0.41122866769062399</v>
       </c>
-      <c r="J26" s="77"/>
+      <c r="J26" s="94"/>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="16" t="s">
@@ -5209,7 +5187,7 @@
       <c r="Q26" s="20">
         <v>0.24845922044221999</v>
       </c>
-      <c r="S26" s="77"/>
+      <c r="S26" s="94"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="16" t="s">
@@ -5229,7 +5207,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="89" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="40"/>
@@ -5249,7 +5227,7 @@
       <c r="H27" s="28">
         <v>1.02956589885583E-2</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="89" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="40"/>
@@ -5269,7 +5247,7 @@
       <c r="Q27" s="27">
         <v>0.91086414946984995</v>
       </c>
-      <c r="S27" s="72" t="s">
+      <c r="S27" s="89" t="s">
         <v>23</v>
       </c>
       <c r="T27" s="40"/>
@@ -5291,7 +5269,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
@@ -5309,7 +5287,7 @@
       <c r="H28" s="10">
         <v>4.8954711894798199E-2</v>
       </c>
-      <c r="J28" s="73"/>
+      <c r="J28" s="90"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
       <c r="M28" s="3" t="s">
@@ -5327,7 +5305,7 @@
       <c r="Q28" s="5">
         <v>0.95282317254778404</v>
       </c>
-      <c r="S28" s="73"/>
+      <c r="S28" s="90"/>
       <c r="T28" s="41"/>
       <c r="U28" s="41"/>
       <c r="V28" s="3" t="s">
@@ -5347,7 +5325,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="41">
         <v>0.54</v>
       </c>
@@ -5369,7 +5347,7 @@
       <c r="H29" s="5">
         <v>0.60274047594928004</v>
       </c>
-      <c r="J29" s="73"/>
+      <c r="J29" s="90"/>
       <c r="K29" s="41">
         <v>0.68</v>
       </c>
@@ -5391,7 +5369,7 @@
       <c r="Q29" s="5">
         <v>0.72885199050288396</v>
       </c>
-      <c r="S29" s="73"/>
+      <c r="S29" s="90"/>
       <c r="T29" s="41">
         <v>0.05</v>
       </c>
@@ -5415,7 +5393,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="3" t="s">
@@ -5433,7 +5411,7 @@
       <c r="H30" s="5">
         <v>0.100097196819914</v>
       </c>
-      <c r="J30" s="73"/>
+      <c r="J30" s="90"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="3" t="s">
@@ -5451,7 +5429,7 @@
       <c r="Q30" s="5">
         <v>0.45481679394520702</v>
       </c>
-      <c r="S30" s="73"/>
+      <c r="S30" s="90"/>
       <c r="T30" s="41"/>
       <c r="U30" s="41"/>
       <c r="V30" s="3" t="s">
@@ -5471,7 +5449,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
@@ -5489,7 +5467,7 @@
       <c r="H31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="74"/>
+      <c r="J31" s="91"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="6" t="s">
@@ -5507,7 +5485,7 @@
       <c r="Q31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S31" s="74"/>
+      <c r="S31" s="91"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="6" t="s">
@@ -5528,12 +5506,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
     <mergeCell ref="S27:S31"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="J7:J11"/>
@@ -5546,6 +5518,12 @@
     <mergeCell ref="S12:S16"/>
     <mergeCell ref="S17:S21"/>
     <mergeCell ref="S22:S26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5896,13 +5874,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="95">
         <v>0.02</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="95">
         <v>0.13</v>
       </c>
       <c r="D2" s="43" t="s">
@@ -5922,9 +5900,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="45" t="s">
         <v>29</v>
       </c>
@@ -5942,13 +5920,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="97">
         <v>0.01</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="97">
         <v>0.42</v>
       </c>
       <c r="D4" s="40" t="s">
@@ -5968,9 +5946,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="42" t="s">
         <v>29</v>
       </c>
@@ -5988,13 +5966,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="95">
         <v>0.08</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="95">
         <v>0.25</v>
       </c>
       <c r="D6" s="43" t="s">
@@ -6014,9 +5992,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="45" t="s">
         <v>29</v>
       </c>
@@ -6034,13 +6012,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="97">
         <v>0.03</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="97">
         <v>0.15</v>
       </c>
       <c r="D8" s="40" t="s">
@@ -6060,9 +6038,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="42" t="s">
         <v>29</v>
       </c>
@@ -6080,13 +6058,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="95">
         <v>0.01</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="95">
         <v>0.08</v>
       </c>
       <c r="D10" s="43" t="s">
@@ -6106,9 +6084,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="45" t="s">
         <v>29</v>
       </c>
@@ -6127,12 +6105,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -6142,6 +6114,12 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6152,66 +6130,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64F4DAD-9E02-44CC-9B21-7675E393CEAC}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="86" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="86"/>
-    <col min="9" max="9" width="19" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.21875" style="86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="86"/>
-    <col min="17" max="17" width="19" style="86" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.77734375" style="86" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.21875" style="86" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="86"/>
+    <col min="1" max="1" width="19" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="72"/>
+    <col min="9" max="9" width="19" style="72" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.21875" style="72" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="72"/>
+    <col min="17" max="17" width="19" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.77734375" style="72" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" style="72" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.21875" style="72" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="I1" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
     </row>
     <row r="2" spans="1:23" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -6279,7 +6257,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="73" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="37">
@@ -6288,7 +6266,7 @@
       <c r="C3" s="37">
         <v>0.88131467557302301</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="79">
         <v>-9.8019035084793801E-2</v>
       </c>
       <c r="E3" s="26">
@@ -6297,10 +6275,10 @@
       <c r="F3" s="37">
         <v>-6.3508284610398702</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="73" t="s">
         <v>96</v>
       </c>
       <c r="J3" s="37">
@@ -6309,7 +6287,7 @@
       <c r="K3" s="37">
         <v>0.98269129564414703</v>
       </c>
-      <c r="L3" s="100">
+      <c r="L3" s="79">
         <v>-8.2719511879325094E-2</v>
       </c>
       <c r="M3" s="26">
@@ -6318,10 +6296,10 @@
       <c r="N3" s="37">
         <v>-6.8030361808973501</v>
       </c>
-      <c r="O3" s="101" t="s">
+      <c r="O3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="73" t="s">
         <v>91</v>
       </c>
       <c r="R3" s="37">
@@ -6344,137 +6322,137 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="14">
         <v>0.66710783984258804</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="14">
         <v>0.69116857988539004</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="22">
         <v>-8.1197517108981099E-2</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="15">
         <v>1.7548183462441198E-2</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="14">
         <v>-4.62711808790751</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="87">
+      <c r="J4" s="14">
         <v>0.54095534054056704</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="14">
         <v>0.54095534054056704</v>
       </c>
-      <c r="L4" s="88">
+      <c r="L4" s="22">
         <v>-6.2976256741974698E-2</v>
       </c>
-      <c r="M4" s="89">
+      <c r="M4" s="15">
         <v>1.8345248804811299E-2</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="14">
         <v>-3.4328374290273</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="87">
+      <c r="R4" s="14">
         <v>0.34637488087420998</v>
       </c>
-      <c r="S4" s="87">
+      <c r="S4" s="14">
         <v>0.34637488087420998</v>
       </c>
-      <c r="T4" s="88">
+      <c r="T4" s="22">
         <v>-6.2798594397034002E-2</v>
       </c>
-      <c r="U4" s="89">
+      <c r="U4" s="15">
         <v>2.6010263558101199E-2</v>
       </c>
-      <c r="V4" s="87">
+      <c r="V4" s="14">
         <v>-2.4143774728293601</v>
       </c>
-      <c r="W4" s="88">
+      <c r="W4" s="22">
         <v>1.57621233813394E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="14">
         <v>0.43722158845070103</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="14">
         <v>0.68276650095009295</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="22">
         <v>-6.9447617835114106E-2</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="15">
         <v>1.78360931831071E-2</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="14">
         <v>-3.8936563698203401</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="14">
         <v>0.41544290529841699</v>
       </c>
-      <c r="K5" s="87">
+      <c r="K5" s="14">
         <v>0.88424319415291397</v>
       </c>
-      <c r="L5" s="88">
+      <c r="L5" s="22">
         <v>-9.7935331414033197E-2</v>
       </c>
-      <c r="M5" s="89">
+      <c r="M5" s="15">
         <v>1.55869322829492E-2</v>
       </c>
-      <c r="N5" s="87">
+      <c r="N5" s="14">
         <v>-6.2831691083412498</v>
       </c>
-      <c r="O5" s="102" t="s">
+      <c r="O5" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="94" t="s">
+      <c r="Q5" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="R5" s="87">
+      <c r="R5" s="14">
         <v>3.1638961137750998E-2</v>
       </c>
-      <c r="S5" s="87">
+      <c r="S5" s="14">
         <v>0.732389756378788</v>
       </c>
-      <c r="T5" s="89">
+      <c r="T5" s="15">
         <v>3.6323373499386698E-2</v>
       </c>
-      <c r="U5" s="89">
+      <c r="U5" s="15">
         <v>3.18515149172156E-2</v>
       </c>
-      <c r="V5" s="87">
+      <c r="V5" s="14">
         <v>1.14039704528321</v>
       </c>
-      <c r="W5" s="89">
+      <c r="W5" s="15">
         <v>0.25412092330939401</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="75" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="18">
@@ -6492,54 +6470,54 @@
       <c r="F6" s="18">
         <v>-18.514678615668</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="14">
         <v>1.9533976684702001E-2</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="14">
         <v>0.27512693440407698</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="15">
         <v>-1.34765218865127E-2</v>
       </c>
-      <c r="M6" s="89">
+      <c r="M6" s="15">
         <v>3.1028762113403201E-2</v>
       </c>
-      <c r="N6" s="87">
+      <c r="N6" s="14">
         <v>-0.43432354269432299</v>
       </c>
-      <c r="O6" s="89">
+      <c r="O6" s="15">
         <v>0.66405351013498803</v>
       </c>
-      <c r="Q6" s="94" t="s">
+      <c r="Q6" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="R6" s="87">
+      <c r="R6" s="14">
         <v>1.0107195353671601E-3</v>
       </c>
-      <c r="S6" s="87">
+      <c r="S6" s="14">
         <v>0.76172606542772003</v>
       </c>
-      <c r="T6" s="89">
+      <c r="T6" s="15">
         <v>-4.9904882640520697E-3</v>
       </c>
-      <c r="U6" s="89">
+      <c r="U6" s="15">
         <v>2.3103066821470002E-2</v>
       </c>
-      <c r="V6" s="87">
+      <c r="V6" s="14">
         <v>-0.21600977491933401</v>
       </c>
-      <c r="W6" s="89">
+      <c r="W6" s="15">
         <v>0.82898012815102995</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="76" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="38">
@@ -6557,10 +6535,10 @@
       <c r="F7" s="38">
         <v>-4.3548347001684196</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="75" t="s">
         <v>100</v>
       </c>
       <c r="J7" s="18">
@@ -6581,7 +6559,7 @@
       <c r="O7" s="19">
         <v>5.5973949370031802E-3</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="75" t="s">
         <v>95</v>
       </c>
       <c r="R7" s="18">
@@ -6604,28 +6582,28 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="4">
         <v>0.37442313318574599</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="4">
         <v>0.69846202856958906</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="10">
         <v>-4.7330607553170798E-2</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="5">
         <v>1.36650135243821E-2</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="4">
         <v>-3.4636341536523299</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="76" t="s">
         <v>101</v>
       </c>
       <c r="J8" s="38">
@@ -6646,7 +6624,7 @@
       <c r="O8" s="27">
         <v>0.31407250314297303</v>
       </c>
-      <c r="Q8" s="96" t="s">
+      <c r="Q8" s="76" t="s">
         <v>96</v>
       </c>
       <c r="R8" s="38">
@@ -6669,72 +6647,72 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="4">
         <v>0.33918961529897002</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="4">
         <v>0.75550333014474902</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="10">
         <v>-8.4221681329308906E-2</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="5">
         <v>2.1559702556969099E-2</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="4">
         <v>-3.9064398549452299</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="4">
         <v>0.101603224848101</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="4">
         <v>0.101603224848101</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="5">
         <v>-3.5420093581485901E-2</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="5">
         <v>3.3306580737482598E-2</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="4">
         <v>-1.0634563139537401</v>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="5">
         <v>0.28757506642501701</v>
       </c>
-      <c r="Q9" s="97" t="s">
+      <c r="Q9" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="90">
+      <c r="R9" s="4">
         <v>0.354908032017622</v>
       </c>
-      <c r="S9" s="90">
+      <c r="S9" s="4">
         <v>0.354908032017622</v>
       </c>
-      <c r="T9" s="91">
+      <c r="T9" s="10">
         <v>-5.4365749028637299E-2</v>
       </c>
-      <c r="U9" s="92">
+      <c r="U9" s="5">
         <v>2.2099473980815999E-2</v>
       </c>
-      <c r="V9" s="90">
+      <c r="V9" s="4">
         <v>-2.4600471973147799</v>
       </c>
-      <c r="W9" s="91">
+      <c r="W9" s="10">
         <v>1.38918745547432E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="78" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="7">
@@ -6755,137 +6733,137 @@
       <c r="G10" s="12">
         <v>2.7756055244445601E-2</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="4">
         <v>0.15756520680198799</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="4">
         <v>0.73108462704673005</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="10">
         <v>-5.0350828191650501E-2</v>
       </c>
-      <c r="M10" s="92">
+      <c r="M10" s="5">
         <v>1.98329779456787E-2</v>
       </c>
-      <c r="N10" s="90">
+      <c r="N10" s="4">
         <v>-2.53874271072949</v>
       </c>
-      <c r="O10" s="91">
+      <c r="O10" s="10">
         <v>1.1125160556327601E-2</v>
       </c>
-      <c r="Q10" s="97" t="s">
+      <c r="Q10" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="90">
+      <c r="R10" s="4">
         <v>1.7616663646243699E-2</v>
       </c>
-      <c r="S10" s="90">
+      <c r="S10" s="4">
         <v>0.82252804997691598</v>
       </c>
-      <c r="T10" s="92">
+      <c r="T10" s="5">
         <v>2.5971980464054901E-2</v>
       </c>
-      <c r="U10" s="92">
+      <c r="U10" s="5">
         <v>2.4854884787504101E-2</v>
       </c>
-      <c r="V10" s="90">
+      <c r="V10" s="4">
         <v>1.0449447135282</v>
       </c>
-      <c r="W10" s="92">
+      <c r="W10" s="5">
         <v>0.29604852248576302</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="14">
         <v>0.26646274201391701</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="14">
         <v>0.83462650200239996</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="22">
         <v>-9.2511900443405501E-2</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="15">
         <v>2.1974346587643401E-2</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="14">
         <v>-4.2099955088278698</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="97" t="s">
+      <c r="I11" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="4">
         <v>0.18328422474660599</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="4">
         <v>0.63382211688654899</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="5">
         <v>-5.5787618156151297E-2</v>
       </c>
-      <c r="M11" s="92">
+      <c r="M11" s="5">
         <v>2.9803846025700399E-2</v>
       </c>
-      <c r="N11" s="90">
+      <c r="N11" s="4">
         <v>-1.87182614311068</v>
       </c>
-      <c r="O11" s="92">
+      <c r="O11" s="5">
         <v>6.1230660171244698E-2</v>
       </c>
-      <c r="Q11" s="97" t="s">
+      <c r="Q11" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="R11" s="90">
+      <c r="R11" s="4">
         <v>4.7238136378487203E-3</v>
       </c>
-      <c r="S11" s="90">
+      <c r="S11" s="4">
         <v>0.75013495507449501</v>
       </c>
-      <c r="T11" s="92">
+      <c r="T11" s="5">
         <v>-8.9291439480759204E-3</v>
       </c>
-      <c r="U11" s="92">
+      <c r="U11" s="5">
         <v>1.9580323199494501E-2</v>
       </c>
-      <c r="V11" s="90">
+      <c r="V11" s="4">
         <v>-0.45602638205208101</v>
       </c>
-      <c r="W11" s="92">
+      <c r="W11" s="5">
         <v>0.64837100708135498</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="14">
         <v>8.4171884694533294E-2</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="14">
         <v>0.235545162308925</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="15">
         <v>-2.83530127645054E-2</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="15">
         <v>2.7254372250901101E-2</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="14">
         <v>-1.0403106152469901</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="15">
         <v>0.298195613987704</v>
       </c>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="78" t="s">
         <v>105</v>
       </c>
       <c r="J12" s="7">
@@ -6906,7 +6884,7 @@
       <c r="O12" s="8">
         <v>0.10399222281932501</v>
       </c>
-      <c r="Q12" s="98" t="s">
+      <c r="Q12" s="78" t="s">
         <v>100</v>
       </c>
       <c r="R12" s="7">
@@ -6929,72 +6907,72 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="14">
         <v>0.26412414648485699</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="14">
         <v>0.77495461837118496</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="22">
         <v>-7.0813458301321006E-2</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="15">
         <v>1.9708358833297999E-2</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="14">
         <v>-3.59306723103089</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="94" t="s">
+      <c r="I13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="14">
         <v>0.38932878875545501</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="14">
         <v>0.57064987846292703</v>
       </c>
-      <c r="L13" s="89">
+      <c r="L13" s="15">
         <v>-0.18126241235592999</v>
       </c>
-      <c r="M13" s="89">
+      <c r="M13" s="15">
         <v>9.3535906220054005E-2</v>
       </c>
-      <c r="N13" s="87">
+      <c r="N13" s="14">
         <v>-1.9378912300212201</v>
       </c>
-      <c r="O13" s="89">
+      <c r="O13" s="15">
         <v>5.2636494155608997E-2</v>
       </c>
-      <c r="Q13" s="94" t="s">
+      <c r="Q13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="R13" s="87">
-        <v>9.9575877666512796E-2</v>
-      </c>
-      <c r="S13" s="87">
-        <v>9.9575877666512796E-2</v>
-      </c>
-      <c r="T13" s="89">
-        <v>-7.2883661044314402E-2</v>
-      </c>
-      <c r="U13" s="89">
-        <v>6.60815659856369E-2</v>
-      </c>
-      <c r="V13" s="87">
-        <v>-1.10293483450674</v>
-      </c>
-      <c r="W13" s="89">
-        <v>0.27005546538923098</v>
+      <c r="R13" s="14">
+        <v>4.5165638283528098E-2</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.401445866536773</v>
+      </c>
+      <c r="T13" s="15">
+        <v>5.6646123525934199E-2</v>
+      </c>
+      <c r="U13" s="15">
+        <v>6.2175815984151402E-2</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0.91106361258488699</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0.36226185741713901</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="75" t="s">
         <v>110</v>
       </c>
       <c r="B14" s="18">
@@ -7015,51 +6993,51 @@
       <c r="G14" s="19">
         <v>7.76072663314942E-3</v>
       </c>
-      <c r="I14" s="94" t="s">
+      <c r="I14" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="14">
         <v>9.8207379389655694E-2</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="14">
         <v>0.24063340614060799</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="15">
         <v>-4.8336095435263501E-2</v>
       </c>
-      <c r="M14" s="89">
+      <c r="M14" s="15">
         <v>4.2859419212394598E-2</v>
       </c>
-      <c r="N14" s="87">
+      <c r="N14" s="14">
         <v>-1.1277823247144001</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="15">
         <v>0.259411859844703</v>
       </c>
-      <c r="Q14" s="94" t="s">
+      <c r="Q14" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="R14" s="87">
-        <v>9.1057801525080695E-2</v>
-      </c>
-      <c r="S14" s="87">
-        <v>0.41774973683205502</v>
-      </c>
-      <c r="T14" s="89">
-        <v>7.7508190238214494E-2</v>
-      </c>
-      <c r="U14" s="89">
-        <v>5.9094562317178398E-2</v>
-      </c>
-      <c r="V14" s="87">
-        <v>1.31159597768412</v>
-      </c>
-      <c r="W14" s="89">
-        <v>0.18965649091679801</v>
+      <c r="R14" s="14">
+        <v>3.22213452033831E-2</v>
+      </c>
+      <c r="S14" s="14">
+        <v>3.22213452033831E-2</v>
+      </c>
+      <c r="T14" s="15">
+        <v>4.3292058558877501E-2</v>
+      </c>
+      <c r="U14" s="15">
+        <v>7.1536564623769394E-2</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0.60517385460935103</v>
+      </c>
+      <c r="W14" s="15">
+        <v>0.54506348602683696</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="76" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="38">
@@ -7080,137 +7058,137 @@
       <c r="G15" s="28">
         <v>2.97548504107359E-2</v>
       </c>
-      <c r="I15" s="94" t="s">
+      <c r="I15" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="87">
+      <c r="J15" s="14">
         <v>8.7920706129776094E-2</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="14">
         <v>0.58608089905612204</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L15" s="15">
         <v>-5.84422134248474E-2</v>
       </c>
-      <c r="M15" s="89">
+      <c r="M15" s="15">
         <v>3.8233359786043898E-2</v>
       </c>
-      <c r="N15" s="87">
+      <c r="N15" s="14">
         <v>-1.52856598927987</v>
       </c>
-      <c r="O15" s="89">
+      <c r="O15" s="15">
         <v>0.12637207281625701</v>
       </c>
-      <c r="Q15" s="94" t="s">
+      <c r="Q15" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="R15" s="87">
-        <v>7.3859723705051297E-2</v>
-      </c>
-      <c r="S15" s="87">
-        <v>0.163151144842691</v>
-      </c>
-      <c r="T15" s="89">
-        <v>5.1694166598557897E-2</v>
-      </c>
-      <c r="U15" s="89">
-        <v>5.2464419191421897E-2</v>
-      </c>
-      <c r="V15" s="87">
-        <v>0.98531857200108197</v>
-      </c>
-      <c r="W15" s="89">
-        <v>0.32446761294080001</v>
+      <c r="R15" s="14">
+        <v>0.10291303606636799</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0.10291303606636799</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0.105484182223472</v>
+      </c>
+      <c r="U15" s="15">
+        <v>9.3901617939857004E-2</v>
+      </c>
+      <c r="V15" s="14">
+        <v>1.12334786703072</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0.26128978175907203</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="4">
         <v>0.25628763704936902</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="4">
         <v>0.25628763704936902</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="5">
         <v>6.6542971557223801E-2</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="5">
         <v>3.5846013409580997E-2</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="4">
         <v>1.8563562646952001</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="5">
         <v>6.3402794230564205E-2</v>
       </c>
-      <c r="I16" s="94" t="s">
+      <c r="I16" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="87">
+      <c r="J16" s="14">
         <v>0.22467498765110999</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="14">
         <v>0.23449139622892201</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="15">
         <v>-4.9190359922241703E-2</v>
       </c>
-      <c r="M16" s="89">
+      <c r="M16" s="15">
         <v>3.4318528271432398E-2</v>
       </c>
-      <c r="N16" s="87">
+      <c r="N16" s="14">
         <v>-1.43334701107183</v>
       </c>
-      <c r="O16" s="89">
+      <c r="O16" s="15">
         <v>0.15175869343675799</v>
       </c>
-      <c r="Q16" s="94" t="s">
+      <c r="Q16" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="R16" s="87">
-        <v>6.83307397796886E-4</v>
-      </c>
-      <c r="S16" s="87">
-        <v>0.33652331172221001</v>
-      </c>
-      <c r="T16" s="89">
-        <v>-5.2837806432061299E-3</v>
-      </c>
-      <c r="U16" s="89">
-        <v>4.9642450308114497E-2</v>
-      </c>
-      <c r="V16" s="87">
-        <v>-0.106436741345591</v>
-      </c>
-      <c r="W16" s="89">
-        <v>0.91523584325324603</v>
+      <c r="R16" s="14">
+        <v>0.13893617771941599</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0.13893617771941599</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0.122744776446175</v>
+      </c>
+      <c r="U16" s="15">
+        <v>9.21333101305358E-2</v>
+      </c>
+      <c r="V16" s="14">
+        <v>1.3322518888366099</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0.18277743084204801</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="4">
         <v>6.5515203743213096E-2</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="4">
         <v>6.5515203743213096E-2</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="5">
         <v>2.1089191579322299E-2</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="5">
         <v>2.4014782713818499E-2</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="4">
         <v>0.87817540681670303</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="5">
         <v>0.37984853607715602</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="75" t="s">
         <v>110</v>
       </c>
       <c r="J17" s="18">
@@ -7231,30 +7209,30 @@
       <c r="O17" s="20">
         <v>0.16984067724777799</v>
       </c>
-      <c r="Q17" s="95" t="s">
+      <c r="Q17" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="18">
-        <v>7.8784432890102903E-3</v>
-      </c>
-      <c r="S17" s="18">
-        <v>0.178996798205524</v>
-      </c>
-      <c r="T17" s="20">
-        <v>-1.99248073927208E-2</v>
-      </c>
-      <c r="U17" s="20">
-        <v>6.1326758214875897E-2</v>
-      </c>
-      <c r="V17" s="18">
-        <v>-0.324895819911246</v>
-      </c>
-      <c r="W17" s="20">
-        <v>0.74525992065149105</v>
+      <c r="R17" s="14">
+        <v>3.5473197707425803E-2</v>
+      </c>
+      <c r="S17" s="14">
+        <v>7.2853369014679994E-2</v>
+      </c>
+      <c r="T17" s="15">
+        <v>6.4594188471490094E-2</v>
+      </c>
+      <c r="U17" s="15">
+        <v>9.9568312415508495E-2</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0.648742425219904</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0.51650487728265904</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="78" t="s">
         <v>115</v>
       </c>
       <c r="B18" s="7">
@@ -7275,7 +7253,7 @@
       <c r="G18" s="8">
         <v>0.53909864335053403</v>
       </c>
-      <c r="I18" s="96" t="s">
+      <c r="I18" s="76" t="s">
         <v>111</v>
       </c>
       <c r="J18" s="38">
@@ -7296,7 +7274,7 @@
       <c r="O18" s="28">
         <v>1.91185992134018E-2</v>
       </c>
-      <c r="Q18" s="96" t="s">
+      <c r="Q18" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R18" s="38">
@@ -7319,202 +7297,202 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="87">
+      <c r="B19" s="14">
         <v>9.5581582708037793E-2</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="14">
         <v>0.34026101597870301</v>
       </c>
-      <c r="D19" s="89">
+      <c r="D19" s="15">
         <v>-5.6115551636423799E-3</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="15">
         <v>4.4451442494566002E-3</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="14">
         <v>-1.26240113902454</v>
       </c>
-      <c r="G19" s="89">
+      <c r="G19" s="15">
         <v>0.206804479579376</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19" s="4">
         <v>2.4922759350102699E-2</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="4">
         <v>0.60104715813802001</v>
       </c>
-      <c r="L19" s="92">
+      <c r="L19" s="5">
         <v>-2.93652208942441E-2</v>
       </c>
-      <c r="M19" s="92">
+      <c r="M19" s="5">
         <v>3.7838301756401203E-2</v>
       </c>
-      <c r="N19" s="90">
+      <c r="N19" s="4">
         <v>-0.77607132273784696</v>
       </c>
-      <c r="O19" s="92">
+      <c r="O19" s="5">
         <v>0.43770687490134502</v>
       </c>
-      <c r="Q19" s="97" t="s">
+      <c r="Q19" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="R19" s="90">
+      <c r="R19" s="4">
         <v>8.5901561933159705E-4</v>
       </c>
-      <c r="S19" s="90">
+      <c r="S19" s="4">
         <v>6.95694665450486E-2</v>
       </c>
-      <c r="T19" s="92">
+      <c r="T19" s="5">
         <v>4.5633440472272104E-3</v>
       </c>
-      <c r="U19" s="92">
+      <c r="U19" s="5">
         <v>4.5282283268598698E-2</v>
       </c>
-      <c r="V19" s="90">
+      <c r="V19" s="4">
         <v>0.100775484755463</v>
       </c>
-      <c r="W19" s="92">
+      <c r="W19" s="5">
         <v>0.91972868808040498</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="87">
+      <c r="B20" s="14">
         <v>0.28075361111592501</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="14">
         <v>0.28075361111592501</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="22">
         <v>2.90715235400031E-2</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="15">
         <v>1.47144475693076E-2</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="14">
         <v>1.97571287695791</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="22">
         <v>4.8187305655134502E-2</v>
       </c>
-      <c r="I20" s="97" t="s">
+      <c r="I20" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="4">
         <v>3.7945554577965101E-3</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="4">
         <v>0.79815728626245397</v>
       </c>
-      <c r="L20" s="92">
+      <c r="L20" s="5">
         <v>-1.3825086280082E-2</v>
       </c>
-      <c r="M20" s="92">
+      <c r="M20" s="5">
         <v>3.0401680726775699E-2</v>
       </c>
-      <c r="N20" s="90">
+      <c r="N20" s="4">
         <v>-0.45474743335179502</v>
       </c>
-      <c r="O20" s="92">
+      <c r="O20" s="5">
         <v>0.64929095188022901</v>
       </c>
-      <c r="Q20" s="97" t="s">
+      <c r="Q20" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="R20" s="90">
+      <c r="R20" s="4">
         <v>0.13708332140079299</v>
       </c>
-      <c r="S20" s="90">
+      <c r="S20" s="4">
         <v>0.13708332140079299</v>
       </c>
-      <c r="T20" s="92">
+      <c r="T20" s="5">
         <v>5.3209105457176498E-2</v>
       </c>
-      <c r="U20" s="92">
+      <c r="U20" s="5">
         <v>4.0251469248442397E-2</v>
       </c>
-      <c r="V20" s="90">
+      <c r="V20" s="4">
         <v>1.3219170989450399</v>
       </c>
-      <c r="W20" s="92">
+      <c r="W20" s="5">
         <v>0.18619575791306101</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="87">
+      <c r="B21" s="14">
         <v>0.100227862438392</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="14">
         <v>0.34512518070174403</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="15">
         <v>-4.1669195485705803E-3</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="15">
         <v>3.2114686338049702E-3</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="14">
         <v>-1.2975121427960401</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="15">
         <v>0.194455029826578</v>
       </c>
-      <c r="I21" s="97" t="s">
+      <c r="I21" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="4">
         <v>9.2963834519367797E-3</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="4">
         <v>0.79204737965475003</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L21" s="5">
         <v>-1.24332971375217E-2</v>
       </c>
-      <c r="M21" s="92">
+      <c r="M21" s="5">
         <v>2.2226059716351099E-2</v>
       </c>
-      <c r="N21" s="90">
+      <c r="N21" s="4">
         <v>-0.55940176964317401</v>
       </c>
-      <c r="O21" s="92">
+      <c r="O21" s="5">
         <v>0.57588755391885205</v>
       </c>
-      <c r="Q21" s="97" t="s">
+      <c r="Q21" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="R21" s="90">
+      <c r="R21" s="4">
         <v>4.1082040598559001E-2</v>
       </c>
-      <c r="S21" s="90">
+      <c r="S21" s="4">
         <v>0.31416602684086697</v>
       </c>
-      <c r="T21" s="92">
+      <c r="T21" s="5">
         <v>3.0220272736632699E-2</v>
       </c>
-      <c r="U21" s="92">
+      <c r="U21" s="5">
         <v>3.7229356565358002E-2</v>
       </c>
-      <c r="V21" s="90">
+      <c r="V21" s="4">
         <v>0.81173234040667597</v>
       </c>
-      <c r="W21" s="92">
+      <c r="W21" s="5">
         <v>0.416945232950235</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="75" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="18">
@@ -7535,7 +7513,7 @@
       <c r="G22" s="20">
         <v>0.80710619957312102</v>
       </c>
-      <c r="I22" s="98" t="s">
+      <c r="I22" s="78" t="s">
         <v>115</v>
       </c>
       <c r="J22" s="7">
@@ -7556,7 +7534,7 @@
       <c r="O22" s="8">
         <v>0.97483878997533202</v>
       </c>
-      <c r="Q22" s="98" t="s">
+      <c r="Q22" s="78" t="s">
         <v>110</v>
       </c>
       <c r="R22" s="7">
@@ -7579,7 +7557,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="76" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="38">
@@ -7600,181 +7578,181 @@
       <c r="G23" s="28">
         <v>5.5683932015979697E-3</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="87">
+      <c r="J23" s="14">
         <v>0.52338442286440101</v>
       </c>
-      <c r="K23" s="87">
+      <c r="K23" s="14">
         <v>0.52338442286440101</v>
       </c>
-      <c r="L23" s="88">
+      <c r="L23" s="22">
         <v>-0.14919890369591601</v>
       </c>
-      <c r="M23" s="89">
+      <c r="M23" s="15">
         <v>6.3672858815922107E-2</v>
       </c>
-      <c r="N23" s="87">
+      <c r="N23" s="14">
         <v>-2.3432103799084798</v>
       </c>
-      <c r="O23" s="88">
+      <c r="O23" s="22">
         <v>1.91185992134018E-2</v>
       </c>
-      <c r="Q23" s="94" t="s">
+      <c r="Q23" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="R23" s="87">
+      <c r="R23" s="14">
         <v>1.1420688224372699E-2</v>
       </c>
-      <c r="S23" s="87">
+      <c r="S23" s="14">
         <v>0.44006375730484798</v>
       </c>
-      <c r="T23" s="89">
+      <c r="T23" s="15">
         <v>1.3465919201208499E-2</v>
       </c>
-      <c r="U23" s="89">
+      <c r="U23" s="15">
         <v>2.8429080494077601E-2</v>
       </c>
-      <c r="V23" s="87">
+      <c r="V23" s="14">
         <v>0.47366706791708302</v>
       </c>
-      <c r="W23" s="89">
+      <c r="W23" s="15">
         <v>0.63573734083545197</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="4">
         <v>0.61318316824936403</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="4">
         <v>0.61318316824936403</v>
       </c>
-      <c r="D24" s="91">
+      <c r="D24" s="10">
         <v>0.38876150824737099</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="5">
         <v>9.7642935537949102E-2</v>
       </c>
-      <c r="F24" s="90">
+      <c r="F24" s="4">
         <v>3.9814606771657099</v>
       </c>
-      <c r="G24" s="110" t="s">
+      <c r="G24" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="94" t="s">
+      <c r="I24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J24" s="87">
+      <c r="J24" s="14">
         <v>9.8207379389655694E-2</v>
       </c>
-      <c r="K24" s="87">
+      <c r="K24" s="14">
         <v>0.24063340614060799</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="15">
         <v>-4.8336095435263501E-2</v>
       </c>
-      <c r="M24" s="89">
+      <c r="M24" s="15">
         <v>4.2859419212394598E-2</v>
       </c>
-      <c r="N24" s="87">
+      <c r="N24" s="14">
         <v>-1.1277823247144001</v>
       </c>
-      <c r="O24" s="89">
+      <c r="O24" s="15">
         <v>0.259411859844703</v>
       </c>
-      <c r="Q24" s="94" t="s">
+      <c r="Q24" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="R24" s="87">
+      <c r="R24" s="14">
         <v>0.186781920528337</v>
       </c>
-      <c r="S24" s="87">
+      <c r="S24" s="14">
         <v>0.62083653287280305</v>
       </c>
-      <c r="T24" s="88">
+      <c r="T24" s="22">
         <v>7.0319710480356207E-2</v>
       </c>
-      <c r="U24" s="89">
+      <c r="U24" s="15">
         <v>3.0208318809517101E-2</v>
       </c>
-      <c r="V24" s="87">
+      <c r="V24" s="14">
         <v>2.3278260178518102</v>
       </c>
-      <c r="W24" s="88">
+      <c r="W24" s="22">
         <v>1.99213439444519E-2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="4">
         <v>0.57651066723842403</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="4">
         <v>0.57651066723842403</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="10">
         <v>0.34321871899749701</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="5">
         <v>8.8693580498578894E-2</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="4">
         <v>3.8697131975971599</v>
       </c>
-      <c r="G25" s="110" t="s">
+      <c r="G25" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="94" t="s">
+      <c r="I25" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J25" s="14">
         <v>8.7920706129776094E-2</v>
       </c>
-      <c r="K25" s="87">
+      <c r="K25" s="14">
         <v>0.58608089905612204</v>
       </c>
-      <c r="L25" s="89">
+      <c r="L25" s="15">
         <v>-5.84422134248474E-2</v>
       </c>
-      <c r="M25" s="89">
+      <c r="M25" s="15">
         <v>3.8233359786043898E-2</v>
       </c>
-      <c r="N25" s="87">
+      <c r="N25" s="14">
         <v>-1.52856598927987</v>
       </c>
-      <c r="O25" s="89">
+      <c r="O25" s="15">
         <v>0.12637207281625701</v>
       </c>
-      <c r="Q25" s="94" t="s">
+      <c r="Q25" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="R25" s="87">
+      <c r="R25" s="14">
         <v>4.3525849005857598E-2</v>
       </c>
-      <c r="S25" s="87">
+      <c r="S25" s="14">
         <v>4.3525849005857598E-2</v>
       </c>
-      <c r="T25" s="89">
+      <c r="T25" s="15">
         <v>2.66444489024498E-2</v>
       </c>
-      <c r="U25" s="89">
+      <c r="U25" s="15">
         <v>3.7659399670451503E-2</v>
       </c>
-      <c r="V25" s="87">
+      <c r="V25" s="14">
         <v>0.70751124913326102</v>
       </c>
-      <c r="W25" s="89">
+      <c r="W25" s="15">
         <v>0.47924882453168499</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="78" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="7">
@@ -7795,51 +7773,51 @@
       <c r="G26" s="12">
         <v>2.9920329633350601E-3</v>
       </c>
-      <c r="I26" s="94" t="s">
+      <c r="I26" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="14">
         <v>0.22467498765110999</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="14">
         <v>0.23449139622892201</v>
       </c>
-      <c r="L26" s="89">
+      <c r="L26" s="15">
         <v>-4.9190359922241703E-2</v>
       </c>
-      <c r="M26" s="89">
+      <c r="M26" s="15">
         <v>3.4318528271432398E-2</v>
       </c>
-      <c r="N26" s="87">
+      <c r="N26" s="14">
         <v>-1.43334701107183</v>
       </c>
-      <c r="O26" s="89">
+      <c r="O26" s="15">
         <v>0.15175869343675799</v>
       </c>
-      <c r="Q26" s="94" t="s">
+      <c r="Q26" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="R26" s="87">
+      <c r="R26" s="14">
         <v>2.8851143818738701E-2</v>
       </c>
-      <c r="S26" s="87">
+      <c r="S26" s="14">
         <v>0.36435621422789999</v>
       </c>
-      <c r="T26" s="89">
+      <c r="T26" s="15">
         <v>-2.4883843373679899E-2</v>
       </c>
-      <c r="U26" s="89">
+      <c r="U26" s="15">
         <v>3.5216525149978098E-2</v>
       </c>
-      <c r="V26" s="87">
+      <c r="V26" s="14">
         <v>-0.706595647006795</v>
       </c>
-      <c r="W26" s="89">
+      <c r="W26" s="15">
         <v>0.479817794840393</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I27" s="95" t="s">
+      <c r="I27" s="75" t="s">
         <v>120</v>
       </c>
       <c r="J27" s="18">
@@ -7860,7 +7838,7 @@
       <c r="O27" s="20">
         <v>0.16984067724777799</v>
       </c>
-      <c r="Q27" s="95" t="s">
+      <c r="Q27" s="75" t="s">
         <v>115</v>
       </c>
       <c r="R27" s="18">
@@ -7883,7 +7861,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I28" s="96" t="s">
+      <c r="I28" s="76" t="s">
         <v>121</v>
       </c>
       <c r="J28" s="38">
@@ -7901,10 +7879,10 @@
       <c r="N28" s="38">
         <v>5.8678259314861503</v>
       </c>
-      <c r="O28" s="103" t="s">
+      <c r="O28" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="96" t="s">
+      <c r="Q28" s="76" t="s">
         <v>116</v>
       </c>
       <c r="R28" s="38">
@@ -7927,139 +7905,139 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="4">
         <v>0.84657551692770605</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="4">
         <v>0.85346049216935804</v>
       </c>
-      <c r="L29" s="91">
+      <c r="L29" s="10">
         <v>0.49912631275167701</v>
       </c>
-      <c r="M29" s="92">
+      <c r="M29" s="5">
         <v>6.5859265979663198E-2</v>
       </c>
-      <c r="N29" s="90">
+      <c r="N29" s="4">
         <v>7.5786801648503497</v>
       </c>
-      <c r="O29" s="104" t="s">
+      <c r="O29" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="97" t="s">
+      <c r="Q29" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="R29" s="90">
+      <c r="R29" s="4">
         <v>8.5901561933159705E-4</v>
       </c>
-      <c r="S29" s="90">
+      <c r="S29" s="4">
         <v>6.95694665450486E-2</v>
       </c>
-      <c r="T29" s="92">
+      <c r="T29" s="5">
         <v>4.5633440472272104E-3</v>
       </c>
-      <c r="U29" s="92">
+      <c r="U29" s="5">
         <v>4.5282283268598698E-2</v>
       </c>
-      <c r="V29" s="90">
+      <c r="V29" s="4">
         <v>0.100775484755463</v>
       </c>
-      <c r="W29" s="92">
+      <c r="W29" s="5">
         <v>0.91972868808040498</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I30" s="97" t="s">
+      <c r="I30" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="J30" s="90">
+      <c r="J30" s="4">
         <v>0.83453020830011904</v>
       </c>
-      <c r="K30" s="90">
+      <c r="K30" s="4">
         <v>0.84405379021622995</v>
       </c>
-      <c r="L30" s="91">
+      <c r="L30" s="10">
         <v>0.48637159527366203</v>
       </c>
-      <c r="M30" s="92">
+      <c r="M30" s="5">
         <v>6.3392552948514605E-2</v>
       </c>
-      <c r="N30" s="90">
+      <c r="N30" s="4">
         <v>7.6723774741912898</v>
       </c>
-      <c r="O30" s="104" t="s">
+      <c r="O30" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="97" t="s">
+      <c r="Q30" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="R30" s="90">
+      <c r="R30" s="4">
         <v>0.13708332140079299</v>
       </c>
-      <c r="S30" s="90">
+      <c r="S30" s="4">
         <v>0.13708332140079299</v>
       </c>
-      <c r="T30" s="92">
+      <c r="T30" s="5">
         <v>5.3209105457176498E-2</v>
       </c>
-      <c r="U30" s="92">
+      <c r="U30" s="5">
         <v>4.0251469248442397E-2</v>
       </c>
-      <c r="V30" s="90">
+      <c r="V30" s="4">
         <v>1.3219170989450399</v>
       </c>
-      <c r="W30" s="92">
+      <c r="W30" s="5">
         <v>0.18619575791306101</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I31" s="97" t="s">
+      <c r="I31" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="90">
+      <c r="J31" s="4">
         <v>0.187971496885177</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="4">
         <v>0.187971496885177</v>
       </c>
-      <c r="L31" s="92">
+      <c r="L31" s="5">
         <v>0.14431180399246399</v>
       </c>
-      <c r="M31" s="92">
+      <c r="M31" s="5">
         <v>0.11336851883823899</v>
       </c>
-      <c r="N31" s="90">
+      <c r="N31" s="4">
         <v>1.2729442482915101</v>
       </c>
-      <c r="O31" s="92">
+      <c r="O31" s="5">
         <v>0.20303782613763799</v>
       </c>
-      <c r="Q31" s="97" t="s">
+      <c r="Q31" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="R31" s="90">
+      <c r="R31" s="4">
         <v>4.1082040598559001E-2</v>
       </c>
-      <c r="S31" s="90">
+      <c r="S31" s="4">
         <v>0.31416602684086697</v>
       </c>
-      <c r="T31" s="92">
+      <c r="T31" s="5">
         <v>3.0220272736632699E-2</v>
       </c>
-      <c r="U31" s="92">
+      <c r="U31" s="5">
         <v>3.7229356565358002E-2</v>
       </c>
-      <c r="V31" s="90">
+      <c r="V31" s="4">
         <v>0.81173234040667597</v>
       </c>
-      <c r="W31" s="92">
+      <c r="W31" s="5">
         <v>0.416945232950235</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I32" s="98" t="s">
+      <c r="I32" s="78" t="s">
         <v>125</v>
       </c>
       <c r="J32" s="7">
@@ -8077,10 +8055,10 @@
       <c r="N32" s="7">
         <v>3.9923043564154002</v>
       </c>
-      <c r="O32" s="105" t="s">
+      <c r="O32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="98" t="s">
+      <c r="Q32" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R32" s="7">
